--- a/input_data/screws/screws_unsh.xlsx
+++ b/input_data/screws/screws_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_24/screws/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/screws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055A8454-8A7C-9F4C-8A41-1481D4890252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F0E30B-7CE5-504E-8817-153D55830C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="197">
   <si>
     <t>Отбор:</t>
   </si>
@@ -59,294 +59,297 @@
     <t>40005А Винт LM (копия оригинала) Implantium, Impro (арт. ASC2045) V.1</t>
   </si>
   <si>
+    <t>39806А Винт LM (копия оригинала) Straumann Bone Level NC (3.3) (арт. 025-2900) V.1</t>
+  </si>
+  <si>
+    <t>39502А Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1</t>
+  </si>
+  <si>
+    <t>39912А Винт LM (копия оригинала) Bego Semados 3.25/3.75 / 4.1 / 4.5 / 5.5 (арт. 57028) V.1</t>
+  </si>
+  <si>
+    <t>39807А Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1</t>
+  </si>
+  <si>
     <t>40008А Винт LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) (арт. GSABSST) V.1</t>
   </si>
   <si>
-    <t>39806А Винт LM (копия оригинала) Straumann Bone Level NC (3.3) (арт. 025-2900) V.1</t>
+    <t>40125 Винт LM (копия оригинала) Alpha Bio Conical Narrow (арт. 7345) V.1</t>
   </si>
   <si>
     <t>40312А Винт LM (копия оригинала) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Nobel) (арт. 29287) V.1</t>
   </si>
   <si>
-    <t>39807А Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1</t>
-  </si>
-  <si>
-    <t>39502А Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1</t>
-  </si>
-  <si>
-    <t>40125 Винт LM (копия оригинала) Alpha Bio Conical Narrow (арт. 7345) V.1</t>
-  </si>
-  <si>
     <t>40308А Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2</t>
   </si>
   <si>
+    <t>39913А Винт LM (копия оригинала) Conmet NP (2.2) (арт. 213.12) V.1</t>
+  </si>
+  <si>
+    <t>40311А Винт LM (копия оригинала) Mis Multi-Unit (арт. MU-S0220) V.1</t>
+  </si>
+  <si>
     <t>39502С Винт LM (копия оригинала) Zimmer 3.5 / 4.5 / 5.7 (арт. R60) V.1</t>
   </si>
   <si>
-    <t>39913А Винт LM (копия оригинала) Conmet NP (2.2) (арт. 213.12) V.1</t>
-  </si>
-  <si>
     <t>39911А Винт LM (копия оригинала) MegaGen AnyOne (арт. AS20) V.1</t>
   </si>
   <si>
-    <t>40311А Винт LM (копия оригинала) Mis Multi-Unit (арт. MU-S0220) V.1</t>
-  </si>
-  <si>
-    <t>39912А Винт LM (копия оригинала) Bego Semados 3.25/3.75 / 4.1 / 4.5 / 5.5 (арт. 57028) V.1</t>
+    <t>40140А Винт LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1</t>
   </si>
   <si>
     <t>40005Аупб Винт LM (копия оригинала) Implantium, Impro (арт. ASC2045) V.1 / УПАК</t>
   </si>
   <si>
+    <t>40006А Винт LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1</t>
+  </si>
+  <si>
     <t>40316А Винт LM GEO Osstem Implant Multi-Unit, LENMIRIOT Multi-Unit (отв. Osstem) (арт. MUTOC) V.1</t>
   </si>
   <si>
-    <t>40140А Винт LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1</t>
-  </si>
-  <si>
     <t>39901А Винт LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1</t>
   </si>
   <si>
-    <t>40006А Винт LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1</t>
+    <t>я НЕ ИСП !!!40008Ауп Винт LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) (арт. GSABSST) V.1  / В ПРОБИРКЕ</t>
   </si>
   <si>
     <t>41250А Винт LM (копия оригинала) Straumann SynOcta RN (4.8) / WN (6.5) (арт. 048.711) V.1</t>
   </si>
   <si>
+    <t>39109А Винт LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5</t>
+  </si>
+  <si>
+    <t>39906В Винт LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNIHT) V.2</t>
+  </si>
+  <si>
+    <t>39936 Винт LM (копия оригинала) Conmet NP (2.2) (арт. 213.12s) V.1</t>
+  </si>
+  <si>
     <t>40003А Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1</t>
   </si>
   <si>
-    <t>39109А Винт LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5</t>
+    <t>39802А Винт LM (копия оригинала) Mis NP (3.3), Mis C1 (Conical) NP (3.3) (арт. MN-S0160) V.1</t>
   </si>
   <si>
     <t>39915А Винт LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1</t>
   </si>
   <si>
-    <t>39936 Винт LM (копия оригинала) Conmet NP (2.2) (арт. 213.12s) V.1</t>
-  </si>
-  <si>
-    <t>39906В Винт LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNIHT) V.2</t>
+    <t>39914А Винт LM (копия оригинала) Conmet RP (2.7) (арт. 213.21) V.1</t>
+  </si>
+  <si>
+    <t>39908А Винт LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1</t>
+  </si>
+  <si>
+    <t>40009Аупб Винт LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>41034 Винт LM ZIRKONZAHN Osstem Implant Regular (4.0/4.5/5.0) V.1</t>
+  </si>
+  <si>
+    <t>39121 Винт LM (копия оригинала) Neodent Grand Morse (арт. 116.286 Long) V.1</t>
   </si>
   <si>
     <t>40314А Винт LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/Astra/Adin RS) V.1</t>
   </si>
   <si>
-    <t>39914А Винт LM (копия оригинала) Conmet RP (2.7) (арт. 213.21) V.1</t>
-  </si>
-  <si>
-    <t>41034 Винт LM ZIRKONZAHN Osstem Implant Regular (4.0/4.5/5.0) V.1</t>
+    <t>40105А Винт LM (копия оригинала) Anthogyr Axiom (арт. ОРТР410) V.1</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!39502Ауп Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1  / В ПР</t>
+  </si>
+  <si>
+    <t>39907А Винт LM (копия оригинала) Nobel Replace Select 3.5 (арт. 36818) V.1</t>
+  </si>
+  <si>
+    <t>40003Аупб Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!40005Ауп Винт LM (копия оригинала) Implantium, Impro (арт. ASC2045) V.1  / В ПРОБИРКЕ</t>
+  </si>
+  <si>
+    <t>40139А Винт LM (копия оригинала) INNO V.1</t>
+  </si>
+  <si>
+    <t>39906В Винт LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNITS) V.1</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!40006Ауп Винт LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1  / В ПРОБИРКЕ</t>
+  </si>
+  <si>
+    <t>40308Ауп Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2 / УПАК</t>
+  </si>
+  <si>
+    <t>40110А Винт LM (копия оригинала) Liko-M (арт. INN-6050) V.1</t>
+  </si>
+  <si>
+    <t>40127А Винт LM (копия оригинала) BoneTrust HEX 3.0 / 3.4 / 4.0 / 5.0 (арт. 160-100001) V.1</t>
+  </si>
+  <si>
+    <t>39915Аупб Винт LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39918Аупб Винт LM (копия оригинала) Adin RP (3.5) (арт. RP-0001) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39902А Винт LM (копия оригинала) Alpha Bio Internal SHBZ (арт. 6053) V.1</t>
+  </si>
+  <si>
+    <t>39807Аупб Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>40116А Винт LM (копия оригинала) Sky Bredent (арт. SKY-PS24) V.1</t>
+  </si>
+  <si>
+    <t>39919Аупб Винт LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1 / УПАК</t>
   </si>
   <si>
     <t>40300А Винт LM (копия оригинала) Ankylos Multi-Unit (арт. 3105 6022) V.1</t>
   </si>
   <si>
-    <t>я НЕ ИСП !!!40008Ауп Винт LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) (арт. GSABSST) V.1  / В ПРОБИРКЕ</t>
-  </si>
-  <si>
-    <t>40105А Винт LM (копия оригинала) Anthogyr Axiom (арт. ОРТР410) V.1</t>
-  </si>
-  <si>
-    <t>39121 Винт LM (копия оригинала) Neodent Grand Morse (арт. 116.286 Long) V.1</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!39502Ауп Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1  / В ПР</t>
-  </si>
-  <si>
-    <t>39907А Винт LM (копия оригинала) Nobel Replace Select 3.5 (арт. 36818) V.1</t>
-  </si>
-  <si>
-    <t>39908А Винт LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1</t>
-  </si>
-  <si>
-    <t>40308Ауп Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2 / УПАК</t>
-  </si>
-  <si>
-    <t>40003Аупб Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40139А Винт LM (копия оригинала) INNO V.1</t>
-  </si>
-  <si>
-    <t>39906В Винт LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNITS) V.1</t>
-  </si>
-  <si>
-    <t>40009Аупб Винт LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!40005Ауп Винт LM (копия оригинала) Implantium, Impro (арт. ASC2045) V.1  / В ПРОБИРКЕ</t>
-  </si>
-  <si>
-    <t>40127А Винт LM (копия оригинала) BoneTrust HEX 3.0 / 3.4 / 4.0 / 5.0 (арт. 160-100001) V.1</t>
-  </si>
-  <si>
-    <t>39915Аупб Винт LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39918Аупб Винт LM (копия оригинала) Adin RP (3.5) (арт. RP-0001) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39807Аупб Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39919Аупб Винт LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40116А Винт LM (копия оригинала) Sky Bredent (арт. SKY-PS24) V.1</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!40006Ауп Винт LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1  / В ПРОБИРКЕ</t>
+    <t>39113А Винт LM NT-Traiding Straumann SynOcta NN (3.5) (арт. N 60) V.1</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!39901Ауп Винт LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1  / В ПРОБИРКЕ</t>
   </si>
   <si>
     <t>41029 Винт LM ZIRKONZAHN Impro, Implantium V.1</t>
   </si>
   <si>
-    <t>я НЕ ИСП !!!39901Ауп Винт LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1  / В ПРОБИРКЕ</t>
-  </si>
-  <si>
-    <t>39930 Винт LM (копия оригинала) MegaGen Multi-Unit Type N, LENMIRIOT Multi-Unit (отв. Megagen/Neobiotech/Xive) (арт. MUAS) V.1</t>
-  </si>
-  <si>
-    <t>39113А Винт LM NT-Traiding Straumann SynOcta NN (3.5) (арт. N 60) V.1</t>
-  </si>
-  <si>
     <t>39502Аупб Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1 / УПАК</t>
   </si>
   <si>
     <t>39600А Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.2</t>
   </si>
   <si>
+    <t>я НЕ ИСП !!!39912Ауп Винт LM (копия оригинала) Bego Semados 3.25/3.75 / 4.1 / 4.5 / 5.5 (арт. 57028) V.1  / В ПРОБИРКЕ</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!40010Ауп Винт LM (копия оригинала) NeoBiotech 3.8 / 4.3 (арт. ISC 20) V.1  / В ПРОБИРКЕ</t>
+  </si>
+  <si>
+    <t>39601А Винт LM (копия оригинала) Niko 4.5 (арт. 5.300) V.1</t>
+  </si>
+  <si>
+    <t>40008Аупб Винт LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) (арт. GSABSST) V.1 / УПАК</t>
+  </si>
+  <si>
     <t>39917Аупб Винт LM (копия оригинала) Adin NP (3.0) (арт. NP-0001) V.1 / УПАК</t>
   </si>
   <si>
-    <t>я НЕ ИСП !!!40010Ауп Винт LM (копия оригинала) NeoBiotech 3.8 / 4.3 (арт. ISC 20) V.1  / В ПРОБИРКЕ</t>
-  </si>
-  <si>
-    <t>39601А Винт LM (копия оригинала) Niko 4.5 (арт. 5.300) V.1</t>
-  </si>
-  <si>
-    <t>40008Аупб Винт LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) (арт. GSABSST) V.1 / УПАК</t>
+    <t>40007Аупб Винт LM (копия оригинала) Osstem Implant Mini (3.5) (арт. GSABSM) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39912А Винт LM (собств. разр.) Bego Semados 3.25/3.75 V.2</t>
+  </si>
+  <si>
+    <t>39600А Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.1</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!40003Ауп Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1  / В ПРОБИРКЕ</t>
+  </si>
+  <si>
+    <t>40109А Винт LM (копия оригинала) DIO UF II RP (3.8/4.0/4.5/5.0/5.5) (арт. SSC 2008H) V.1</t>
+  </si>
+  <si>
+    <t>41039 Винт LM ZIRKONZAHN Zimmer 3.5 / 4.5 V.1</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!39807Ауп Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1  / В ПРОБИРКЕ</t>
+  </si>
+  <si>
+    <t>39109Аупб Винт LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5 / УПАК</t>
+  </si>
+  <si>
+    <t>41298А Винт LM (копия оригинала) Sky Bredent (арт. SKY-PS22) V.1</t>
+  </si>
+  <si>
+    <t>40305А Винт LM (копия оригинала) Astra Uni 20 градусов / 45 градусов (арт. 22435) V.1</t>
+  </si>
+  <si>
+    <t>41332А Винт LM (копия оригинала) Niko 4.5 (арт. 5.300 1,2 hex) V.1</t>
+  </si>
+  <si>
+    <t>39809А Винт LM (копия оригинала) Radix (арт. 180) V.1</t>
+  </si>
+  <si>
+    <t>40312АNопт Винт LM (копия оригинала) Nobel Multi-Unit (арт. 29287) V.1</t>
+  </si>
+  <si>
+    <t>39802Аупб Винт LM (копия оригинала) Mis NP (3.3), Mis C1 (Conical) NP (3.3) (арт. MN-S0160) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>40111Аупб Винт LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>40308А Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5, Impro Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.1</t>
+  </si>
+  <si>
+    <t>40316АOопт Винт LM GEO Osstem Implant Multi-Unit (арт. MUTOC) V.1</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!40009Ауп Винт LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1  / В ПР</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!39806Ауп Винт LM (копия оригинала) Straumann Bone Level NC (3.3) (арт. 025-2900) V.1  / В ПРОБИРКЕ</t>
+  </si>
+  <si>
+    <t>40140Ауп Винт LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39908Аупб Винт LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!39916Ауп Винт LM (копия оригинала) Astra Tech 3.5/4.0 (арт. 24449) V.1  / В ПРОБИРКЕ</t>
   </si>
   <si>
     <t>я НЕ ИСП !!!40007Ауп Винт LM (копия оригинала) Osstem Implant Mini (3.5) (арт. GSABSM) V.1  / В ПРОБИРКЕ</t>
   </si>
   <si>
-    <t>40007Аупб Винт LM (копия оригинала) Osstem Implant Mini (3.5) (арт. GSABSM) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39912А Винт LM (собств. разр.) Bego Semados 3.25/3.75 V.2</t>
-  </si>
-  <si>
-    <t>39600А Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.1</t>
-  </si>
-  <si>
-    <t>40109А Винт LM (копия оригинала) DIO UF II RP (3.8/4.0/4.5/5.0/5.5) (арт. SSC 2008H) V.1</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!39807Ауп Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1  / В ПРОБИРКЕ</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!40003Ауп Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1  / В ПРОБИРКЕ</t>
-  </si>
-  <si>
-    <t>41039 Винт LM ZIRKONZAHN Zimmer 3.5 / 4.5 V.1</t>
-  </si>
-  <si>
-    <t>41298А Винт LM (копия оригинала) Sky Bredent (арт. SKY-PS22) V.1</t>
-  </si>
-  <si>
-    <t>39109Аупб Винт LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5 / УПАК</t>
-  </si>
-  <si>
-    <t>40305А Винт LM (копия оригинала) Astra Uni 20 градусов / 45 градусов (арт. 22435) V.1</t>
-  </si>
-  <si>
-    <t>40312АNопт Винт LM (копия оригинала) Nobel Multi-Unit (арт. 29287) V.1</t>
-  </si>
-  <si>
-    <t>39809А Винт LM (копия оригинала) Radix (арт. 180) V.1</t>
-  </si>
-  <si>
-    <t>39802А Винт LM (копия оригинала) Mis NP (3.3), Mis C1 (Conical) NP (3.3) (арт. MN-S0160) V.1</t>
-  </si>
-  <si>
-    <t>41332А Винт LM (копия оригинала) Niko 4.5 (арт. 5.300 1,2 hex) V.1</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!39806Ауп Винт LM (копия оригинала) Straumann Bone Level NC (3.3) (арт. 025-2900) V.1  / В ПРОБИРКЕ</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!39916Ауп Винт LM (копия оригинала) Astra Tech 3.5/4.0 (арт. 24449) V.1  / В ПРОБИРКЕ</t>
-  </si>
-  <si>
-    <t>39909В Винт LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!40009Ауп Винт LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1  / В ПР</t>
-  </si>
-  <si>
-    <t>39802Аупб Винт LM (копия оригинала) Mis NP (3.3), Mis C1 (Conical) NP (3.3) (арт. MN-S0160) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40308А Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5, Impro Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.1</t>
-  </si>
-  <si>
-    <t>40111Аупб Винт LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40140Ауп Винт LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40300Аупб Винт LM (копия оригинала) Ankylos Multi-Unit (арт. 3105 6022) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39908Аупб Винт LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1 / УПАК</t>
+    <t>39901Аупб Винт LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1 / УПАК</t>
   </si>
   <si>
     <t>39600Аупб Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.1 / УПАК</t>
   </si>
   <si>
-    <t>39901Аупб Винт LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1 / УПАК</t>
+    <t>39905Bупб Винт LM (копия оригинала) Astra Tech 4.5/5.0 (арт. 24209) V.1 / УПАК</t>
   </si>
   <si>
     <t>39114Аупб Винт LM (собств. разр.) Straumann SynOcta 6.5 bridge V.1 / УПАК</t>
   </si>
   <si>
+    <t>41258А Винт LM (копия оригинала) Paltop Conical Active (арт. 80-72002) V.1</t>
+  </si>
+  <si>
+    <t>39123 Винт LM (копия оригинала) Neodent Grand Morse (арт. 116.283 Short) V.1</t>
+  </si>
+  <si>
     <t>40101А Винт LM (копия оригинала) DIO SM RP (4.5) (арт. SSC 2008) V.1</t>
   </si>
   <si>
-    <t>39905Bупб Винт LM (копия оригинала) Astra Tech 4.5/5.0 (арт. 24209) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>41258А Винт LM (копия оригинала) Paltop Conical Active (арт. 80-72002) V.1</t>
-  </si>
-  <si>
-    <t>39123 Винт LM (копия оригинала) Neodent Grand Morse (арт. 116.283 Short) V.1</t>
-  </si>
-  <si>
     <t>39115Аупб Винт Straumann SynOcta 4,8 bridge LM (1 винт в упаковке, блистер)</t>
   </si>
   <si>
-    <t>я НЕ ИСП !!!40105Ауп Винт LM (копия оригинала) Anthogyr Axiom (арт. ОРТР410) V.1  / В ПРОБИРКЕ</t>
+    <t>40106А Винт LM (копия оригинала) Impla 3.3 / 4.2 / 5.3, Impla Conical 3.3 / 4.2 / 5.3 (арт. 636649) V.1</t>
+  </si>
+  <si>
+    <t>41244 Винт LM (копия оригинала) MegaGen MiNi (арт. MIAS14) V.1</t>
+  </si>
+  <si>
+    <t>39909Вупб Винт LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>40101Аупб Винт LM (копия оригинала) DIO SM RP (4.5) (арт. SSC 2008) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>40111А Винт LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1</t>
+  </si>
+  <si>
+    <t>39803Аупб Винт LM (копия оригинала) Xive 3.0 (арт. 46-4304) V.1 / УПАК</t>
   </si>
   <si>
     <t>40108Аупб Винт LM (копия оригинала) DIO UF II NP (3.0) (арт. UNSAS 1407H) V.1 / УПАК</t>
   </si>
   <si>
-    <t>39803Аупб Винт LM (копия оригинала) Xive 3.0 (арт. 46-4304) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40111А Винт LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1</t>
-  </si>
-  <si>
-    <t>39909Вупб Винт LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40101Аупб Винт LM (копия оригинала) DIO SM RP (4.5) (арт. SSC 2008) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40106А Винт LM (копия оригинала) Impla 3.3 / 4.2 / 5.3, Impla Conical 3.3 / 4.2 / 5.3 (арт. 636649) V.1</t>
-  </si>
-  <si>
     <t>Винт 3D аналога</t>
   </si>
   <si>
@@ -374,102 +377,108 @@
     <t>39502СЛ Винт лаб. LM (копия оригинала) Zimmer 3.5 / 4.5 / 5.7 (арт. R60) V.1</t>
   </si>
   <si>
+    <t>39807АЛ Винт лаб. LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1</t>
+  </si>
+  <si>
+    <t>40006АЛ Винт лаб. LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1</t>
+  </si>
+  <si>
     <t>40312АЛ Винт лаб. LM (копия оригинала) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Nobel) (арт. 29287) V.1</t>
   </si>
   <si>
-    <t>40006АЛ Винт лаб. LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1</t>
-  </si>
-  <si>
-    <t>39807АЛ Винт лаб. LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1</t>
+    <t>39916АЛ Винт лаб. LM (копия оригинала) Astra Tech 3.5/4.0 (арт. 24449) V.1</t>
+  </si>
+  <si>
+    <t>39109АЛ Винт лаб. LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5</t>
+  </si>
+  <si>
+    <t>40308АЛ Винт лаб. LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2</t>
+  </si>
+  <si>
+    <t>41250АЛ Винт лаб. LM (копия оригинала) Straumann SynOcta RN (4.8) / WN (6.5) (арт. 048.711) V.1</t>
+  </si>
+  <si>
+    <t>40140АЛ Винт лаб. LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1</t>
+  </si>
+  <si>
+    <t>40003АЛ Винт лаб. LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1</t>
+  </si>
+  <si>
+    <t>39909ВЛ Винт лаб. LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1</t>
   </si>
   <si>
     <t>40316АЛ Винт лаб. LM GEO Osstem Implant Multi-Unit, LENMIRIOT Multi-Unit (отв. Osstem) (арт. MUTOC) V.1</t>
   </si>
   <si>
-    <t>40308АЛ Винт лаб. LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2</t>
-  </si>
-  <si>
-    <t>39109АЛ Винт лаб. LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5</t>
-  </si>
-  <si>
-    <t>41250АЛ Винт лаб. LM (копия оригинала) Straumann SynOcta RN (4.8) / WN (6.5) (арт. 048.711) V.1</t>
-  </si>
-  <si>
-    <t>40140АЛ Винт лаб. LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1</t>
-  </si>
-  <si>
-    <t>39909ВЛ Винт лаб. LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1</t>
-  </si>
-  <si>
-    <t>40003АЛ Винт лаб. LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1</t>
-  </si>
-  <si>
-    <t>39916АЛ Винт лаб. LM (копия оригинала) Astra Tech 3.5/4.0 (арт. 24449) V.1</t>
-  </si>
-  <si>
     <t>40009АЛ Винт лаб. LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1</t>
   </si>
   <si>
+    <t>40312АЛNопт Винт лаб. LM (копия оригинала) Nobel Multi-Unit (арт. 29287) V.1</t>
+  </si>
+  <si>
     <t>39908АЛ Винт лаб. LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1</t>
   </si>
   <si>
+    <t>39912АЛ Винт лаб. LM (копия оригинала) Bego Semados 3.25/3.75 / 4.1 / 4.5 / 5.5 (арт. 57028) V.1</t>
+  </si>
+  <si>
+    <t>40105АЛ Винт лаб. LM (копия оригинала) Anthogyr Axiom (арт. ОРТР410) V.1</t>
+  </si>
+  <si>
+    <t>39802АЛ Винт лаб. LM (копия оригинала) Mis NP (3.3), Mis C1 (Conical) NP (3.3) (арт. MN-S0160) V.1</t>
+  </si>
+  <si>
+    <t>39906ВЛ Винт лаб. LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNITS) V.1</t>
+  </si>
+  <si>
+    <t>39915АЛ Винт лаб. LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1</t>
+  </si>
+  <si>
+    <t>40311АЛ Винт лаб. LM (копия оригинала) Mis Multi-Unit (арт. MU-S0220) V.1</t>
+  </si>
+  <si>
+    <t>39906ВЛ Винт лаб. LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNIHT) V.2</t>
+  </si>
+  <si>
+    <t>40139АЛ Винт лаб. LM (копия оригинала) INNO V.1</t>
+  </si>
+  <si>
+    <t>39918АЛ Винт лаб. LM (копия оригинала) Adin RP (3.5) (арт. RP-0001) V.1</t>
+  </si>
+  <si>
+    <t>39905BЛ Винт лаб. LM (копия оригинала) Astra Tech 4.5/5.0 (арт. 24209) V.1</t>
+  </si>
+  <si>
+    <t>39919АЛ Винт лаб. LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1</t>
+  </si>
+  <si>
+    <t>40116АЛ Винт лаб. LM (копия оригинала) Sky Bredent (арт. SKY-PS24) V.1</t>
+  </si>
+  <si>
+    <t>40010АЛ Винт лаб. LM (копия оригинала) NeoBiotech 3.8 / 4.3 (арт. ISC 20) V.1</t>
+  </si>
+  <si>
+    <t>39911АЛ Винт лаб. LM (копия оригинала) MegaGen AnyOne (арт. AS20) V.1</t>
+  </si>
+  <si>
+    <t>39600АЛ Винт лаб. LM (копия оригинала) Niko 3.5 (арт. 5.301) V.2</t>
+  </si>
+  <si>
+    <t>39121Л Винт лаб. LM (копия оригинала) Neodent Grand Morse (арт. 116.286 Long) V.1</t>
+  </si>
+  <si>
+    <t>39901АЛ Винт лаб. LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1</t>
+  </si>
+  <si>
     <t>40314АЛ Винт лаб. LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/Astra/Adin RS) V.1</t>
   </si>
   <si>
-    <t>40105АЛ Винт лаб. LM (копия оригинала) Anthogyr Axiom (арт. ОРТР410) V.1</t>
-  </si>
-  <si>
-    <t>39802АЛ Винт лаб. LM (копия оригинала) Mis NP (3.3), Mis C1 (Conical) NP (3.3) (арт. MN-S0160) V.1</t>
-  </si>
-  <si>
-    <t>39906ВЛ Винт лаб. LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNITS) V.1</t>
-  </si>
-  <si>
-    <t>39915АЛ Винт лаб. LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1</t>
-  </si>
-  <si>
-    <t>40139АЛ Винт лаб. LM (копия оригинала) INNO V.1</t>
-  </si>
-  <si>
-    <t>39906ВЛ Винт лаб. LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNIHT) V.2</t>
-  </si>
-  <si>
-    <t>39918АЛ Винт лаб. LM (копия оригинала) Adin RP (3.5) (арт. RP-0001) V.1</t>
-  </si>
-  <si>
-    <t>39919АЛ Винт лаб. LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1</t>
-  </si>
-  <si>
-    <t>40116АЛ Винт лаб. LM (копия оригинала) Sky Bredent (арт. SKY-PS24) V.1</t>
-  </si>
-  <si>
-    <t>39912АЛ Винт лаб. LM (копия оригинала) Bego Semados 3.25/3.75 / 4.1 / 4.5 / 5.5 (арт. 57028) V.1</t>
-  </si>
-  <si>
-    <t>40010АЛ Винт лаб. LM (копия оригинала) NeoBiotech 3.8 / 4.3 (арт. ISC 20) V.1</t>
-  </si>
-  <si>
-    <t>39600АЛ Винт лаб. LM (копия оригинала) Niko 3.5 (арт. 5.301) V.2</t>
-  </si>
-  <si>
-    <t>39930Л Винт лаб. LM (копия оригинала) MegaGen Multi-Unit Type N, LENMIRIOT Multi-Unit (отв. Megagen/Neobiotech/Xive) (арт. MUAS) V.1</t>
-  </si>
-  <si>
-    <t>39121Л Винт лаб. LM (копия оригинала) Neodent Grand Morse (арт. 116.286 Long) V.1</t>
-  </si>
-  <si>
-    <t>39901АЛ Винт лаб. LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1</t>
+    <t>39912АЛ Винт лаб. LM (собств. разр.) Bego Semados 3.25/3.75 V.2</t>
   </si>
   <si>
     <t>40308АЛ Винт лаб. LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5, Impro Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.1</t>
   </si>
   <si>
-    <t>39912АЛ Винт лаб. LM (собств. разр.) Bego Semados 3.25/3.75 V.2</t>
-  </si>
-  <si>
-    <t>39911АЛ Винт лаб. LM (копия оригинала) MegaGen AnyOne (арт. AS20) V.1</t>
-  </si>
-  <si>
     <t>39600АЛ Винт лаб. LM (копия оригинала) Niko 3.5 (арт. 5.301) V.1</t>
   </si>
   <si>
@@ -482,6 +491,9 @@
     <t>40125Л Винт лаб. LM (копия оригинала) Alpha Bio Conical Narrow (арт. 7345) V.1</t>
   </si>
   <si>
+    <t>40111АЛ Винт лаб. LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1</t>
+  </si>
+  <si>
     <t>40127АЛ Винт лаб. LM (копия оригинала) BoneTrust HEX 3.0 / 3.4 / 4.0 / 5.0 (арт. 160-100001) V.1</t>
   </si>
   <si>
@@ -491,18 +503,15 @@
     <t>39123Л Винт лаб. LM (копия оригинала) Neodent Grand Morse (арт. 116.283 Short) V.1</t>
   </si>
   <si>
-    <t>39905BЛ Винт лаб. LM (копия оригинала) Astra Tech 4.5/5.0 (арт. 24209) V.1</t>
-  </si>
-  <si>
     <t>40304АЛ Винт лаб. LM (копия оригинала) Alpha Bio Multi-Unit TCT-N (арт. SF-N 6092) V.1</t>
   </si>
   <si>
-    <t>40111АЛ Винт лаб. LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1</t>
-  </si>
-  <si>
     <t>39907АЛ Винт лаб. LM (копия оригинала) Nobel Replace Select 3.5 (арт. 36818) V.1</t>
   </si>
   <si>
+    <t>39920АЛ Винт лаб. LM (копия оригинала) Biotech Kontact 3.6/4.2/4.8/5.4 (арт. KVP) V.1</t>
+  </si>
+  <si>
     <t>40101АЛ Винт лаб. LM (копия оригинала) DIO SM RP (4.5) (арт. SSC 2008) V.1</t>
   </si>
   <si>
@@ -527,6 +536,9 @@
     <t>41219 Винт трансфера Implantium открытая ложка L=15 V.1</t>
   </si>
   <si>
+    <t>41319 Винт трансфера LENMIRIOT Multi-Unit (отв. Megagen) / (отв. Osstem) открытая ложка L=10 V.1</t>
+  </si>
+  <si>
     <t>41218 Винт трансфера Implantium открытая ложка L=11 V.1</t>
   </si>
   <si>
@@ -539,15 +551,12 @@
     <t>41214 Винт трансфера Osstem Implant Regular (4.0/4.5/5.0) открытая ложка L=21.5 V.1</t>
   </si>
   <si>
+    <t>41216 Винт трансфера MegaGen AnyRidge открытая ложка L=22 V.1</t>
+  </si>
+  <si>
     <t>41212 Винт трансфера Osstem Implant Mini (3.5) открытая ложка L=23.3 V.1</t>
   </si>
   <si>
-    <t>41216 Винт трансфера MegaGen AnyRidge открытая ложка L=22 V.1</t>
-  </si>
-  <si>
-    <t>41319 Винт трансфера LENMIRIOT Multi-Unit (отв. Megagen) / (отв. Osstem) открытая ложка L=10 V.1</t>
-  </si>
-  <si>
     <t>41233 Винт трансфера Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) открытая ложка L=22.5 V.1</t>
   </si>
   <si>
@@ -557,55 +566,55 @@
     <t>41230 Винт трансфера Nobel Conical Connection NP (3.5), Nobel Active NP (3.5) открытая ложка L=27.7 V.1</t>
   </si>
   <si>
-    <t>41274 Винт трансфера Mis C1 (Conical) NP (3.3) открытая ложка L=21 V.1</t>
-  </si>
-  <si>
     <t>41230 Винт трансфера Nobel Conical Connection NP (3.5), Nobel Active NP (3.5) открытая ложка L=27.7 V.2</t>
   </si>
   <si>
     <t>41231 Винт трансфера Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) открытая ложка L=27.7 V.2</t>
   </si>
   <si>
+    <t>41321 Винт трансфера LENMIRIOT Multi-Unit открытая ложка L=10 V.1</t>
+  </si>
+  <si>
+    <t>41209 Винт трансфера Nobel Replace Select 4.3 открытая ложка L=20.6 V.1</t>
+  </si>
+  <si>
+    <t>41210 Винт трансфера Astra Tech 3.5/4.0 открытая ложка L=19 V.1</t>
+  </si>
+  <si>
+    <t>41232 Винт трансфера ICX Medentis открытая ложка L=20 V.1</t>
+  </si>
+  <si>
+    <t>41201 Винт трансфера Ankylos X открытая ложка L=20 V.1</t>
+  </si>
+  <si>
+    <t>41252 Винт трансфера Astra Tech 3.5/4.0 открытая ложка L=21 V.1</t>
+  </si>
+  <si>
+    <t>41221 Винт трансфера Ankylos X открытая ложка L=25 V.1</t>
+  </si>
+  <si>
+    <t>41213 Винт трансфера Osstem Implant Mini (3.5) открытая ложка L=15 V.1</t>
+  </si>
+  <si>
+    <t>41215 Винт трансфера Osstem Implant Regular (4.0/4.5/5.0) открытая ложка L=25.5 V.1</t>
+  </si>
+  <si>
     <t>41237 Винт трансфера Straumann Bone Level NC (3.3) / RC ( 4.1/4.8) открытая ложка L=30 V.1</t>
   </si>
   <si>
-    <t>41209 Винт трансфера Nobel Replace Select 4.3 открытая ложка L=20.6 V.1</t>
-  </si>
-  <si>
-    <t>41210 Винт трансфера Astra Tech 3.5/4.0 открытая ложка L=19 V.1</t>
-  </si>
-  <si>
-    <t>41201 Винт трансфера Ankylos X открытая ложка L=20 V.1</t>
-  </si>
-  <si>
-    <t>41232 Винт трансфера ICX Medentis открытая ложка L=20 V.1</t>
-  </si>
-  <si>
-    <t>41252 Винт трансфера Astra Tech 3.5/4.0 открытая ложка L=21 V.1</t>
-  </si>
-  <si>
-    <t>41221 Винт трансфера Ankylos X открытая ложка L=25 V.1</t>
-  </si>
-  <si>
-    <t>41213 Винт трансфера Osstem Implant Mini (3.5) открытая ложка L=15 V.1</t>
-  </si>
-  <si>
-    <t>41215 Винт трансфера Osstem Implant Regular (4.0/4.5/5.0) открытая ложка L=25.5 V.1</t>
-  </si>
-  <si>
-    <t>41226 Винт трансфера MegaGen AnyOne открытая ложка L=23.3 V.1</t>
-  </si>
-  <si>
     <t>Винт углового абатмента MU</t>
   </si>
   <si>
+    <t>41343 Винт угл. абатмента MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), MegaGen AnyOne, NeoBiotech 4.3 V.1 /</t>
+  </si>
+  <si>
     <t>41344 Винт угл. абатмента MU LM (собств. разр.) Implantium, Astra Tech 4.5/5.0 V.1 /</t>
   </si>
   <si>
     <t>41342 Винт угл. абатмента MU LM (собств. разр.) Osstem Implant Mini (3.5) V.1 /</t>
   </si>
   <si>
-    <t>41343 Винт угл. абатмента MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), MegaGen AnyOne, NeoBiotech 4.3 V.1 /</t>
+    <t>41359 Винт угл. абатмента MU LM (собств. разр.) Mis SP (3.75/4.2), Adin RS (3.5/3.75/4.2/5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) V.1 /</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1104,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H191"/>
+  <dimension ref="A1:H194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1168,15 +1177,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17">
-        <v>18851</v>
+        <v>17517</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="4">
-        <v>9975</v>
+        <v>9815</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>8876</v>
+        <v>7702</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1186,7 +1195,7 @@
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19">
-        <v>4730</v>
+        <v>4288</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="6">
@@ -1194,43 +1203,43 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19">
-        <v>2588</v>
+        <v>1034</v>
       </c>
       <c r="E8" s="19"/>
-      <c r="F8" s="6">
-        <v>1288</v>
+      <c r="F8" s="8">
+        <v>343</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="6">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="H8" s="8">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="19">
-        <v>1056</v>
+        <v>2145</v>
       </c>
       <c r="E9" s="19"/>
-      <c r="F9" s="8">
-        <v>343</v>
+      <c r="F9" s="6">
+        <v>1605</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="8">
-        <v>713</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1240,15 +1249,15 @@
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="20">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="8">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="8">
-        <v>566</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1258,7 +1267,7 @@
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="20">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="8">
@@ -1266,7 +1275,7 @@
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="8">
-        <v>518</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1276,15 +1285,15 @@
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19">
-        <v>2073</v>
+        <v>1655</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="6">
-        <v>1605</v>
+        <v>1288</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="8">
-        <v>468</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1305,20 +1314,22 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="20">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="E14" s="20"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="8">
+        <v>50</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="8">
-        <v>216</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1328,15 +1339,13 @@
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="20">
-        <v>762</v>
+        <v>201</v>
       </c>
       <c r="E15" s="20"/>
-      <c r="F15" s="8">
-        <v>580</v>
-      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1364,15 +1373,15 @@
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="20">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="8">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="8">
-        <v>126</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1382,33 +1391,33 @@
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="20">
-        <v>172</v>
+        <v>725</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="8">
-        <v>50</v>
+        <v>580</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="8">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="20">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="8">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="8">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1418,31 +1427,33 @@
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="20">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="8">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="8">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="20">
-        <v>113</v>
+        <v>196</v>
       </c>
       <c r="E21" s="20"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="8">
+        <v>80</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1452,33 +1463,31 @@
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="20">
-        <v>105</v>
+        <v>227</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="8">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="8">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="20">
-        <v>417</v>
+        <v>88</v>
       </c>
       <c r="E23" s="20"/>
-      <c r="F23" s="8">
-        <v>324</v>
-      </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="8">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1488,15 +1497,15 @@
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="20">
-        <v>222</v>
+        <v>407</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="8">
-        <v>130</v>
+        <v>324</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="8">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1506,13 +1515,13 @@
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="20">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="8">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1522,15 +1531,13 @@
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="20">
-        <v>204</v>
+        <v>70</v>
       </c>
       <c r="E26" s="20"/>
-      <c r="F26" s="8">
-        <v>125</v>
-      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="8">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1558,13 +1565,13 @@
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="20">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="8">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1583,20 +1590,22 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="20">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="E30" s="20"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="8">
+        <v>125</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1606,13 +1615,15 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="20">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="E31" s="20"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="8">
+        <v>137</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1622,15 +1633,13 @@
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="20">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E32" s="20"/>
-      <c r="F32" s="8">
-        <v>20</v>
-      </c>
+      <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1640,13 +1649,15 @@
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="20">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E33" s="20"/>
-      <c r="F33" s="7"/>
+      <c r="F33" s="8">
+        <v>20</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="8">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1656,13 +1667,15 @@
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="20">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="E34" s="20"/>
-      <c r="F34" s="7"/>
+      <c r="F34" s="8">
+        <v>270</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="8">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1672,13 +1685,15 @@
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="20">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="E35" s="20"/>
-      <c r="F35" s="7"/>
+      <c r="F35" s="8">
+        <v>25</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="H35" s="8">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1688,15 +1703,13 @@
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="20">
-        <v>263</v>
+        <v>44</v>
       </c>
       <c r="E36" s="20"/>
-      <c r="F36" s="8">
-        <v>222</v>
-      </c>
+      <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="8">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1722,13 +1735,13 @@
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="20">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1738,49 +1751,49 @@
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="20">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="8">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A40" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="20">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c r="E40" s="20"/>
-      <c r="F40" s="8">
-        <v>270</v>
-      </c>
+      <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A41" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="20">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E41" s="20"/>
-      <c r="F41" s="7"/>
+      <c r="F41" s="8">
+        <v>45</v>
+      </c>
       <c r="G41" s="7"/>
       <c r="H41" s="8">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1790,7 +1803,7 @@
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="20">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="8">
@@ -1798,23 +1811,23 @@
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A43" s="18" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="20">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="8">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1833,19 +1846,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="20">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E45" s="20"/>
-      <c r="F45" s="8">
-        <v>25</v>
-      </c>
+      <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="8">
         <v>30</v>
@@ -1858,13 +1869,13 @@
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="20">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1874,49 +1885,45 @@
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="20">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="8">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E48" s="20"/>
-      <c r="F48" s="8">
-        <v>25</v>
-      </c>
+      <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="20">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E49" s="20"/>
-      <c r="F49" s="8">
-        <v>25</v>
-      </c>
+      <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1926,11 +1933,11 @@
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="20">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="8">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="8">
@@ -1962,10 +1969,12 @@
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="20">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E52" s="20"/>
-      <c r="F52" s="7"/>
+      <c r="F52" s="8">
+        <v>50</v>
+      </c>
       <c r="G52" s="7"/>
       <c r="H52" s="8">
         <v>25</v>
@@ -1978,13 +1987,15 @@
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="20">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="E53" s="20"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="8">
+        <v>80</v>
+      </c>
       <c r="G53" s="7"/>
       <c r="H53" s="8">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1994,47 +2005,47 @@
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="20">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E54" s="20"/>
-      <c r="F54" s="8">
-        <v>40</v>
-      </c>
+      <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A55" s="18" t="s">
         <v>58</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E55" s="20"/>
-      <c r="F55" s="7"/>
+      <c r="F55" s="8">
+        <v>25</v>
+      </c>
       <c r="G55" s="7"/>
       <c r="H55" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A56" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="20">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2060,15 +2071,13 @@
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="20">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E58" s="20"/>
-      <c r="F58" s="8">
-        <v>10</v>
-      </c>
+      <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2078,62 +2087,62 @@
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="20">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E59" s="20"/>
-      <c r="F59" s="7"/>
+      <c r="F59" s="8">
+        <v>40</v>
+      </c>
       <c r="G59" s="7"/>
       <c r="H59" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A60" s="18" t="s">
         <v>63</v>
       </c>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
       <c r="D60" s="20">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A61" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
       <c r="D61" s="20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A62" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="20">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E62" s="20"/>
-      <c r="F62" s="8">
-        <v>30</v>
-      </c>
+      <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="8">
         <v>15</v>
@@ -2146,31 +2155,31 @@
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="20">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E63" s="20"/>
-      <c r="F63" s="8">
-        <v>75</v>
-      </c>
+      <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A64" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
       <c r="D64" s="20">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E64" s="20"/>
-      <c r="F64" s="7"/>
+      <c r="F64" s="8">
+        <v>30</v>
+      </c>
       <c r="G64" s="7"/>
       <c r="H64" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2180,15 +2189,15 @@
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="20">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="8">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="8">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2198,62 +2207,66 @@
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="20">
-        <v>411</v>
+        <v>40</v>
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="8">
-        <v>400</v>
+        <v>25</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A67" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="20">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="8">
-        <v>251</v>
+        <v>65</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A68" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="20">
-        <v>10</v>
+        <v>411</v>
       </c>
       <c r="E68" s="20"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="8">
+        <v>400</v>
+      </c>
       <c r="G68" s="7"/>
       <c r="H68" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A69" s="18" t="s">
         <v>72</v>
       </c>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="20">
-        <v>10</v>
+        <v>261</v>
       </c>
       <c r="E69" s="20"/>
-      <c r="F69" s="7"/>
+      <c r="F69" s="8">
+        <v>251</v>
+      </c>
       <c r="G69" s="7"/>
       <c r="H69" s="8">
         <v>10</v>
@@ -2275,19 +2288,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A71" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="20">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E71" s="20"/>
-      <c r="F71" s="8">
-        <v>50</v>
-      </c>
+      <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="8">
         <v>10</v>
@@ -2300,45 +2311,47 @@
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
       <c r="D72" s="20">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E72" s="20"/>
-      <c r="F72" s="7"/>
+      <c r="F72" s="8">
+        <v>50</v>
+      </c>
       <c r="G72" s="7"/>
       <c r="H72" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A73" s="18" t="s">
         <v>76</v>
       </c>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
       <c r="D73" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A74" s="18" t="s">
         <v>77</v>
       </c>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
       <c r="D74" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E74" s="20"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2348,44 +2361,42 @@
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
       <c r="D75" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E75" s="20"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A76" s="18" t="s">
         <v>79</v>
       </c>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
       <c r="D76" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E76" s="20"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A77" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
       <c r="D77" s="20">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="E77" s="20"/>
-      <c r="F77" s="8">
-        <v>137</v>
-      </c>
+      <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="8">
         <v>7</v>
@@ -2407,20 +2418,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A79" s="18" t="s">
         <v>82</v>
       </c>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
       <c r="D79" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2430,13 +2441,15 @@
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
       <c r="D80" s="20">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E80" s="20"/>
-      <c r="F80" s="7"/>
+      <c r="F80" s="8">
+        <v>10</v>
+      </c>
       <c r="G80" s="7"/>
       <c r="H80" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2446,15 +2459,13 @@
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="20">
-        <v>216</v>
+        <v>5</v>
       </c>
       <c r="E81" s="20"/>
-      <c r="F81" s="8">
-        <v>210</v>
-      </c>
+      <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2464,28 +2475,28 @@
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
       <c r="D82" s="20">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E82" s="20"/>
-      <c r="F82" s="7"/>
+      <c r="F82" s="8">
+        <v>30</v>
+      </c>
       <c r="G82" s="7"/>
       <c r="H82" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A83" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
       <c r="D83" s="20">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E83" s="20"/>
-      <c r="F83" s="8">
-        <v>10</v>
-      </c>
+      <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="8">
         <v>5</v>
@@ -2498,18 +2509,16 @@
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
       <c r="D84" s="20">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E84" s="20"/>
-      <c r="F84" s="8">
-        <v>30</v>
-      </c>
+      <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A85" s="18" t="s">
         <v>88</v>
       </c>
@@ -2543,17 +2552,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A87" s="18" t="s">
         <v>90</v>
       </c>
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="20">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E87" s="20"/>
-      <c r="F87" s="7"/>
+      <c r="F87" s="8">
+        <v>20</v>
+      </c>
       <c r="G87" s="7"/>
       <c r="H87" s="8">
         <v>4</v>
@@ -2566,18 +2577,16 @@
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="20">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E88" s="20"/>
-      <c r="F88" s="8">
-        <v>20</v>
-      </c>
+      <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A89" s="18" t="s">
         <v>92</v>
       </c>
@@ -2618,13 +2627,13 @@
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E91" s="20"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2634,12 +2643,10 @@
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
       <c r="D92" s="20">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="E92" s="20"/>
-      <c r="F92" s="8">
-        <v>50</v>
-      </c>
+      <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="8">
         <v>2</v>
@@ -2702,16 +2709,18 @@
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="20">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="E96" s="20"/>
-      <c r="F96" s="7"/>
+      <c r="F96" s="8">
+        <v>50</v>
+      </c>
       <c r="G96" s="7"/>
       <c r="H96" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A97" s="18" t="s">
         <v>100</v>
       </c>
@@ -2766,12 +2775,10 @@
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
       <c r="D100" s="20">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E100" s="20"/>
-      <c r="F100" s="8">
-        <v>15</v>
-      </c>
+      <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="8">
         <v>1</v>
@@ -2800,16 +2807,18 @@
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
       <c r="D102" s="20">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E102" s="20"/>
-      <c r="F102" s="7"/>
+      <c r="F102" s="8">
+        <v>15</v>
+      </c>
       <c r="G102" s="7"/>
       <c r="H102" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A103" s="18" t="s">
         <v>106</v>
       </c>
@@ -2825,126 +2834,124 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="16" t="s">
+    <row r="104" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="21">
-        <v>21</v>
-      </c>
-      <c r="E104" s="21"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="18" t="s">
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="20">
+        <v>1</v>
+      </c>
+      <c r="E104" s="20"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="20">
-        <v>21</v>
-      </c>
-      <c r="E105" s="20"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="16" t="s">
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="21">
+        <v>20</v>
+      </c>
+      <c r="E105" s="21"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="17">
-        <v>5563</v>
-      </c>
-      <c r="E106" s="17"/>
-      <c r="F106" s="9">
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="20">
+        <v>20</v>
+      </c>
+      <c r="E106" s="20"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="17">
+        <v>5479</v>
+      </c>
+      <c r="E107" s="17"/>
+      <c r="F107" s="9">
         <v>740</v>
       </c>
-      <c r="G106" s="5"/>
-      <c r="H106" s="4">
-        <v>4823</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="19">
-        <v>1279</v>
-      </c>
-      <c r="E107" s="19"/>
-      <c r="F107" s="8">
-        <v>72</v>
-      </c>
-      <c r="G107" s="7"/>
-      <c r="H107" s="6">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="G107" s="5"/>
+      <c r="H107" s="4">
+        <v>4739</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A108" s="18" t="s">
         <v>111</v>
       </c>
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
       <c r="D108" s="19">
-        <v>1074</v>
+        <v>1117</v>
       </c>
       <c r="E108" s="19"/>
       <c r="F108" s="8">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G108" s="7"/>
       <c r="H108" s="6">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A109" s="18" t="s">
         <v>112</v>
       </c>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
-      <c r="D109" s="20">
-        <v>507</v>
-      </c>
-      <c r="E109" s="20"/>
+      <c r="D109" s="19">
+        <v>1097</v>
+      </c>
+      <c r="E109" s="19"/>
       <c r="F109" s="8">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G109" s="7"/>
-      <c r="H109" s="8">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="H109" s="6">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A110" s="18" t="s">
         <v>113</v>
       </c>
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
       <c r="D110" s="20">
-        <v>274</v>
+        <v>454</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="8">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G110" s="7"/>
       <c r="H110" s="8">
-        <v>268</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2954,85 +2961,85 @@
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
       <c r="D111" s="20">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="8">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="G111" s="7"/>
       <c r="H111" s="8">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A112" s="18" t="s">
         <v>115</v>
       </c>
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
       <c r="D112" s="20">
-        <v>155</v>
+        <v>285</v>
       </c>
       <c r="E112" s="20"/>
-      <c r="F112" s="7"/>
+      <c r="F112" s="8">
+        <v>51</v>
+      </c>
       <c r="G112" s="7"/>
       <c r="H112" s="8">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A113" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
       <c r="D113" s="20">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E113" s="20"/>
-      <c r="F113" s="8">
-        <v>2</v>
-      </c>
+      <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c r="H113" s="8">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A114" s="18" t="s">
         <v>117</v>
       </c>
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
       <c r="D114" s="20">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="8">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G114" s="7"/>
       <c r="H114" s="8">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A115" s="18" t="s">
         <v>118</v>
       </c>
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
       <c r="D115" s="20">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="8">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G115" s="7"/>
       <c r="H115" s="8">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3042,29 +3049,33 @@
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
       <c r="D116" s="20">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E116" s="20"/>
-      <c r="F116" s="7"/>
+      <c r="F116" s="8">
+        <v>2</v>
+      </c>
       <c r="G116" s="7"/>
       <c r="H116" s="8">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A117" s="18" t="s">
         <v>120</v>
       </c>
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
       <c r="D117" s="20">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E117" s="20"/>
-      <c r="F117" s="7"/>
+      <c r="F117" s="8">
+        <v>10</v>
+      </c>
       <c r="G117" s="7"/>
       <c r="H117" s="8">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3092,29 +3103,29 @@
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
       <c r="D119" s="20">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c r="H119" s="8">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A120" s="18" t="s">
         <v>123</v>
       </c>
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
       <c r="D120" s="20">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c r="H120" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3124,15 +3135,13 @@
       <c r="B121" s="18"/>
       <c r="C121" s="18"/>
       <c r="D121" s="20">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="E121" s="20"/>
-      <c r="F121" s="8">
-        <v>41</v>
-      </c>
+      <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c r="H121" s="8">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3142,7 +3151,7 @@
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
       <c r="D122" s="20">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="8">
@@ -3150,7 +3159,7 @@
       </c>
       <c r="G122" s="7"/>
       <c r="H122" s="8">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3160,15 +3169,15 @@
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
       <c r="D123" s="20">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="8">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G123" s="7"/>
       <c r="H123" s="8">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3178,15 +3187,13 @@
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
       <c r="D124" s="20">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="E124" s="20"/>
-      <c r="F124" s="8">
-        <v>48</v>
-      </c>
+      <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c r="H124" s="8">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3196,49 +3203,49 @@
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
       <c r="D125" s="20">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="8">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G125" s="7"/>
       <c r="H125" s="8">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A126" s="18" t="s">
         <v>129</v>
       </c>
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
       <c r="D126" s="20">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c r="H126" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A127" s="18" t="s">
         <v>130</v>
       </c>
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
       <c r="D127" s="20">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="8">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G127" s="7"/>
       <c r="H127" s="8">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3248,29 +3255,33 @@
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
       <c r="D128" s="20">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E128" s="20"/>
-      <c r="F128" s="7"/>
+      <c r="F128" s="8">
+        <v>20</v>
+      </c>
       <c r="G128" s="7"/>
       <c r="H128" s="8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A129" s="18" t="s">
         <v>132</v>
       </c>
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
       <c r="D129" s="20">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="E129" s="20"/>
-      <c r="F129" s="7"/>
+      <c r="F129" s="8">
+        <v>62</v>
+      </c>
       <c r="G129" s="7"/>
       <c r="H129" s="8">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3280,31 +3291,29 @@
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
       <c r="D130" s="20">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E130" s="20"/>
-      <c r="F130" s="8">
-        <v>25</v>
-      </c>
+      <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c r="H130" s="8">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A131" s="18" t="s">
         <v>134</v>
       </c>
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
       <c r="D131" s="20">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c r="H131" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3314,13 +3323,15 @@
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
       <c r="D132" s="20">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E132" s="20"/>
-      <c r="F132" s="7"/>
+      <c r="F132" s="8">
+        <v>25</v>
+      </c>
       <c r="G132" s="7"/>
       <c r="H132" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3330,33 +3341,29 @@
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
       <c r="D133" s="20">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E133" s="20"/>
-      <c r="F133" s="8">
-        <v>25</v>
-      </c>
+      <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c r="H133" s="8">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A134" s="18" t="s">
         <v>137</v>
       </c>
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
       <c r="D134" s="20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E134" s="20"/>
-      <c r="F134" s="8">
-        <v>25</v>
-      </c>
+      <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c r="H134" s="8">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3366,31 +3373,31 @@
       <c r="B135" s="18"/>
       <c r="C135" s="18"/>
       <c r="D135" s="20">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c r="H135" s="8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A136" s="18" t="s">
         <v>139</v>
       </c>
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
       <c r="D136" s="20">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G136" s="7"/>
       <c r="H136" s="8">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3400,13 +3407,13 @@
       <c r="B137" s="18"/>
       <c r="C137" s="18"/>
       <c r="D137" s="20">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E137" s="20"/>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c r="H137" s="8">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3416,29 +3423,31 @@
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
       <c r="D138" s="20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E138" s="20"/>
-      <c r="F138" s="7"/>
+      <c r="F138" s="8">
+        <v>25</v>
+      </c>
       <c r="G138" s="7"/>
       <c r="H138" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A139" s="18" t="s">
         <v>142</v>
       </c>
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
       <c r="D139" s="20">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E139" s="20"/>
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c r="H139" s="8">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3448,13 +3457,13 @@
       <c r="B140" s="18"/>
       <c r="C140" s="18"/>
       <c r="D140" s="20">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E140" s="20"/>
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c r="H140" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3464,31 +3473,31 @@
       <c r="B141" s="18"/>
       <c r="C141" s="18"/>
       <c r="D141" s="20">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="8">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G141" s="7"/>
       <c r="H141" s="8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A142" s="18" t="s">
         <v>145</v>
       </c>
       <c r="B142" s="18"/>
       <c r="C142" s="18"/>
       <c r="D142" s="20">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E142" s="20"/>
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c r="H142" s="8">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3498,13 +3507,13 @@
       <c r="B143" s="18"/>
       <c r="C143" s="18"/>
       <c r="D143" s="20">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E143" s="20"/>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c r="H143" s="8">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3514,33 +3523,31 @@
       <c r="B144" s="18"/>
       <c r="C144" s="18"/>
       <c r="D144" s="20">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E144" s="20"/>
       <c r="F144" s="8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G144" s="7"/>
       <c r="H144" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A145" s="18" t="s">
         <v>148</v>
       </c>
       <c r="B145" s="18"/>
       <c r="C145" s="18"/>
       <c r="D145" s="20">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E145" s="20"/>
-      <c r="F145" s="8">
-        <v>30</v>
-      </c>
+      <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c r="H145" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3550,13 +3557,13 @@
       <c r="B146" s="18"/>
       <c r="C146" s="18"/>
       <c r="D146" s="20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E146" s="20"/>
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c r="H146" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3566,13 +3573,13 @@
       <c r="B147" s="18"/>
       <c r="C147" s="18"/>
       <c r="D147" s="20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E147" s="20"/>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c r="H147" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3582,45 +3589,47 @@
       <c r="B148" s="18"/>
       <c r="C148" s="18"/>
       <c r="D148" s="20">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E148" s="20"/>
-      <c r="F148" s="7"/>
+      <c r="F148" s="8">
+        <v>30</v>
+      </c>
       <c r="G148" s="7"/>
       <c r="H148" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A149" s="18" t="s">
         <v>152</v>
       </c>
       <c r="B149" s="18"/>
       <c r="C149" s="18"/>
       <c r="D149" s="20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E149" s="20"/>
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
       <c r="H149" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A150" s="18" t="s">
         <v>153</v>
       </c>
       <c r="B150" s="18"/>
       <c r="C150" s="18"/>
       <c r="D150" s="20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E150" s="20"/>
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c r="H150" s="8">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3630,13 +3639,13 @@
       <c r="B151" s="18"/>
       <c r="C151" s="18"/>
       <c r="D151" s="20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c r="H151" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3646,13 +3655,15 @@
       <c r="B152" s="18"/>
       <c r="C152" s="18"/>
       <c r="D152" s="20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E152" s="20"/>
-      <c r="F152" s="7"/>
+      <c r="F152" s="8">
+        <v>1</v>
+      </c>
       <c r="G152" s="7"/>
       <c r="H152" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3662,13 +3673,13 @@
       <c r="B153" s="18"/>
       <c r="C153" s="18"/>
       <c r="D153" s="20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
       <c r="H153" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3678,15 +3689,13 @@
       <c r="B154" s="18"/>
       <c r="C154" s="18"/>
       <c r="D154" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E154" s="20"/>
-      <c r="F154" s="8">
-        <v>1</v>
-      </c>
+      <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c r="H154" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3696,31 +3705,29 @@
       <c r="B155" s="18"/>
       <c r="C155" s="18"/>
       <c r="D155" s="20">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E155" s="20"/>
-      <c r="F155" s="8">
-        <v>23</v>
-      </c>
+      <c r="F155" s="7"/>
       <c r="G155" s="7"/>
       <c r="H155" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A156" s="18" t="s">
         <v>159</v>
       </c>
       <c r="B156" s="18"/>
       <c r="C156" s="18"/>
       <c r="D156" s="20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
       <c r="H156" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3730,15 +3737,15 @@
       <c r="B157" s="18"/>
       <c r="C157" s="18"/>
       <c r="D157" s="20">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E157" s="20"/>
       <c r="F157" s="8">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G157" s="7"/>
       <c r="H157" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3748,29 +3755,29 @@
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
       <c r="D158" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E158" s="20"/>
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
       <c r="H158" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="B159" s="16"/>
-      <c r="C159" s="16"/>
-      <c r="D159" s="21">
-        <v>10</v>
-      </c>
-      <c r="E159" s="21"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="9">
-        <v>10</v>
+      <c r="B159" s="18"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="20">
+        <v>2</v>
+      </c>
+      <c r="E159" s="20"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3780,13 +3787,15 @@
       <c r="B160" s="18"/>
       <c r="C160" s="18"/>
       <c r="D160" s="20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E160" s="20"/>
-      <c r="F160" s="7"/>
+      <c r="F160" s="8">
+        <v>1</v>
+      </c>
       <c r="G160" s="7"/>
       <c r="H160" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3796,13 +3805,13 @@
       <c r="B161" s="18"/>
       <c r="C161" s="18"/>
       <c r="D161" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E161" s="20"/>
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
       <c r="H161" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -3811,16 +3820,14 @@
       </c>
       <c r="B162" s="16"/>
       <c r="C162" s="16"/>
-      <c r="D162" s="17">
-        <v>1125</v>
-      </c>
-      <c r="E162" s="17"/>
-      <c r="F162" s="9">
-        <v>788</v>
-      </c>
+      <c r="D162" s="21">
+        <v>7</v>
+      </c>
+      <c r="E162" s="21"/>
+      <c r="F162" s="5"/>
       <c r="G162" s="5"/>
       <c r="H162" s="9">
-        <v>337</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3830,13 +3837,13 @@
       <c r="B163" s="18"/>
       <c r="C163" s="18"/>
       <c r="D163" s="20">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="E163" s="20"/>
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
       <c r="H163" s="8">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3846,31 +3853,31 @@
       <c r="B164" s="18"/>
       <c r="C164" s="18"/>
       <c r="D164" s="20">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E164" s="20"/>
-      <c r="F164" s="8">
-        <v>32</v>
-      </c>
+      <c r="F164" s="7"/>
       <c r="G164" s="7"/>
       <c r="H164" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B165" s="18"/>
-      <c r="C165" s="18"/>
-      <c r="D165" s="20">
-        <v>34</v>
-      </c>
-      <c r="E165" s="20"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="8">
-        <v>34</v>
+      <c r="B165" s="16"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="17">
+        <v>1168</v>
+      </c>
+      <c r="E165" s="17"/>
+      <c r="F165" s="9">
+        <v>788</v>
+      </c>
+      <c r="G165" s="5"/>
+      <c r="H165" s="9">
+        <v>380</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3880,31 +3887,29 @@
       <c r="B166" s="18"/>
       <c r="C166" s="18"/>
       <c r="D166" s="20">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="E166" s="20"/>
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
       <c r="H166" s="8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A167" s="18" t="s">
         <v>170</v>
       </c>
       <c r="B167" s="18"/>
       <c r="C167" s="18"/>
       <c r="D167" s="20">
-        <v>195</v>
+        <v>64</v>
       </c>
       <c r="E167" s="20"/>
-      <c r="F167" s="8">
-        <v>166</v>
-      </c>
+      <c r="F167" s="7"/>
       <c r="G167" s="7"/>
       <c r="H167" s="8">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3914,15 +3919,15 @@
       <c r="B168" s="18"/>
       <c r="C168" s="18"/>
       <c r="D168" s="20">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="E168" s="20"/>
       <c r="F168" s="8">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="G168" s="7"/>
       <c r="H168" s="8">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3932,47 +3937,47 @@
       <c r="B169" s="18"/>
       <c r="C169" s="18"/>
       <c r="D169" s="20">
-        <v>317</v>
+        <v>34</v>
       </c>
       <c r="E169" s="20"/>
-      <c r="F169" s="8">
-        <v>300</v>
-      </c>
+      <c r="F169" s="7"/>
       <c r="G169" s="7"/>
       <c r="H169" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A170" s="18" t="s">
         <v>173</v>
       </c>
       <c r="B170" s="18"/>
       <c r="C170" s="18"/>
       <c r="D170" s="20">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E170" s="20"/>
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
       <c r="H170" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A171" s="18" t="s">
         <v>174</v>
       </c>
       <c r="B171" s="18"/>
       <c r="C171" s="18"/>
       <c r="D171" s="20">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="E171" s="20"/>
-      <c r="F171" s="7"/>
+      <c r="F171" s="8">
+        <v>166</v>
+      </c>
       <c r="G171" s="7"/>
       <c r="H171" s="8">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3982,61 +3987,65 @@
       <c r="B172" s="18"/>
       <c r="C172" s="18"/>
       <c r="D172" s="20">
-        <v>7</v>
+        <v>317</v>
       </c>
       <c r="E172" s="20"/>
-      <c r="F172" s="7"/>
+      <c r="F172" s="8">
+        <v>300</v>
+      </c>
       <c r="G172" s="7"/>
       <c r="H172" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A173" s="18" t="s">
         <v>176</v>
       </c>
       <c r="B173" s="18"/>
       <c r="C173" s="18"/>
       <c r="D173" s="20">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E173" s="20"/>
-      <c r="F173" s="7"/>
+      <c r="F173" s="8">
+        <v>5</v>
+      </c>
       <c r="G173" s="7"/>
       <c r="H173" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A174" s="18" t="s">
         <v>177</v>
       </c>
       <c r="B174" s="18"/>
       <c r="C174" s="18"/>
       <c r="D174" s="20">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E174" s="20"/>
       <c r="F174" s="7"/>
       <c r="G174" s="7"/>
       <c r="H174" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A175" s="18" t="s">
         <v>178</v>
       </c>
       <c r="B175" s="18"/>
       <c r="C175" s="18"/>
       <c r="D175" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E175" s="20"/>
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
       <c r="H175" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4046,13 +4055,13 @@
       <c r="B176" s="18"/>
       <c r="C176" s="18"/>
       <c r="D176" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E176" s="20"/>
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
       <c r="H176" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4062,29 +4071,29 @@
       <c r="B177" s="18"/>
       <c r="C177" s="18"/>
       <c r="D177" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E177" s="20"/>
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
       <c r="H177" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A178" s="18" t="s">
         <v>181</v>
       </c>
       <c r="B178" s="18"/>
       <c r="C178" s="18"/>
       <c r="D178" s="20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E178" s="20"/>
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
       <c r="H178" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4094,15 +4103,13 @@
       <c r="B179" s="18"/>
       <c r="C179" s="18"/>
       <c r="D179" s="20">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="E179" s="20"/>
-      <c r="F179" s="8">
-        <v>135</v>
-      </c>
+      <c r="F179" s="7"/>
       <c r="G179" s="7"/>
       <c r="H179" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4112,13 +4119,13 @@
       <c r="B180" s="18"/>
       <c r="C180" s="18"/>
       <c r="D180" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E180" s="20"/>
       <c r="F180" s="7"/>
       <c r="G180" s="7"/>
       <c r="H180" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4128,13 +4135,15 @@
       <c r="B181" s="18"/>
       <c r="C181" s="18"/>
       <c r="D181" s="20">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="E181" s="20"/>
-      <c r="F181" s="7"/>
+      <c r="F181" s="8">
+        <v>135</v>
+      </c>
       <c r="G181" s="7"/>
       <c r="H181" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4144,12 +4153,10 @@
       <c r="B182" s="18"/>
       <c r="C182" s="18"/>
       <c r="D182" s="20">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="E182" s="20"/>
-      <c r="F182" s="8">
-        <v>150</v>
-      </c>
+      <c r="F182" s="7"/>
       <c r="G182" s="7"/>
       <c r="H182" s="8">
         <v>3</v>
@@ -4178,13 +4185,15 @@
       <c r="B184" s="18"/>
       <c r="C184" s="18"/>
       <c r="D184" s="20">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="E184" s="20"/>
-      <c r="F184" s="7"/>
+      <c r="F184" s="8">
+        <v>150</v>
+      </c>
       <c r="G184" s="7"/>
       <c r="H184" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4194,13 +4203,13 @@
       <c r="B185" s="18"/>
       <c r="C185" s="18"/>
       <c r="D185" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E185" s="20"/>
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
       <c r="H185" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4210,61 +4219,61 @@
       <c r="B186" s="18"/>
       <c r="C186" s="18"/>
       <c r="D186" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186" s="20"/>
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
       <c r="H186" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187" s="18"/>
+      <c r="C187" s="18"/>
+      <c r="D187" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B187" s="16"/>
-      <c r="C187" s="16"/>
-      <c r="D187" s="21">
-        <v>82</v>
-      </c>
-      <c r="E187" s="21"/>
-      <c r="F187" s="5"/>
-      <c r="G187" s="5"/>
-      <c r="H187" s="9">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E187" s="20"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A188" s="18" t="s">
         <v>191</v>
       </c>
       <c r="B188" s="18"/>
       <c r="C188" s="18"/>
       <c r="D188" s="20">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E188" s="20"/>
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
       <c r="H188" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="B189" s="18"/>
-      <c r="C189" s="18"/>
-      <c r="D189" s="20">
-        <v>26</v>
-      </c>
-      <c r="E189" s="20"/>
-      <c r="F189" s="7"/>
-      <c r="G189" s="7"/>
-      <c r="H189" s="8">
-        <v>26</v>
+      <c r="B189" s="16"/>
+      <c r="C189" s="16"/>
+      <c r="D189" s="21">
+        <v>70</v>
+      </c>
+      <c r="E189" s="21"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="9">
+        <v>70</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4274,35 +4283,87 @@
       <c r="B190" s="18"/>
       <c r="C190" s="18"/>
       <c r="D190" s="20">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E190" s="20"/>
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
       <c r="H190" s="8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191" s="18"/>
+      <c r="C191" s="18"/>
+      <c r="D191" s="20">
+        <v>15</v>
+      </c>
+      <c r="E191" s="20"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192" s="18"/>
+      <c r="C192" s="18"/>
+      <c r="D192" s="20">
+        <v>6</v>
+      </c>
+      <c r="E192" s="20"/>
+      <c r="F192" s="7"/>
+      <c r="G192" s="7"/>
+      <c r="H192" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193" s="18"/>
+      <c r="C193" s="18"/>
+      <c r="D193" s="20">
+        <v>2</v>
+      </c>
+      <c r="E193" s="20"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B191" s="15"/>
-      <c r="C191" s="15"/>
-      <c r="D191" s="22">
-        <v>25652</v>
-      </c>
-      <c r="E191" s="22"/>
-      <c r="F191" s="10">
-        <v>11503</v>
-      </c>
-      <c r="G191" s="11"/>
-      <c r="H191" s="10">
-        <v>14149</v>
+      <c r="B194" s="15"/>
+      <c r="C194" s="15"/>
+      <c r="D194" s="22">
+        <v>24261</v>
+      </c>
+      <c r="E194" s="22"/>
+      <c r="F194" s="10">
+        <v>11343</v>
+      </c>
+      <c r="G194" s="11"/>
+      <c r="H194" s="10">
+        <v>12918</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="383">
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="D194:E194"/>
     <mergeCell ref="A188:C188"/>
     <mergeCell ref="D188:E188"/>
     <mergeCell ref="A189:C189"/>
@@ -4311,6 +4372,8 @@
     <mergeCell ref="D190:E190"/>
     <mergeCell ref="A191:C191"/>
     <mergeCell ref="D191:E191"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="D192:E192"/>
     <mergeCell ref="A183:C183"/>
     <mergeCell ref="D183:E183"/>
     <mergeCell ref="A184:C184"/>

--- a/input_data/screws/screws_unsh.xlsx
+++ b/input_data/screws/screws_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/screws/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/screws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F0E30B-7CE5-504E-8817-153D55830C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D56E268-5000-6C49-903C-133AE387F3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,237 +62,237 @@
     <t>39806А Винт LM (копия оригинала) Straumann Bone Level NC (3.3) (арт. 025-2900) V.1</t>
   </si>
   <si>
+    <t>39912А Винт LM (копия оригинала) Bego Semados 3.25/3.75 / 4.1 / 4.5 / 5.5 (арт. 57028) V.1</t>
+  </si>
+  <si>
+    <t>39807А Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1</t>
+  </si>
+  <si>
     <t>39502А Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1</t>
   </si>
   <si>
-    <t>39912А Винт LM (копия оригинала) Bego Semados 3.25/3.75 / 4.1 / 4.5 / 5.5 (арт. 57028) V.1</t>
-  </si>
-  <si>
-    <t>39807А Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1</t>
-  </si>
-  <si>
     <t>40008А Винт LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) (арт. GSABSST) V.1</t>
   </si>
   <si>
+    <t>40312А Винт LM (копия оригинала) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Nobel) (арт. 29287) V.1</t>
+  </si>
+  <si>
     <t>40125 Винт LM (копия оригинала) Alpha Bio Conical Narrow (арт. 7345) V.1</t>
   </si>
   <si>
-    <t>40312А Винт LM (копия оригинала) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Nobel) (арт. 29287) V.1</t>
-  </si>
-  <si>
     <t>40308А Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2</t>
   </si>
   <si>
     <t>39913А Винт LM (копия оригинала) Conmet NP (2.2) (арт. 213.12) V.1</t>
   </si>
   <si>
+    <t>40005Аупб Винт LM (копия оригинала) Implantium, Impro (арт. ASC2045) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39502С Винт LM (копия оригинала) Zimmer 3.5 / 4.5 / 5.7 (арт. R60) V.1</t>
+  </si>
+  <si>
     <t>40311А Винт LM (копия оригинала) Mis Multi-Unit (арт. MU-S0220) V.1</t>
   </si>
   <si>
-    <t>39502С Винт LM (копия оригинала) Zimmer 3.5 / 4.5 / 5.7 (арт. R60) V.1</t>
-  </si>
-  <si>
     <t>39911А Винт LM (копия оригинала) MegaGen AnyOne (арт. AS20) V.1</t>
   </si>
   <si>
+    <t>40006А Винт LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1</t>
+  </si>
+  <si>
     <t>40140А Винт LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1</t>
   </si>
   <si>
-    <t>40005Аупб Винт LM (копия оригинала) Implantium, Impro (арт. ASC2045) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40006А Винт LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1</t>
+    <t>39901А Винт LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1</t>
+  </si>
+  <si>
+    <t>41250А Винт LM (копия оригинала) Straumann SynOcta RN (4.8) / WN (6.5) (арт. 048.711) V.1</t>
+  </si>
+  <si>
+    <t>39906В Винт LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNIHT) V.2</t>
+  </si>
+  <si>
+    <t>39109А Винт LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5</t>
+  </si>
+  <si>
+    <t>40003А Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1</t>
+  </si>
+  <si>
+    <t>39915А Винт LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1</t>
+  </si>
+  <si>
+    <t>39914А Винт LM (копия оригинала) Conmet RP (2.7) (арт. 213.21) V.1</t>
   </si>
   <si>
     <t>40316А Винт LM GEO Osstem Implant Multi-Unit, LENMIRIOT Multi-Unit (отв. Osstem) (арт. MUTOC) V.1</t>
   </si>
   <si>
-    <t>39901А Винт LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1</t>
+    <t>41034 Винт LM ZIRKONZAHN Osstem Implant Regular (4.0/4.5/5.0) V.1</t>
   </si>
   <si>
     <t>я НЕ ИСП !!!40008Ауп Винт LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) (арт. GSABSST) V.1  / В ПРОБИРКЕ</t>
   </si>
   <si>
-    <t>41250А Винт LM (копия оригинала) Straumann SynOcta RN (4.8) / WN (6.5) (арт. 048.711) V.1</t>
-  </si>
-  <si>
-    <t>39109А Винт LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5</t>
-  </si>
-  <si>
-    <t>39906В Винт LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNIHT) V.2</t>
+    <t>я НЕ ИСП !!!39502Ауп Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1  / В ПР</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!40005Ауп Винт LM (копия оригинала) Implantium, Impro (арт. ASC2045) V.1  / В ПРОБИРКЕ</t>
+  </si>
+  <si>
+    <t>40105А Винт LM (копия оригинала) Anthogyr Axiom (арт. ОРТР410) V.1</t>
+  </si>
+  <si>
+    <t>39121 Винт LM (копия оригинала) Neodent Grand Morse (арт. 116.286 Long) V.1</t>
+  </si>
+  <si>
+    <t>40139А Винт LM (копия оригинала) INNO V.1</t>
+  </si>
+  <si>
+    <t>40314А Винт LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/MisC1/Astra/Adin RS) V.1</t>
+  </si>
+  <si>
+    <t>39908А Винт LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1</t>
+  </si>
+  <si>
+    <t>39907А Винт LM (копия оригинала) Nobel Replace Select 3.5 (арт. 36818) V.1</t>
+  </si>
+  <si>
+    <t>39912А Винт LM (собств. разр.) Bego Semados 3.25/3.75 V.2</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!40006Ауп Винт LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1  / В ПРОБИРКЕ</t>
+  </si>
+  <si>
+    <t>40009Аупб Винт LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>40010Аупб Винт LM (копия оригинала) NeoBiotech 3.8 / 4.3 (арт. ISC 20) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>40003Аупб Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>40308Ауп Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2 / УПАК</t>
+  </si>
+  <si>
+    <t>39906В Винт LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNITS) V.1</t>
+  </si>
+  <si>
+    <t>40127А Винт LM (копия оригинала) BoneTrust HEX 3.0 / 3.4 / 4.0 / 5.0 (арт. 160-100001) V.1</t>
+  </si>
+  <si>
+    <t>39918Аупб Винт LM (копия оригинала) Adin RP (3.5) (арт. RP-0001) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39915Аупб Винт LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39807Аупб Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39919Аупб Винт LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>40116А Винт LM (копия оригинала) Sky Bredent (арт. SKY-PS24) V.1</t>
+  </si>
+  <si>
+    <t>40316АOопт Винт LM GEO Osstem Implant Multi-Unit (арт. MUTOC) V.1</t>
+  </si>
+  <si>
+    <t>40300А Винт LM (копия оригинала) Ankylos Multi-Unit (арт. 3105 6022) V.1</t>
+  </si>
+  <si>
+    <t>39113А Винт LM NT-Traiding Straumann SynOcta NN (3.5) (арт. N 60) V.1</t>
+  </si>
+  <si>
+    <t>39911Аупб Винт LM (копия оригинала) MegaGen AnyOne (арт. AS20) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>41029 Винт LM ZIRKONZAHN Impro, Implantium V.1</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!39901Ауп Винт LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1  / В ПРОБИРКЕ</t>
+  </si>
+  <si>
+    <t>40312АNопт Винт LM (копия оригинала) Nobel Multi-Unit (арт. 29287) V.1</t>
+  </si>
+  <si>
+    <t>39502Аупб Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39802А Винт LM (копия оригинала) Mis NP (3.3), Mis C1 (Conical) NP (3.3) (арт. MN-S0160) V.1</t>
+  </si>
+  <si>
+    <t>39600А Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.2</t>
+  </si>
+  <si>
+    <t>40008Аупб Винт LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) (арт. GSABSST) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39601А Винт LM (копия оригинала) Niko 4.5 (арт. 5.300) V.1</t>
+  </si>
+  <si>
+    <t>39917Аупб Винт LM (копия оригинала) Adin NP (3.0) (арт. NP-0001) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!40010Ауп Винт LM (копия оригинала) NeoBiotech 3.8 / 4.3 (арт. ISC 20) V.1  / В ПРОБИРКЕ</t>
   </si>
   <si>
     <t>39936 Винт LM (копия оригинала) Conmet NP (2.2) (арт. 213.12s) V.1</t>
   </si>
   <si>
-    <t>40003А Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1</t>
-  </si>
-  <si>
-    <t>39802А Винт LM (копия оригинала) Mis NP (3.3), Mis C1 (Conical) NP (3.3) (арт. MN-S0160) V.1</t>
-  </si>
-  <si>
-    <t>39915А Винт LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1</t>
-  </si>
-  <si>
-    <t>39914А Винт LM (копия оригинала) Conmet RP (2.7) (арт. 213.21) V.1</t>
-  </si>
-  <si>
-    <t>39908А Винт LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1</t>
-  </si>
-  <si>
-    <t>40009Аупб Винт LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>41034 Винт LM ZIRKONZAHN Osstem Implant Regular (4.0/4.5/5.0) V.1</t>
-  </si>
-  <si>
-    <t>39121 Винт LM (копия оригинала) Neodent Grand Morse (арт. 116.286 Long) V.1</t>
-  </si>
-  <si>
-    <t>40314А Винт LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/Astra/Adin RS) V.1</t>
-  </si>
-  <si>
-    <t>40105А Винт LM (копия оригинала) Anthogyr Axiom (арт. ОРТР410) V.1</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!39502Ауп Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1  / В ПР</t>
-  </si>
-  <si>
-    <t>39907А Винт LM (копия оригинала) Nobel Replace Select 3.5 (арт. 36818) V.1</t>
-  </si>
-  <si>
-    <t>40003Аупб Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!40005Ауп Винт LM (копия оригинала) Implantium, Impro (арт. ASC2045) V.1  / В ПРОБИРКЕ</t>
-  </si>
-  <si>
-    <t>40139А Винт LM (копия оригинала) INNO V.1</t>
-  </si>
-  <si>
-    <t>39906В Винт LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNITS) V.1</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!40006Ауп Винт LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1  / В ПРОБИРКЕ</t>
-  </si>
-  <si>
-    <t>40308Ауп Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2 / УПАК</t>
-  </si>
-  <si>
-    <t>40110А Винт LM (копия оригинала) Liko-M (арт. INN-6050) V.1</t>
-  </si>
-  <si>
-    <t>40127А Винт LM (копия оригинала) BoneTrust HEX 3.0 / 3.4 / 4.0 / 5.0 (арт. 160-100001) V.1</t>
-  </si>
-  <si>
-    <t>39915Аупб Винт LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39918Аупб Винт LM (копия оригинала) Adin RP (3.5) (арт. RP-0001) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39902А Винт LM (копия оригинала) Alpha Bio Internal SHBZ (арт. 6053) V.1</t>
-  </si>
-  <si>
-    <t>39807Аупб Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40116А Винт LM (копия оригинала) Sky Bredent (арт. SKY-PS24) V.1</t>
-  </si>
-  <si>
-    <t>39919Аупб Винт LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40300А Винт LM (копия оригинала) Ankylos Multi-Unit (арт. 3105 6022) V.1</t>
-  </si>
-  <si>
-    <t>39113А Винт LM NT-Traiding Straumann SynOcta NN (3.5) (арт. N 60) V.1</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!39901Ауп Винт LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1  / В ПРОБИРКЕ</t>
-  </si>
-  <si>
-    <t>41029 Винт LM ZIRKONZAHN Impro, Implantium V.1</t>
-  </si>
-  <si>
-    <t>39502Аупб Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39600А Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.2</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!39912Ауп Винт LM (копия оригинала) Bego Semados 3.25/3.75 / 4.1 / 4.5 / 5.5 (арт. 57028) V.1  / В ПРОБИРКЕ</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!40010Ауп Винт LM (копия оригинала) NeoBiotech 3.8 / 4.3 (арт. ISC 20) V.1  / В ПРОБИРКЕ</t>
-  </si>
-  <si>
-    <t>39601А Винт LM (копия оригинала) Niko 4.5 (арт. 5.300) V.1</t>
-  </si>
-  <si>
-    <t>40008Аупб Винт LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) (арт. GSABSST) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39917Аупб Винт LM (копия оригинала) Adin NP (3.0) (арт. NP-0001) V.1 / УПАК</t>
-  </si>
-  <si>
     <t>40007Аупб Винт LM (копия оригинала) Osstem Implant Mini (3.5) (арт. GSABSM) V.1 / УПАК</t>
   </si>
   <si>
-    <t>39912А Винт LM (собств. разр.) Bego Semados 3.25/3.75 V.2</t>
+    <t>я НЕ ИСП !!!39807Ауп Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1  / В ПРОБИРКЕ</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!40003Ауп Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1  / В ПРОБИРКЕ</t>
   </si>
   <si>
     <t>39600А Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.1</t>
   </si>
   <si>
-    <t>я НЕ ИСП !!!40003Ауп Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1  / В ПРОБИРКЕ</t>
+    <t>41039 Винт LM ZIRKONZAHN Zimmer 3.5 / 4.5 V.1</t>
   </si>
   <si>
     <t>40109А Винт LM (копия оригинала) DIO UF II RP (3.8/4.0/4.5/5.0/5.5) (арт. SSC 2008H) V.1</t>
   </si>
   <si>
-    <t>41039 Винт LM ZIRKONZAHN Zimmer 3.5 / 4.5 V.1</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!39807Ауп Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1  / В ПРОБИРКЕ</t>
+    <t>39909В Винт LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1</t>
+  </si>
+  <si>
+    <t>41298А Винт LM (копия оригинала) Sky Bredent (арт. SKY-PS22) V.1</t>
   </si>
   <si>
     <t>39109Аупб Винт LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5 / УПАК</t>
   </si>
   <si>
-    <t>41298А Винт LM (копия оригинала) Sky Bredent (арт. SKY-PS22) V.1</t>
-  </si>
-  <si>
     <t>40305А Винт LM (копия оригинала) Astra Uni 20 градусов / 45 градусов (арт. 22435) V.1</t>
   </si>
   <si>
+    <t>39809А Винт LM (копия оригинала) Radix (арт. 180) V.1</t>
+  </si>
+  <si>
     <t>41332А Винт LM (копия оригинала) Niko 4.5 (арт. 5.300 1,2 hex) V.1</t>
   </si>
   <si>
-    <t>39809А Винт LM (копия оригинала) Radix (арт. 180) V.1</t>
-  </si>
-  <si>
-    <t>40312АNопт Винт LM (копия оригинала) Nobel Multi-Unit (арт. 29287) V.1</t>
+    <t>40111Аупб Винт LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!39806Ауп Винт LM (копия оригинала) Straumann Bone Level NC (3.3) (арт. 025-2900) V.1  / В ПРОБИРКЕ</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!40009Ауп Винт LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1  / В ПР</t>
+  </si>
+  <si>
+    <t>40308А Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5, Impro Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.1</t>
   </si>
   <si>
     <t>39802Аупб Винт LM (копия оригинала) Mis NP (3.3), Mis C1 (Conical) NP (3.3) (арт. MN-S0160) V.1 / УПАК</t>
   </si>
   <si>
-    <t>40111Аупб Винт LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40308А Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5, Impro Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.1</t>
-  </si>
-  <si>
-    <t>40316АOопт Винт LM GEO Osstem Implant Multi-Unit (арт. MUTOC) V.1</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!40009Ауп Винт LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1  / В ПР</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!39806Ауп Винт LM (копия оригинала) Straumann Bone Level NC (3.3) (арт. 025-2900) V.1  / В ПРОБИРКЕ</t>
-  </si>
-  <si>
     <t>40140Ауп Винт LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1 / УПАК</t>
   </si>
   <si>
@@ -302,18 +302,21 @@
     <t>я НЕ ИСП !!!39916Ауп Винт LM (копия оригинала) Astra Tech 3.5/4.0 (арт. 24449) V.1  / В ПРОБИРКЕ</t>
   </si>
   <si>
+    <t>39901Аупб Винт LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39600Аупб Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.1 / УПАК</t>
+  </si>
+  <si>
     <t>я НЕ ИСП !!!40007Ауп Винт LM (копия оригинала) Osstem Implant Mini (3.5) (арт. GSABSM) V.1  / В ПРОБИРКЕ</t>
   </si>
   <si>
-    <t>39901Аупб Винт LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39600Аупб Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.1 / УПАК</t>
-  </si>
-  <si>
     <t>39905Bупб Винт LM (копия оригинала) Astra Tech 4.5/5.0 (арт. 24209) V.1 / УПАК</t>
   </si>
   <si>
+    <t>39115Аупб Винт Straumann SynOcta 4,8 bridge LM (1 винт в упаковке, блистер)</t>
+  </si>
+  <si>
     <t>39114Аупб Винт LM (собств. разр.) Straumann SynOcta 6.5 bridge V.1 / УПАК</t>
   </si>
   <si>
@@ -326,30 +329,24 @@
     <t>40101А Винт LM (копия оригинала) DIO SM RP (4.5) (арт. SSC 2008) V.1</t>
   </si>
   <si>
-    <t>39115Аупб Винт Straumann SynOcta 4,8 bridge LM (1 винт в упаковке, блистер)</t>
+    <t>40108Аупб Винт LM (копия оригинала) DIO UF II NP (3.0) (арт. UNSAS 1407H) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39909Вупб Винт LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39803Аупб Винт LM (копия оригинала) Xive 3.0 (арт. 46-4304) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>40111А Винт LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1</t>
   </si>
   <si>
     <t>40106А Винт LM (копия оригинала) Impla 3.3 / 4.2 / 5.3, Impla Conical 3.3 / 4.2 / 5.3 (арт. 636649) V.1</t>
   </si>
   <si>
-    <t>41244 Винт LM (копия оригинала) MegaGen MiNi (арт. MIAS14) V.1</t>
-  </si>
-  <si>
-    <t>39909Вупб Винт LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1 / УПАК</t>
-  </si>
-  <si>
     <t>40101Аупб Винт LM (копия оригинала) DIO SM RP (4.5) (арт. SSC 2008) V.1 / УПАК</t>
   </si>
   <si>
-    <t>40111А Винт LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1</t>
-  </si>
-  <si>
-    <t>39803Аупб Винт LM (копия оригинала) Xive 3.0 (арт. 46-4304) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40108Аупб Винт LM (копия оригинала) DIO UF II NP (3.0) (арт. UNSAS 1407H) V.1 / УПАК</t>
-  </si>
-  <si>
     <t>Винт 3D аналога</t>
   </si>
   <si>
@@ -374,16 +371,19 @@
     <t>39806АЛ Винт лаб. LM (копия оригинала) Straumann Bone Level NC (3.3) (арт. 025-2900) V.1</t>
   </si>
   <si>
+    <t>39807АЛ Винт лаб. LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1</t>
+  </si>
+  <si>
     <t>39502СЛ Винт лаб. LM (копия оригинала) Zimmer 3.5 / 4.5 / 5.7 (арт. R60) V.1</t>
   </si>
   <si>
-    <t>39807АЛ Винт лаб. LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1</t>
+    <t>40312АЛ Винт лаб. LM (копия оригинала) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Nobel) (арт. 29287) V.1</t>
   </si>
   <si>
     <t>40006АЛ Винт лаб. LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1</t>
   </si>
   <si>
-    <t>40312АЛ Винт лаб. LM (копия оригинала) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Nobel) (арт. 29287) V.1</t>
+    <t>41250АЛ Винт лаб. LM (копия оригинала) Straumann SynOcta RN (4.8) / WN (6.5) (арт. 048.711) V.1</t>
   </si>
   <si>
     <t>39916АЛ Винт лаб. LM (копия оригинала) Astra Tech 3.5/4.0 (арт. 24449) V.1</t>
@@ -395,82 +395,79 @@
     <t>40308АЛ Винт лаб. LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2</t>
   </si>
   <si>
-    <t>41250АЛ Винт лаб. LM (копия оригинала) Straumann SynOcta RN (4.8) / WN (6.5) (арт. 048.711) V.1</t>
-  </si>
-  <si>
     <t>40140АЛ Винт лаб. LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1</t>
   </si>
   <si>
+    <t>39909ВЛ Винт лаб. LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1</t>
+  </si>
+  <si>
     <t>40003АЛ Винт лаб. LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1</t>
   </si>
   <si>
-    <t>39909ВЛ Винт лаб. LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1</t>
+    <t>39802АЛ Винт лаб. LM (копия оригинала) Mis NP (3.3), Mis C1 (Conical) NP (3.3) (арт. MN-S0160) V.1</t>
+  </si>
+  <si>
+    <t>40009АЛ Винт лаб. LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1</t>
+  </si>
+  <si>
+    <t>39908АЛ Винт лаб. LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1</t>
+  </si>
+  <si>
+    <t>39911АЛ Винт лаб. LM (копия оригинала) MegaGen AnyOne (арт. AS20) V.1</t>
+  </si>
+  <si>
+    <t>40105АЛ Винт лаб. LM (копия оригинала) Anthogyr Axiom (арт. ОРТР410) V.1</t>
+  </si>
+  <si>
+    <t>39906ВЛ Винт лаб. LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNITS) V.1</t>
+  </si>
+  <si>
+    <t>39906ВЛ Винт лаб. LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNIHT) V.2</t>
+  </si>
+  <si>
+    <t>39915АЛ Винт лаб. LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1</t>
+  </si>
+  <si>
+    <t>40139АЛ Винт лаб. LM (копия оригинала) INNO V.1</t>
+  </si>
+  <si>
+    <t>39918АЛ Винт лаб. LM (копия оригинала) Adin RP (3.5) (арт. RP-0001) V.1</t>
+  </si>
+  <si>
+    <t>39919АЛ Винт лаб. LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1</t>
+  </si>
+  <si>
+    <t>40116АЛ Винт лаб. LM (копия оригинала) Sky Bredent (арт. SKY-PS24) V.1</t>
+  </si>
+  <si>
+    <t>39912АЛ Винт лаб. LM (копия оригинала) Bego Semados 3.25/3.75 / 4.1 / 4.5 / 5.5 (арт. 57028) V.1</t>
+  </si>
+  <si>
+    <t>40010АЛ Винт лаб. LM (копия оригинала) NeoBiotech 3.8 / 4.3 (арт. ISC 20) V.1</t>
+  </si>
+  <si>
+    <t>39905BЛ Винт лаб. LM (копия оригинала) Astra Tech 4.5/5.0 (арт. 24209) V.1</t>
+  </si>
+  <si>
+    <t>39600АЛ Винт лаб. LM (копия оригинала) Niko 3.5 (арт. 5.301) V.2</t>
+  </si>
+  <si>
+    <t>39930Л Винт лаб. LM (копия оригинала) MegaGen Multi-Unit Type N, LENMIRIOT Multi-Unit (отв. Megagen/Neobiotech/Xive) (арт. MUAS) V.1</t>
+  </si>
+  <si>
+    <t>39121Л Винт лаб. LM (копия оригинала) Neodent Grand Morse (арт. 116.286 Long) V.1</t>
+  </si>
+  <si>
+    <t>39901АЛ Винт лаб. LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1</t>
   </si>
   <si>
     <t>40316АЛ Винт лаб. LM GEO Osstem Implant Multi-Unit, LENMIRIOT Multi-Unit (отв. Osstem) (арт. MUTOC) V.1</t>
   </si>
   <si>
-    <t>40009АЛ Винт лаб. LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1</t>
-  </si>
-  <si>
-    <t>40312АЛNопт Винт лаб. LM (копия оригинала) Nobel Multi-Unit (арт. 29287) V.1</t>
-  </si>
-  <si>
-    <t>39908АЛ Винт лаб. LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1</t>
-  </si>
-  <si>
-    <t>39912АЛ Винт лаб. LM (копия оригинала) Bego Semados 3.25/3.75 / 4.1 / 4.5 / 5.5 (арт. 57028) V.1</t>
-  </si>
-  <si>
-    <t>40105АЛ Винт лаб. LM (копия оригинала) Anthogyr Axiom (арт. ОРТР410) V.1</t>
-  </si>
-  <si>
-    <t>39802АЛ Винт лаб. LM (копия оригинала) Mis NP (3.3), Mis C1 (Conical) NP (3.3) (арт. MN-S0160) V.1</t>
-  </si>
-  <si>
-    <t>39906ВЛ Винт лаб. LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNITS) V.1</t>
-  </si>
-  <si>
-    <t>39915АЛ Винт лаб. LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1</t>
-  </si>
-  <si>
-    <t>40311АЛ Винт лаб. LM (копия оригинала) Mis Multi-Unit (арт. MU-S0220) V.1</t>
-  </si>
-  <si>
-    <t>39906ВЛ Винт лаб. LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNIHT) V.2</t>
-  </si>
-  <si>
-    <t>40139АЛ Винт лаб. LM (копия оригинала) INNO V.1</t>
-  </si>
-  <si>
-    <t>39918АЛ Винт лаб. LM (копия оригинала) Adin RP (3.5) (арт. RP-0001) V.1</t>
-  </si>
-  <si>
-    <t>39905BЛ Винт лаб. LM (копия оригинала) Astra Tech 4.5/5.0 (арт. 24209) V.1</t>
-  </si>
-  <si>
-    <t>39919АЛ Винт лаб. LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1</t>
-  </si>
-  <si>
-    <t>40116АЛ Винт лаб. LM (копия оригинала) Sky Bredent (арт. SKY-PS24) V.1</t>
-  </si>
-  <si>
-    <t>40010АЛ Винт лаб. LM (копия оригинала) NeoBiotech 3.8 / 4.3 (арт. ISC 20) V.1</t>
-  </si>
-  <si>
-    <t>39911АЛ Винт лаб. LM (копия оригинала) MegaGen AnyOne (арт. AS20) V.1</t>
-  </si>
-  <si>
-    <t>39600АЛ Винт лаб. LM (копия оригинала) Niko 3.5 (арт. 5.301) V.2</t>
-  </si>
-  <si>
-    <t>39121Л Винт лаб. LM (копия оригинала) Neodent Grand Morse (арт. 116.286 Long) V.1</t>
-  </si>
-  <si>
-    <t>39901АЛ Винт лаб. LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1</t>
-  </si>
-  <si>
-    <t>40314АЛ Винт лаб. LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/Astra/Adin RS) V.1</t>
+    <t>40125Л Винт лаб. LM (копия оригинала) Alpha Bio Conical Narrow (арт. 7345) V.1</t>
+  </si>
+  <si>
+    <t>40314АЛ Винт лаб. LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/MisC1/Astra/Adin RS) V.1</t>
   </si>
   <si>
     <t>39912АЛ Винт лаб. LM (собств. разр.) Bego Semados 3.25/3.75 V.2</t>
@@ -482,42 +479,42 @@
     <t>39600АЛ Винт лаб. LM (копия оригинала) Niko 3.5 (арт. 5.301) V.1</t>
   </si>
   <si>
+    <t>40109АЛ Винт лаб. LM (копия оригинала) DIO UF II RP (3.8/4.0/4.5/5.0/5.5) (арт. SSC 2008H) V.1</t>
+  </si>
+  <si>
     <t>41298АЛ Винт лаб. LM (копия оригинала) Sky Bredent (арт. SKY-PS22) V.1</t>
   </si>
   <si>
-    <t>40109АЛ Винт лаб. LM (копия оригинала) DIO UF II RP (3.8/4.0/4.5/5.0/5.5) (арт. SSC 2008H) V.1</t>
-  </si>
-  <si>
-    <t>40125Л Винт лаб. LM (копия оригинала) Alpha Bio Conical Narrow (арт. 7345) V.1</t>
+    <t>40127АЛ Винт лаб. LM (копия оригинала) BoneTrust HEX 3.0 / 3.4 / 4.0 / 5.0 (арт. 160-100001) V.1</t>
+  </si>
+  <si>
+    <t>41332АЛ Винт лаб. LM (копия оригинала) Niko 4.5 (арт. 5.300 1,2 hex) V.1</t>
+  </si>
+  <si>
+    <t>39123Л Винт лаб. LM (копия оригинала) Neodent Grand Morse (арт. 116.283 Short) V.1</t>
+  </si>
+  <si>
+    <t>40304АЛ Винт лаб. LM (копия оригинала) Alpha Bio Multi-Unit TCT-N (арт. SF-N 6092) V.1</t>
+  </si>
+  <si>
+    <t>39907АЛ Винт лаб. LM (копия оригинала) Nobel Replace Select 3.5 (арт. 36818) V.1</t>
   </si>
   <si>
     <t>40111АЛ Винт лаб. LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1</t>
   </si>
   <si>
-    <t>40127АЛ Винт лаб. LM (копия оригинала) BoneTrust HEX 3.0 / 3.4 / 4.0 / 5.0 (арт. 160-100001) V.1</t>
-  </si>
-  <si>
-    <t>41332АЛ Винт лаб. LM (копия оригинала) Niko 4.5 (арт. 5.300 1,2 hex) V.1</t>
-  </si>
-  <si>
-    <t>39123Л Винт лаб. LM (копия оригинала) Neodent Grand Morse (арт. 116.283 Short) V.1</t>
-  </si>
-  <si>
-    <t>40304АЛ Винт лаб. LM (копия оригинала) Alpha Bio Multi-Unit TCT-N (арт. SF-N 6092) V.1</t>
-  </si>
-  <si>
-    <t>39907АЛ Винт лаб. LM (копия оригинала) Nobel Replace Select 3.5 (арт. 36818) V.1</t>
-  </si>
-  <si>
-    <t>39920АЛ Винт лаб. LM (копия оригинала) Biotech Kontact 3.6/4.2/4.8/5.4 (арт. KVP) V.1</t>
-  </si>
-  <si>
     <t>40101АЛ Винт лаб. LM (копия оригинала) DIO SM RP (4.5) (арт. SSC 2008) V.1</t>
   </si>
   <si>
+    <t>39805АЛ Винт лаб. LM (копия оригинала) BioHorizons 3.0 / 3.5 / 4.5 / 5.7 (арт. PXAS) V.1</t>
+  </si>
+  <si>
     <t>39910АЛ Винт лаб. LM (копия оригинала) ICX Medentis (арт. C-007-000001-01) V.1</t>
   </si>
   <si>
+    <t>39934АЛ Винт лаб. LM (копия оригинала) Straumann Bone Level SC (арт. 025.0031) V.1</t>
+  </si>
+  <si>
     <t>40100АЛ Винт лаб. LM (копия оригинала) DIO SM NP (3.8) (арт. SSC 1808) V.1</t>
   </si>
   <si>
@@ -527,43 +524,43 @@
     <t>41368 Винт трансфера Implantium закрытая ложка L=17.2 V.1</t>
   </si>
   <si>
-    <t>41287 Винт трансфера MegaGen AnyOne закрытая ложка L=18.3 V.1</t>
-  </si>
-  <si>
     <t>Винт трансфера для открытой ложки</t>
   </si>
   <si>
     <t>41219 Винт трансфера Implantium открытая ложка L=15 V.1</t>
   </si>
   <si>
+    <t>41218 Винт трансфера Implantium открытая ложка L=11 V.1</t>
+  </si>
+  <si>
+    <t>41299 Винт трансфера Implantium Multi-Unit 4.5 открытая ложка L=15 V.1</t>
+  </si>
+  <si>
+    <t>41349 Винт трансфера LENMIRIOT Multi-Unit (отв. Nobel) открытая ложка L=10 V.1</t>
+  </si>
+  <si>
+    <t>41214 Винт трансфера Osstem Implant Regular (4.0/4.5/5.0) открытая ложка L=21.5 V.1</t>
+  </si>
+  <si>
+    <t>41216 Винт трансфера MegaGen AnyRidge открытая ложка L=22 V.1</t>
+  </si>
+  <si>
     <t>41319 Винт трансфера LENMIRIOT Multi-Unit (отв. Megagen) / (отв. Osstem) открытая ложка L=10 V.1</t>
   </si>
   <si>
-    <t>41218 Винт трансфера Implantium открытая ложка L=11 V.1</t>
-  </si>
-  <si>
-    <t>41299 Винт трансфера Implantium Multi-Unit 4.5 открытая ложка L=15 V.1</t>
-  </si>
-  <si>
-    <t>41349 Винт трансфера LENMIRIOT Multi-Unit (отв. Nobel) открытая ложка L=10 V.1</t>
-  </si>
-  <si>
-    <t>41214 Винт трансфера Osstem Implant Regular (4.0/4.5/5.0) открытая ложка L=21.5 V.1</t>
-  </si>
-  <si>
-    <t>41216 Винт трансфера MegaGen AnyRidge открытая ложка L=22 V.1</t>
-  </si>
-  <si>
     <t>41212 Винт трансфера Osstem Implant Mini (3.5) открытая ложка L=23.3 V.1</t>
   </si>
   <si>
     <t>41233 Винт трансфера Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) открытая ложка L=22.5 V.1</t>
   </si>
   <si>
+    <t>41230 Винт трансфера Nobel Conical Connection NP (3.5), Nobel Active NP (3.5) открытая ложка L=27.7 V.1</t>
+  </si>
+  <si>
     <t>41217 Винт трансфера MegaGen AnyRidge открытая ложка L=27 V.1</t>
   </si>
   <si>
-    <t>41230 Винт трансфера Nobel Conical Connection NP (3.5), Nobel Active NP (3.5) открытая ложка L=27.7 V.1</t>
+    <t>41321 Винт трансфера LENMIRIOT Multi-Unit открытая ложка L=10 V.1</t>
   </si>
   <si>
     <t>41230 Винт трансфера Nobel Conical Connection NP (3.5), Nobel Active NP (3.5) открытая ложка L=27.7 V.2</t>
@@ -572,21 +569,18 @@
     <t>41231 Винт трансфера Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) открытая ложка L=27.7 V.2</t>
   </si>
   <si>
-    <t>41321 Винт трансфера LENMIRIOT Multi-Unit открытая ложка L=10 V.1</t>
-  </si>
-  <si>
     <t>41209 Винт трансфера Nobel Replace Select 4.3 открытая ложка L=20.6 V.1</t>
   </si>
   <si>
+    <t>41201 Винт трансфера Ankylos X открытая ложка L=20 V.1</t>
+  </si>
+  <si>
     <t>41210 Винт трансфера Astra Tech 3.5/4.0 открытая ложка L=19 V.1</t>
   </si>
   <si>
     <t>41232 Винт трансфера ICX Medentis открытая ложка L=20 V.1</t>
   </si>
   <si>
-    <t>41201 Винт трансфера Ankylos X открытая ложка L=20 V.1</t>
-  </si>
-  <si>
     <t>41252 Винт трансфера Astra Tech 3.5/4.0 открытая ложка L=21 V.1</t>
   </si>
   <si>
@@ -596,10 +590,13 @@
     <t>41213 Винт трансфера Osstem Implant Mini (3.5) открытая ложка L=15 V.1</t>
   </si>
   <si>
+    <t>41237 Винт трансфера Straumann Bone Level NC (3.3) / RC ( 4.1/4.8) открытая ложка L=30 V.1</t>
+  </si>
+  <si>
     <t>41215 Винт трансфера Osstem Implant Regular (4.0/4.5/5.0) открытая ложка L=25.5 V.1</t>
   </si>
   <si>
-    <t>41237 Винт трансфера Straumann Bone Level NC (3.3) / RC ( 4.1/4.8) открытая ложка L=30 V.1</t>
+    <t>41202 Винт трансфера Ankylos X открытая ложка L=25 V.1</t>
   </si>
   <si>
     <t>Винт углового абатмента MU</t>
@@ -615,6 +612,9 @@
   </si>
   <si>
     <t>41359 Винт угл. абатмента MU LM (собств. разр.) Mis SP (3.75/4.2), Adin RS (3.5/3.75/4.2/5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) V.1 /</t>
+  </si>
+  <si>
+    <t>41350 Винт угл. абатмента MU LM (собств. разр.) Nobel Active RP (4.5) V.1 /</t>
   </si>
 </sst>
 </file>
@@ -1177,15 +1177,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17">
-        <v>17517</v>
+        <v>18164</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="4">
-        <v>9815</v>
+        <v>10040</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>7702</v>
+        <v>8124</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1195,7 +1195,7 @@
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19">
-        <v>4288</v>
+        <v>4758</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="6">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>1543</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1213,7 +1213,7 @@
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19">
-        <v>1034</v>
+        <v>1055</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="8">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="8">
-        <v>691</v>
+        <v>712</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1230,16 +1230,16 @@
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
-      <c r="D9" s="19">
-        <v>2145</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="6">
-        <v>1605</v>
+      <c r="D9" s="20">
+        <v>645</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="8">
+        <v>88</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="8">
-        <v>540</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1249,15 +1249,15 @@
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="20">
-        <v>620</v>
+        <v>586</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="8">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="8">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1266,16 +1266,16 @@
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="20">
-        <v>544</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="8">
-        <v>46</v>
+      <c r="D11" s="19">
+        <v>2087</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="6">
+        <v>1605</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="8">
-        <v>498</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1285,7 +1285,7 @@
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="6">
@@ -1293,43 +1293,43 @@
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="8">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="20">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="8">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="8">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="20">
-        <v>332</v>
+        <v>442</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="8">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="8">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1339,13 +1339,13 @@
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="20">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1373,11 +1373,11 @@
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="20">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="8">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="8">
@@ -1409,15 +1409,15 @@
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="20">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="8">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="8">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1427,15 +1427,15 @@
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="20">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="8">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="8">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1445,15 +1445,15 @@
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="20">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="8">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="8">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1463,99 +1463,101 @@
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="20">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="8">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="8">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="20">
-        <v>88</v>
+        <v>407</v>
       </c>
       <c r="E23" s="20"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="8">
+        <v>324</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="8">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="20">
-        <v>407</v>
+        <v>80</v>
       </c>
       <c r="E24" s="20"/>
-      <c r="F24" s="8">
-        <v>324</v>
-      </c>
+      <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="8">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="20">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="8">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="20">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E26" s="20"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="8">
+        <v>16</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="8">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A27" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="20">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="8">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="8">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1565,13 +1567,13 @@
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="20">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="8">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1581,13 +1583,15 @@
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="20">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E29" s="20"/>
-      <c r="F29" s="7"/>
+      <c r="F29" s="8">
+        <v>20</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="8">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1597,103 +1601,95 @@
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="20">
-        <v>184</v>
+        <v>50</v>
       </c>
       <c r="E30" s="20"/>
-      <c r="F30" s="8">
-        <v>125</v>
-      </c>
+      <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="8">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="20">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="E31" s="20"/>
-      <c r="F31" s="8">
-        <v>137</v>
-      </c>
+      <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="8">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="20">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="8">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="20">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="E33" s="20"/>
-      <c r="F33" s="8">
-        <v>20</v>
-      </c>
+      <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="8">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="20">
-        <v>320</v>
+        <v>43</v>
       </c>
       <c r="E34" s="20"/>
-      <c r="F34" s="8">
-        <v>270</v>
-      </c>
+      <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="20">
-        <v>70</v>
+        <v>262</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="8">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="8">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1703,13 +1699,13 @@
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="20">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="8">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1751,31 +1747,33 @@
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="20">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="8">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="8">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A40" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="20">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E40" s="20"/>
-      <c r="F40" s="7"/>
+      <c r="F40" s="8">
+        <v>45</v>
+      </c>
       <c r="G40" s="7"/>
       <c r="H40" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1785,15 +1783,15 @@
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="20">
-        <v>81</v>
+        <v>431</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="8">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="8">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1803,15 +1801,13 @@
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="20">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E42" s="20"/>
-      <c r="F42" s="8">
-        <v>25</v>
-      </c>
+      <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="8">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1821,13 +1817,15 @@
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="20">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E43" s="20"/>
-      <c r="F43" s="7"/>
+      <c r="F43" s="8">
+        <v>25</v>
+      </c>
       <c r="G43" s="7"/>
       <c r="H43" s="8">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1837,26 +1835,30 @@
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="20">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E44" s="20"/>
-      <c r="F44" s="7"/>
+      <c r="F44" s="8">
+        <v>40</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="H44" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="20">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E45" s="20"/>
-      <c r="F45" s="7"/>
+      <c r="F45" s="8">
+        <v>25</v>
+      </c>
       <c r="G45" s="7"/>
       <c r="H45" s="8">
         <v>30</v>
@@ -1878,7 +1880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A47" s="18" t="s">
         <v>50</v>
       </c>
@@ -1894,36 +1896,38 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="20">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="20">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E49" s="20"/>
-      <c r="F49" s="7"/>
+      <c r="F49" s="8">
+        <v>25</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="H49" s="8">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1944,18 +1948,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A51" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="20">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="8">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="8">
@@ -1969,30 +1973,28 @@
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="20">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="8">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A53" s="18" t="s">
         <v>56</v>
       </c>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="20">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="E53" s="20"/>
-      <c r="F53" s="8">
-        <v>80</v>
-      </c>
+      <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="8">
         <v>25</v>
@@ -2005,13 +2007,13 @@
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="20">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2021,15 +2023,13 @@
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="20">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E55" s="20"/>
-      <c r="F55" s="8">
-        <v>25</v>
-      </c>
+      <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="8">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2039,13 +2039,13 @@
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="20">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2055,81 +2055,83 @@
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="20">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E57" s="20"/>
-      <c r="F57" s="7"/>
+      <c r="F57" s="8">
+        <v>25</v>
+      </c>
       <c r="G57" s="7"/>
       <c r="H57" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A58" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="20">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E58" s="20"/>
-      <c r="F58" s="7"/>
+      <c r="F58" s="8">
+        <v>40</v>
+      </c>
       <c r="G58" s="7"/>
       <c r="H58" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A59" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="20">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E59" s="20"/>
-      <c r="F59" s="8">
-        <v>40</v>
-      </c>
+      <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A60" s="18" t="s">
         <v>63</v>
       </c>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
       <c r="D60" s="20">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E60" s="20"/>
-      <c r="F60" s="8">
-        <v>10</v>
-      </c>
+      <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A61" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
       <c r="D61" s="20">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E61" s="20"/>
-      <c r="F61" s="7"/>
+      <c r="F61" s="8">
+        <v>10</v>
+      </c>
       <c r="G61" s="7"/>
       <c r="H61" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2139,61 +2141,63 @@
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="20">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="E62" s="20"/>
-      <c r="F62" s="7"/>
+      <c r="F62" s="8">
+        <v>137</v>
+      </c>
       <c r="G62" s="7"/>
       <c r="H62" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A63" s="18" t="s">
         <v>66</v>
       </c>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A64" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
       <c r="D64" s="20">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="8">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A65" s="18" t="s">
         <v>68</v>
       </c>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="20">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="8">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="8">
@@ -2225,15 +2229,13 @@
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="20">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="E67" s="20"/>
-      <c r="F67" s="8">
-        <v>65</v>
-      </c>
+      <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="8">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2243,33 +2245,31 @@
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="20">
-        <v>411</v>
+        <v>11</v>
       </c>
       <c r="E68" s="20"/>
-      <c r="F68" s="8">
-        <v>400</v>
-      </c>
+      <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A69" s="18" t="s">
         <v>72</v>
       </c>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="20">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="8">
-        <v>251</v>
+        <v>65</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2311,47 +2311,49 @@
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
       <c r="D72" s="20">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="8">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A73" s="18" t="s">
         <v>76</v>
       </c>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
       <c r="D73" s="20">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E73" s="20"/>
-      <c r="F73" s="7"/>
+      <c r="F73" s="8">
+        <v>50</v>
+      </c>
       <c r="G73" s="7"/>
       <c r="H73" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A74" s="18" t="s">
         <v>77</v>
       </c>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
       <c r="D74" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" s="20"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2361,29 +2363,31 @@
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
       <c r="D75" s="20">
-        <v>9</v>
+        <v>219</v>
       </c>
       <c r="E75" s="20"/>
-      <c r="F75" s="7"/>
+      <c r="F75" s="8">
+        <v>210</v>
+      </c>
       <c r="G75" s="7"/>
       <c r="H75" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A76" s="18" t="s">
         <v>79</v>
       </c>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
       <c r="D76" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E76" s="20"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2393,29 +2397,29 @@
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
       <c r="D77" s="20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E77" s="20"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A78" s="18" t="s">
         <v>81</v>
       </c>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
       <c r="D78" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E78" s="20"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2425,31 +2429,29 @@
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
       <c r="D79" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A80" s="18" t="s">
         <v>83</v>
       </c>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
       <c r="D80" s="20">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E80" s="20"/>
-      <c r="F80" s="8">
-        <v>10</v>
-      </c>
+      <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2475,18 +2477,16 @@
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
       <c r="D82" s="20">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E82" s="20"/>
-      <c r="F82" s="8">
-        <v>30</v>
-      </c>
+      <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A83" s="18" t="s">
         <v>86</v>
       </c>
@@ -2509,10 +2509,12 @@
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
       <c r="D84" s="20">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E84" s="20"/>
-      <c r="F84" s="7"/>
+      <c r="F84" s="8">
+        <v>30</v>
+      </c>
       <c r="G84" s="7"/>
       <c r="H84" s="8">
         <v>5</v>
@@ -2525,10 +2527,12 @@
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="20">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E85" s="20"/>
-      <c r="F85" s="7"/>
+      <c r="F85" s="8">
+        <v>10</v>
+      </c>
       <c r="G85" s="7"/>
       <c r="H85" s="8">
         <v>5</v>
@@ -2586,17 +2590,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A89" s="18" t="s">
         <v>92</v>
       </c>
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="20">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E89" s="20"/>
-      <c r="F89" s="7"/>
+      <c r="F89" s="8">
+        <v>16</v>
+      </c>
       <c r="G89" s="7"/>
       <c r="H89" s="8">
         <v>3</v>
@@ -2609,18 +2615,16 @@
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
       <c r="D90" s="20">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E90" s="20"/>
-      <c r="F90" s="8">
-        <v>16</v>
-      </c>
+      <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A91" s="18" t="s">
         <v>94</v>
       </c>
@@ -2691,12 +2695,10 @@
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E95" s="20"/>
-      <c r="F95" s="8">
-        <v>4</v>
-      </c>
+      <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="8">
         <v>2</v>
@@ -2709,11 +2711,11 @@
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="20">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="E96" s="20"/>
       <c r="F96" s="8">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G96" s="7"/>
       <c r="H96" s="8">
@@ -2727,10 +2729,12 @@
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
       <c r="D97" s="20">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="E97" s="20"/>
-      <c r="F97" s="7"/>
+      <c r="F97" s="8">
+        <v>50</v>
+      </c>
       <c r="G97" s="7"/>
       <c r="H97" s="8">
         <v>2</v>
@@ -2791,28 +2795,28 @@
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
       <c r="D101" s="20">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E101" s="20"/>
-      <c r="F101" s="7"/>
+      <c r="F101" s="8">
+        <v>15</v>
+      </c>
       <c r="G101" s="7"/>
       <c r="H101" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A102" s="18" t="s">
         <v>105</v>
       </c>
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
       <c r="D102" s="20">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E102" s="20"/>
-      <c r="F102" s="8">
-        <v>15</v>
-      </c>
+      <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="8">
         <v>1</v>
@@ -2834,124 +2838,126 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="18" t="s">
+    <row r="104" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="20">
-        <v>1</v>
-      </c>
-      <c r="E104" s="20"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="16" t="s">
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="21">
+        <v>50</v>
+      </c>
+      <c r="E104" s="21"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="21">
-        <v>20</v>
-      </c>
-      <c r="E105" s="21"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="18" t="s">
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="20">
+        <v>50</v>
+      </c>
+      <c r="E105" s="20"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="20">
-        <v>20</v>
-      </c>
-      <c r="E106" s="20"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="16" t="s">
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="17">
+        <v>5680</v>
+      </c>
+      <c r="E106" s="17"/>
+      <c r="F106" s="9">
+        <v>740</v>
+      </c>
+      <c r="G106" s="5"/>
+      <c r="H106" s="4">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="17">
-        <v>5479</v>
-      </c>
-      <c r="E107" s="17"/>
-      <c r="F107" s="9">
-        <v>740</v>
-      </c>
-      <c r="G107" s="5"/>
-      <c r="H107" s="4">
-        <v>4739</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="19">
+        <v>1289</v>
+      </c>
+      <c r="E107" s="19"/>
+      <c r="F107" s="8">
+        <v>72</v>
+      </c>
+      <c r="G107" s="7"/>
+      <c r="H107" s="6">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A108" s="18" t="s">
         <v>111</v>
       </c>
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
       <c r="D108" s="19">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="E108" s="19"/>
       <c r="F108" s="8">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G108" s="7"/>
       <c r="H108" s="6">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A109" s="18" t="s">
         <v>112</v>
       </c>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
-      <c r="D109" s="19">
-        <v>1097</v>
-      </c>
-      <c r="E109" s="19"/>
+      <c r="D109" s="20">
+        <v>501</v>
+      </c>
+      <c r="E109" s="20"/>
       <c r="F109" s="8">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G109" s="7"/>
-      <c r="H109" s="6">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="H109" s="8">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A110" s="18" t="s">
         <v>113</v>
       </c>
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
       <c r="D110" s="20">
-        <v>454</v>
+        <v>290</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="8">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="G110" s="7"/>
       <c r="H110" s="8">
-        <v>399</v>
+        <v>284</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2961,15 +2967,15 @@
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
       <c r="D111" s="20">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="8">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="G111" s="7"/>
       <c r="H111" s="8">
-        <v>301</v>
+        <v>260</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2979,15 +2985,15 @@
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
       <c r="D112" s="20">
-        <v>285</v>
+        <v>203</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G112" s="7"/>
       <c r="H112" s="8">
-        <v>234</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3013,15 +3019,15 @@
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
       <c r="D114" s="20">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="8">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G114" s="7"/>
       <c r="H114" s="8">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3031,7 +3037,7 @@
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
       <c r="D115" s="20">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="8">
@@ -3039,7 +3045,7 @@
       </c>
       <c r="G115" s="7"/>
       <c r="H115" s="8">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3049,15 +3055,13 @@
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
       <c r="D116" s="20">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E116" s="20"/>
-      <c r="F116" s="8">
-        <v>2</v>
-      </c>
+      <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c r="H116" s="8">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3067,7 +3071,7 @@
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
       <c r="D117" s="20">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="8">
@@ -3075,7 +3079,7 @@
       </c>
       <c r="G117" s="7"/>
       <c r="H117" s="8">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3103,29 +3107,29 @@
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
       <c r="D119" s="20">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c r="H119" s="8">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A120" s="18" t="s">
         <v>123</v>
       </c>
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
       <c r="D120" s="20">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c r="H120" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3135,13 +3139,15 @@
       <c r="B121" s="18"/>
       <c r="C121" s="18"/>
       <c r="D121" s="20">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="E121" s="20"/>
-      <c r="F121" s="7"/>
+      <c r="F121" s="8">
+        <v>41</v>
+      </c>
       <c r="G121" s="7"/>
       <c r="H121" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3151,7 +3157,7 @@
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
       <c r="D122" s="20">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="8">
@@ -3159,25 +3165,23 @@
       </c>
       <c r="G122" s="7"/>
       <c r="H122" s="8">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A123" s="18" t="s">
         <v>126</v>
       </c>
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
       <c r="D123" s="20">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="E123" s="20"/>
-      <c r="F123" s="8">
-        <v>41</v>
-      </c>
+      <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c r="H123" s="8">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3187,13 +3191,15 @@
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
       <c r="D124" s="20">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="E124" s="20"/>
-      <c r="F124" s="7"/>
+      <c r="F124" s="8">
+        <v>48</v>
+      </c>
       <c r="G124" s="7"/>
       <c r="H124" s="8">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3203,15 +3209,15 @@
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
       <c r="D125" s="20">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="8">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G125" s="7"/>
       <c r="H125" s="8">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3221,31 +3227,33 @@
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
       <c r="D126" s="20">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E126" s="20"/>
-      <c r="F126" s="7"/>
+      <c r="F126" s="8">
+        <v>30</v>
+      </c>
       <c r="G126" s="7"/>
       <c r="H126" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A127" s="18" t="s">
         <v>130</v>
       </c>
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
       <c r="D127" s="20">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="8">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G127" s="7"/>
       <c r="H127" s="8">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3255,33 +3263,29 @@
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
       <c r="D128" s="20">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E128" s="20"/>
-      <c r="F128" s="8">
-        <v>20</v>
-      </c>
+      <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="H128" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A129" s="18" t="s">
         <v>132</v>
       </c>
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
       <c r="D129" s="20">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="E129" s="20"/>
-      <c r="F129" s="8">
-        <v>62</v>
-      </c>
+      <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c r="H129" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3291,39 +3295,41 @@
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
       <c r="D130" s="20">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E130" s="20"/>
-      <c r="F130" s="7"/>
+      <c r="F130" s="8">
+        <v>25</v>
+      </c>
       <c r="G130" s="7"/>
       <c r="H130" s="8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A131" s="18" t="s">
         <v>134</v>
       </c>
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
       <c r="D131" s="20">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E131" s="20"/>
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c r="H131" s="8">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A132" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
       <c r="D132" s="20">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E132" s="20"/>
       <c r="F132" s="8">
@@ -3331,7 +3337,7 @@
       </c>
       <c r="G132" s="7"/>
       <c r="H132" s="8">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3341,45 +3347,49 @@
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
       <c r="D133" s="20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E133" s="20"/>
-      <c r="F133" s="7"/>
+      <c r="F133" s="8">
+        <v>25</v>
+      </c>
       <c r="G133" s="7"/>
       <c r="H133" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A134" s="18" t="s">
         <v>137</v>
       </c>
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
       <c r="D134" s="20">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c r="H134" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A135" s="18" t="s">
         <v>138</v>
       </c>
       <c r="B135" s="18"/>
       <c r="C135" s="18"/>
       <c r="D135" s="20">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E135" s="20"/>
-      <c r="F135" s="7"/>
+      <c r="F135" s="8">
+        <v>20</v>
+      </c>
       <c r="G135" s="7"/>
       <c r="H135" s="8">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3389,15 +3399,13 @@
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
       <c r="D136" s="20">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E136" s="20"/>
-      <c r="F136" s="8">
-        <v>25</v>
-      </c>
+      <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c r="H136" s="8">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3407,13 +3415,13 @@
       <c r="B137" s="18"/>
       <c r="C137" s="18"/>
       <c r="D137" s="20">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E137" s="20"/>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c r="H137" s="8">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3423,31 +3431,29 @@
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
       <c r="D138" s="20">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E138" s="20"/>
-      <c r="F138" s="8">
-        <v>25</v>
-      </c>
+      <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c r="H138" s="8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A139" s="18" t="s">
         <v>142</v>
       </c>
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
       <c r="D139" s="20">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E139" s="20"/>
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c r="H139" s="8">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3457,13 +3463,13 @@
       <c r="B140" s="18"/>
       <c r="C140" s="18"/>
       <c r="D140" s="20">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E140" s="20"/>
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c r="H140" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3473,31 +3479,31 @@
       <c r="B141" s="18"/>
       <c r="C141" s="18"/>
       <c r="D141" s="20">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G141" s="7"/>
       <c r="H141" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A142" s="18" t="s">
         <v>145</v>
       </c>
       <c r="B142" s="18"/>
       <c r="C142" s="18"/>
       <c r="D142" s="20">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E142" s="20"/>
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c r="H142" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3507,50 +3513,48 @@
       <c r="B143" s="18"/>
       <c r="C143" s="18"/>
       <c r="D143" s="20">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E143" s="20"/>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c r="H143" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A144" s="18" t="s">
         <v>147</v>
       </c>
       <c r="B144" s="18"/>
       <c r="C144" s="18"/>
       <c r="D144" s="20">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E144" s="20"/>
-      <c r="F144" s="8">
-        <v>15</v>
-      </c>
+      <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c r="H144" s="8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A145" s="18" t="s">
         <v>148</v>
       </c>
       <c r="B145" s="18"/>
       <c r="C145" s="18"/>
       <c r="D145" s="20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E145" s="20"/>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c r="H145" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A146" s="18" t="s">
         <v>149</v>
       </c>
@@ -3566,38 +3570,38 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A147" s="18" t="s">
         <v>150</v>
       </c>
       <c r="B147" s="18"/>
       <c r="C147" s="18"/>
       <c r="D147" s="20">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E147" s="20"/>
-      <c r="F147" s="7"/>
+      <c r="F147" s="8">
+        <v>30</v>
+      </c>
       <c r="G147" s="7"/>
       <c r="H147" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A148" s="18" t="s">
         <v>151</v>
       </c>
       <c r="B148" s="18"/>
       <c r="C148" s="18"/>
       <c r="D148" s="20">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E148" s="20"/>
-      <c r="F148" s="8">
-        <v>30</v>
-      </c>
+      <c r="F148" s="7"/>
       <c r="G148" s="7"/>
       <c r="H148" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3623,13 +3627,13 @@
       <c r="B150" s="18"/>
       <c r="C150" s="18"/>
       <c r="D150" s="20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E150" s="20"/>
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c r="H150" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3639,13 +3643,13 @@
       <c r="B151" s="18"/>
       <c r="C151" s="18"/>
       <c r="D151" s="20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c r="H151" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3655,15 +3659,13 @@
       <c r="B152" s="18"/>
       <c r="C152" s="18"/>
       <c r="D152" s="20">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E152" s="20"/>
-      <c r="F152" s="8">
-        <v>1</v>
-      </c>
+      <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c r="H152" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3673,13 +3675,13 @@
       <c r="B153" s="18"/>
       <c r="C153" s="18"/>
       <c r="D153" s="20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
       <c r="H153" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3689,13 +3691,15 @@
       <c r="B154" s="18"/>
       <c r="C154" s="18"/>
       <c r="D154" s="20">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E154" s="20"/>
-      <c r="F154" s="7"/>
+      <c r="F154" s="8">
+        <v>23</v>
+      </c>
       <c r="G154" s="7"/>
       <c r="H154" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3708,44 +3712,44 @@
         <v>6</v>
       </c>
       <c r="E155" s="20"/>
-      <c r="F155" s="7"/>
+      <c r="F155" s="8">
+        <v>1</v>
+      </c>
       <c r="G155" s="7"/>
       <c r="H155" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A156" s="18" t="s">
         <v>159</v>
       </c>
       <c r="B156" s="18"/>
       <c r="C156" s="18"/>
       <c r="D156" s="20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
       <c r="H156" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A157" s="18" t="s">
         <v>160</v>
       </c>
       <c r="B157" s="18"/>
       <c r="C157" s="18"/>
       <c r="D157" s="20">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E157" s="20"/>
-      <c r="F157" s="8">
-        <v>23</v>
-      </c>
+      <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c r="H157" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3755,13 +3759,15 @@
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
       <c r="D158" s="20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E158" s="20"/>
-      <c r="F158" s="7"/>
+      <c r="F158" s="8">
+        <v>1</v>
+      </c>
       <c r="G158" s="7"/>
       <c r="H158" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3771,13 +3777,13 @@
       <c r="B159" s="18"/>
       <c r="C159" s="18"/>
       <c r="D159" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E159" s="20"/>
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
       <c r="H159" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3787,63 +3793,63 @@
       <c r="B160" s="18"/>
       <c r="C160" s="18"/>
       <c r="D160" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E160" s="20"/>
-      <c r="F160" s="8">
-        <v>1</v>
-      </c>
+      <c r="F160" s="7"/>
       <c r="G160" s="7"/>
       <c r="H160" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="18" t="s">
+    <row r="161" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="B161" s="18"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="20">
-        <v>1</v>
-      </c>
-      <c r="E161" s="20"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="7"/>
-      <c r="H161" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="16" t="s">
+      <c r="B161" s="16"/>
+      <c r="C161" s="16"/>
+      <c r="D161" s="21">
+        <v>6</v>
+      </c>
+      <c r="E161" s="21"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B162" s="16"/>
-      <c r="C162" s="16"/>
-      <c r="D162" s="21">
-        <v>7</v>
-      </c>
-      <c r="E162" s="21"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="18" t="s">
+      <c r="B162" s="18"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="20">
+        <v>6</v>
+      </c>
+      <c r="E162" s="20"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B163" s="18"/>
-      <c r="C163" s="18"/>
-      <c r="D163" s="20">
-        <v>6</v>
-      </c>
-      <c r="E163" s="20"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="8">
-        <v>6</v>
+      <c r="B163" s="16"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="17">
+        <v>1248</v>
+      </c>
+      <c r="E163" s="17"/>
+      <c r="F163" s="9">
+        <v>927</v>
+      </c>
+      <c r="G163" s="5"/>
+      <c r="H163" s="9">
+        <v>321</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3853,31 +3859,31 @@
       <c r="B164" s="18"/>
       <c r="C164" s="18"/>
       <c r="D164" s="20">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="E164" s="20"/>
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
       <c r="H164" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="B165" s="16"/>
-      <c r="C165" s="16"/>
-      <c r="D165" s="17">
-        <v>1168</v>
-      </c>
-      <c r="E165" s="17"/>
-      <c r="F165" s="9">
-        <v>788</v>
-      </c>
-      <c r="G165" s="5"/>
-      <c r="H165" s="9">
-        <v>380</v>
+      <c r="B165" s="18"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="20">
+        <v>70</v>
+      </c>
+      <c r="E165" s="20"/>
+      <c r="F165" s="8">
+        <v>32</v>
+      </c>
+      <c r="G165" s="7"/>
+      <c r="H165" s="8">
+        <v>38</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3887,29 +3893,29 @@
       <c r="B166" s="18"/>
       <c r="C166" s="18"/>
       <c r="D166" s="20">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E166" s="20"/>
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
       <c r="H166" s="8">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A167" s="18" t="s">
         <v>170</v>
       </c>
       <c r="B167" s="18"/>
       <c r="C167" s="18"/>
       <c r="D167" s="20">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E167" s="20"/>
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
       <c r="H167" s="8">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3919,15 +3925,15 @@
       <c r="B168" s="18"/>
       <c r="C168" s="18"/>
       <c r="D168" s="20">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="E168" s="20"/>
       <c r="F168" s="8">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="G168" s="7"/>
       <c r="H168" s="8">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3937,29 +3943,31 @@
       <c r="B169" s="18"/>
       <c r="C169" s="18"/>
       <c r="D169" s="20">
-        <v>34</v>
+        <v>317</v>
       </c>
       <c r="E169" s="20"/>
-      <c r="F169" s="7"/>
+      <c r="F169" s="8">
+        <v>300</v>
+      </c>
       <c r="G169" s="7"/>
       <c r="H169" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A170" s="18" t="s">
         <v>173</v>
       </c>
       <c r="B170" s="18"/>
       <c r="C170" s="18"/>
       <c r="D170" s="20">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E170" s="20"/>
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
       <c r="H170" s="8">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3969,67 +3977,63 @@
       <c r="B171" s="18"/>
       <c r="C171" s="18"/>
       <c r="D171" s="20">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="E171" s="20"/>
       <c r="F171" s="8">
-        <v>166</v>
+        <v>5</v>
       </c>
       <c r="G171" s="7"/>
       <c r="H171" s="8">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A172" s="18" t="s">
         <v>175</v>
       </c>
       <c r="B172" s="18"/>
       <c r="C172" s="18"/>
       <c r="D172" s="20">
-        <v>317</v>
+        <v>11</v>
       </c>
       <c r="E172" s="20"/>
-      <c r="F172" s="8">
-        <v>300</v>
-      </c>
+      <c r="F172" s="7"/>
       <c r="G172" s="7"/>
       <c r="H172" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A173" s="18" t="s">
         <v>176</v>
       </c>
       <c r="B173" s="18"/>
       <c r="C173" s="18"/>
       <c r="D173" s="20">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E173" s="20"/>
-      <c r="F173" s="8">
-        <v>5</v>
-      </c>
+      <c r="F173" s="7"/>
       <c r="G173" s="7"/>
       <c r="H173" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A174" s="18" t="s">
         <v>177</v>
       </c>
       <c r="B174" s="18"/>
       <c r="C174" s="18"/>
       <c r="D174" s="20">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E174" s="20"/>
       <c r="F174" s="7"/>
       <c r="G174" s="7"/>
       <c r="H174" s="8">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4039,13 +4043,13 @@
       <c r="B175" s="18"/>
       <c r="C175" s="18"/>
       <c r="D175" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E175" s="20"/>
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
       <c r="H175" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4055,13 +4059,13 @@
       <c r="B176" s="18"/>
       <c r="C176" s="18"/>
       <c r="D176" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E176" s="20"/>
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
       <c r="H176" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4071,29 +4075,29 @@
       <c r="B177" s="18"/>
       <c r="C177" s="18"/>
       <c r="D177" s="20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E177" s="20"/>
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
       <c r="H177" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A178" s="18" t="s">
         <v>181</v>
       </c>
       <c r="B178" s="18"/>
       <c r="C178" s="18"/>
       <c r="D178" s="20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E178" s="20"/>
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
       <c r="H178" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4103,13 +4107,13 @@
       <c r="B179" s="18"/>
       <c r="C179" s="18"/>
       <c r="D179" s="20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E179" s="20"/>
       <c r="F179" s="7"/>
       <c r="G179" s="7"/>
       <c r="H179" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4119,10 +4123,12 @@
       <c r="B180" s="18"/>
       <c r="C180" s="18"/>
       <c r="D180" s="20">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="E180" s="20"/>
-      <c r="F180" s="7"/>
+      <c r="F180" s="8">
+        <v>135</v>
+      </c>
       <c r="G180" s="7"/>
       <c r="H180" s="8">
         <v>4</v>
@@ -4135,15 +4141,13 @@
       <c r="B181" s="18"/>
       <c r="C181" s="18"/>
       <c r="D181" s="20">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="E181" s="20"/>
-      <c r="F181" s="8">
-        <v>135</v>
-      </c>
+      <c r="F181" s="7"/>
       <c r="G181" s="7"/>
       <c r="H181" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4153,10 +4157,12 @@
       <c r="B182" s="18"/>
       <c r="C182" s="18"/>
       <c r="D182" s="20">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="E182" s="20"/>
-      <c r="F182" s="7"/>
+      <c r="F182" s="8">
+        <v>150</v>
+      </c>
       <c r="G182" s="7"/>
       <c r="H182" s="8">
         <v>3</v>
@@ -4185,31 +4191,29 @@
       <c r="B184" s="18"/>
       <c r="C184" s="18"/>
       <c r="D184" s="20">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="E184" s="20"/>
-      <c r="F184" s="8">
-        <v>150</v>
-      </c>
+      <c r="F184" s="7"/>
       <c r="G184" s="7"/>
       <c r="H184" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A185" s="18" t="s">
         <v>188</v>
       </c>
       <c r="B185" s="18"/>
       <c r="C185" s="18"/>
       <c r="D185" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E185" s="20"/>
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
       <c r="H185" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4219,13 +4223,13 @@
       <c r="B186" s="18"/>
       <c r="C186" s="18"/>
       <c r="D186" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E186" s="20"/>
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
       <c r="H186" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4235,61 +4239,63 @@
       <c r="B187" s="18"/>
       <c r="C187" s="18"/>
       <c r="D187" s="20">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="E187" s="20"/>
-      <c r="F187" s="7"/>
+      <c r="F187" s="8">
+        <v>139</v>
+      </c>
       <c r="G187" s="7"/>
       <c r="H187" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="18" t="s">
+    <row r="188" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="B188" s="18"/>
-      <c r="C188" s="18"/>
-      <c r="D188" s="20">
-        <v>1</v>
-      </c>
-      <c r="E188" s="20"/>
-      <c r="F188" s="7"/>
-      <c r="G188" s="7"/>
-      <c r="H188" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="16" t="s">
+      <c r="B188" s="16"/>
+      <c r="C188" s="16"/>
+      <c r="D188" s="21">
+        <v>31</v>
+      </c>
+      <c r="E188" s="21"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="B189" s="16"/>
-      <c r="C189" s="16"/>
-      <c r="D189" s="21">
-        <v>70</v>
-      </c>
-      <c r="E189" s="21"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="5"/>
-      <c r="H189" s="9">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B189" s="18"/>
+      <c r="C189" s="18"/>
+      <c r="D189" s="20">
+        <v>12</v>
+      </c>
+      <c r="E189" s="20"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A190" s="18" t="s">
         <v>193</v>
       </c>
       <c r="B190" s="18"/>
       <c r="C190" s="18"/>
       <c r="D190" s="20">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E190" s="20"/>
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
       <c r="H190" s="8">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4299,45 +4305,45 @@
       <c r="B191" s="18"/>
       <c r="C191" s="18"/>
       <c r="D191" s="20">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E191" s="20"/>
       <c r="F191" s="7"/>
       <c r="G191" s="7"/>
       <c r="H191" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A192" s="18" t="s">
         <v>195</v>
       </c>
       <c r="B192" s="18"/>
       <c r="C192" s="18"/>
       <c r="D192" s="20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E192" s="20"/>
       <c r="F192" s="7"/>
       <c r="G192" s="7"/>
       <c r="H192" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A193" s="18" t="s">
         <v>196</v>
       </c>
       <c r="B193" s="18"/>
       <c r="C193" s="18"/>
       <c r="D193" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E193" s="20"/>
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
       <c r="H193" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -4347,15 +4353,15 @@
       <c r="B194" s="15"/>
       <c r="C194" s="15"/>
       <c r="D194" s="22">
-        <v>24261</v>
+        <v>25179</v>
       </c>
       <c r="E194" s="22"/>
       <c r="F194" s="10">
-        <v>11343</v>
+        <v>11707</v>
       </c>
       <c r="G194" s="11"/>
       <c r="H194" s="10">
-        <v>12918</v>
+        <v>13472</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/screws/screws_unsh.xlsx
+++ b/input_data/screws/screws_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/screws/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_14/screws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D56E268-5000-6C49-903C-133AE387F3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432C4F92-94AE-4347-B991-7C3C092B9930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="195">
   <si>
     <t>Отбор:</t>
   </si>
@@ -62,21 +62,27 @@
     <t>39806А Винт LM (копия оригинала) Straumann Bone Level NC (3.3) (арт. 025-2900) V.1</t>
   </si>
   <si>
+    <t>40008А Винт LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) (арт. GSABSST) V.1</t>
+  </si>
+  <si>
     <t>39912А Винт LM (копия оригинала) Bego Semados 3.25/3.75 / 4.1 / 4.5 / 5.5 (арт. 57028) V.1</t>
   </si>
   <si>
+    <t>39908А Винт LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1</t>
+  </si>
+  <si>
     <t>39807А Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1</t>
   </si>
   <si>
     <t>39502А Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1</t>
   </si>
   <si>
-    <t>40008А Винт LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) (арт. GSABSST) V.1</t>
-  </si>
-  <si>
     <t>40312А Винт LM (копия оригинала) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Nobel) (арт. 29287) V.1</t>
   </si>
   <si>
+    <t>39907А Винт LM (копия оригинала) Nobel Replace Select 3.5 (арт. 36818) V.1</t>
+  </si>
+  <si>
     <t>40125 Винт LM (копия оригинала) Alpha Bio Conical Narrow (арт. 7345) V.1</t>
   </si>
   <si>
@@ -86,33 +92,33 @@
     <t>39913А Винт LM (копия оригинала) Conmet NP (2.2) (арт. 213.12) V.1</t>
   </si>
   <si>
+    <t>39911А Винт LM (копия оригинала) MegaGen AnyOne (арт. AS20) V.1</t>
+  </si>
+  <si>
+    <t>39502С Винт LM (копия оригинала) Zimmer 3.5 / 4.5 / 5.7 (арт. R60) V.1</t>
+  </si>
+  <si>
+    <t>39901А Винт LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1</t>
+  </si>
+  <si>
     <t>40005Аупб Винт LM (копия оригинала) Implantium, Impro (арт. ASC2045) V.1 / УПАК</t>
   </si>
   <si>
-    <t>39502С Винт LM (копия оригинала) Zimmer 3.5 / 4.5 / 5.7 (арт. R60) V.1</t>
-  </si>
-  <si>
     <t>40311А Винт LM (копия оригинала) Mis Multi-Unit (арт. MU-S0220) V.1</t>
   </si>
   <si>
-    <t>39911А Винт LM (копия оригинала) MegaGen AnyOne (арт. AS20) V.1</t>
+    <t>40140А Винт LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1</t>
   </si>
   <si>
     <t>40006А Винт LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1</t>
   </si>
   <si>
-    <t>40140А Винт LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1</t>
-  </si>
-  <si>
-    <t>39901А Винт LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1</t>
+    <t>39906В Винт LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNIHT) V.2</t>
   </si>
   <si>
     <t>41250А Винт LM (копия оригинала) Straumann SynOcta RN (4.8) / WN (6.5) (арт. 048.711) V.1</t>
   </si>
   <si>
-    <t>39906В Винт LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNIHT) V.2</t>
-  </si>
-  <si>
     <t>39109А Винт LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5</t>
   </si>
   <si>
@@ -125,171 +131,162 @@
     <t>39914А Винт LM (копия оригинала) Conmet RP (2.7) (арт. 213.21) V.1</t>
   </si>
   <si>
+    <t>39911Аупб Винт LM (копия оригинала) MegaGen AnyOne (арт. AS20) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>40314А Винт LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/MisC1/Astra/Adin RS) V.1</t>
+  </si>
+  <si>
     <t>40316А Винт LM GEO Osstem Implant Multi-Unit, LENMIRIOT Multi-Unit (отв. Osstem) (арт. MUTOC) V.1</t>
   </si>
   <si>
+    <t>я НЕ ИСП !!!40005Ауп Винт LM (копия оригинала) Implantium, Impro (арт. ASC2045) V.1  / В ПРОБИРКЕ</t>
+  </si>
+  <si>
     <t>41034 Винт LM ZIRKONZAHN Osstem Implant Regular (4.0/4.5/5.0) V.1</t>
   </si>
   <si>
     <t>я НЕ ИСП !!!40008Ауп Винт LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) (арт. GSABSST) V.1  / В ПРОБИРКЕ</t>
   </si>
   <si>
+    <t>39121 Винт LM (копия оригинала) Neodent Grand Morse (арт. 116.286 Long) V.1</t>
+  </si>
+  <si>
+    <t>40105А Винт LM (копия оригинала) Anthogyr Axiom (арт. ОРТР410) V.1</t>
+  </si>
+  <si>
     <t>я НЕ ИСП !!!39502Ауп Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1  / В ПР</t>
   </si>
   <si>
-    <t>я НЕ ИСП !!!40005Ауп Винт LM (копия оригинала) Implantium, Impro (арт. ASC2045) V.1  / В ПРОБИРКЕ</t>
-  </si>
-  <si>
-    <t>40105А Винт LM (копия оригинала) Anthogyr Axiom (арт. ОРТР410) V.1</t>
-  </si>
-  <si>
-    <t>39121 Винт LM (копия оригинала) Neodent Grand Morse (арт. 116.286 Long) V.1</t>
+    <t>39906В Винт LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNITS) V.1</t>
+  </si>
+  <si>
+    <t>40009Аупб Винт LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>40003Аупб Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1 / УПАК</t>
   </si>
   <si>
     <t>40139А Винт LM (копия оригинала) INNO V.1</t>
   </si>
   <si>
-    <t>40314А Винт LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/MisC1/Astra/Adin RS) V.1</t>
-  </si>
-  <si>
-    <t>39908А Винт LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1</t>
-  </si>
-  <si>
-    <t>39907А Винт LM (копия оригинала) Nobel Replace Select 3.5 (арт. 36818) V.1</t>
+    <t>40308Ауп Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2 / УПАК</t>
+  </si>
+  <si>
+    <t>40127А Винт LM (копия оригинала) BoneTrust HEX 3.0 / 3.4 / 4.0 / 5.0 (арт. 160-100001) V.1</t>
+  </si>
+  <si>
+    <t>39918Аупб Винт LM (копия оригинала) Adin RP (3.5) (арт. RP-0001) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39915Аупб Винт LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39807Аупб Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>40116А Винт LM (копия оригинала) Sky Bredent (арт. SKY-PS24) V.1</t>
+  </si>
+  <si>
+    <t>39919Аупб Винт LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>40300А Винт LM (копия оригинала) Ankylos Multi-Unit (арт. 3105 6022) V.1</t>
+  </si>
+  <si>
+    <t>39502Аупб Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39113А Винт LM NT-Traiding Straumann SynOcta NN (3.5) (арт. N 60) V.1</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!40006Ауп Винт LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1  / В ПРОБИРКЕ</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!39901Ауп Винт LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1  / В ПРОБИРКЕ</t>
+  </si>
+  <si>
+    <t>41029 Винт LM ZIRKONZAHN Impro, Implantium V.1</t>
+  </si>
+  <si>
+    <t>39802А Винт LM (копия оригинала) Mis NP (3.3), Mis C1 (Conical) NP (3.3) (арт. MN-S0160) V.1</t>
+  </si>
+  <si>
+    <t>39600А Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.2</t>
+  </si>
+  <si>
+    <t>40008Аупб Винт LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) (арт. GSABSST) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!39807Ауп Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1  / В ПРОБИРКЕ</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!40010Ауп Винт LM (копия оригинала) NeoBiotech 3.8 / 4.3 (арт. ISC 20) V.1  / В ПРОБИРКЕ</t>
+  </si>
+  <si>
+    <t>39601А Винт LM (копия оригинала) Niko 4.5 (арт. 5.300) V.1</t>
+  </si>
+  <si>
+    <t>39917Аупб Винт LM (копия оригинала) Adin NP (3.0) (арт. NP-0001) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>40007Аупб Винт LM (копия оригинала) Osstem Implant Mini (3.5) (арт. GSABSM) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39936 Винт LM (копия оригинала) Conmet NP (2.2) (арт. 213.12s) V.1</t>
   </si>
   <si>
     <t>39912А Винт LM (собств. разр.) Bego Semados 3.25/3.75 V.2</t>
   </si>
   <si>
-    <t>я НЕ ИСП !!!40006Ауп Винт LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1  / В ПРОБИРКЕ</t>
-  </si>
-  <si>
-    <t>40009Аупб Винт LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40010Аупб Винт LM (копия оригинала) NeoBiotech 3.8 / 4.3 (арт. ISC 20) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40003Аупб Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40308Ауп Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2 / УПАК</t>
-  </si>
-  <si>
-    <t>39906В Винт LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNITS) V.1</t>
-  </si>
-  <si>
-    <t>40127А Винт LM (копия оригинала) BoneTrust HEX 3.0 / 3.4 / 4.0 / 5.0 (арт. 160-100001) V.1</t>
-  </si>
-  <si>
-    <t>39918Аупб Винт LM (копия оригинала) Adin RP (3.5) (арт. RP-0001) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39915Аупб Винт LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39807Аупб Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39919Аупб Винт LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40116А Винт LM (копия оригинала) Sky Bredent (арт. SKY-PS24) V.1</t>
-  </si>
-  <si>
-    <t>40316АOопт Винт LM GEO Osstem Implant Multi-Unit (арт. MUTOC) V.1</t>
-  </si>
-  <si>
-    <t>40300А Винт LM (копия оригинала) Ankylos Multi-Unit (арт. 3105 6022) V.1</t>
-  </si>
-  <si>
-    <t>39113А Винт LM NT-Traiding Straumann SynOcta NN (3.5) (арт. N 60) V.1</t>
-  </si>
-  <si>
-    <t>39911Аупб Винт LM (копия оригинала) MegaGen AnyOne (арт. AS20) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>41029 Винт LM ZIRKONZAHN Impro, Implantium V.1</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!39901Ауп Винт LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1  / В ПРОБИРКЕ</t>
+    <t>40109А Винт LM (копия оригинала) DIO UF II RP (3.8/4.0/4.5/5.0/5.5) (арт. SSC 2008H) V.1</t>
+  </si>
+  <si>
+    <t>41039 Винт LM ZIRKONZAHN Zimmer 3.5 / 4.5 V.1</t>
+  </si>
+  <si>
+    <t>39600А Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.1</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!40003Ауп Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1  / В ПРОБИРКЕ</t>
+  </si>
+  <si>
+    <t>41298А Винт LM (копия оригинала) Sky Bredent (арт. SKY-PS22) V.1</t>
+  </si>
+  <si>
+    <t>39109Аупб Винт LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5 / УПАК</t>
+  </si>
+  <si>
+    <t>40305А Винт LM (копия оригинала) Astra Uni 20 градусов / 45 градусов (арт. 22435) V.1</t>
+  </si>
+  <si>
+    <t>41332А Винт LM (копия оригинала) Niko 4.5 (арт. 5.300 1,2 hex) V.1</t>
+  </si>
+  <si>
+    <t>39809А Винт LM (копия оригинала) Radix (арт. 180) V.1</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!40007Ауп Винт LM (копия оригинала) Osstem Implant Mini (3.5) (арт. GSABSM) V.1  / В ПРОБИРКЕ</t>
   </si>
   <si>
     <t>40312АNопт Винт LM (копия оригинала) Nobel Multi-Unit (арт. 29287) V.1</t>
   </si>
   <si>
-    <t>39502Аупб Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39802А Винт LM (копия оригинала) Mis NP (3.3), Mis C1 (Conical) NP (3.3) (арт. MN-S0160) V.1</t>
-  </si>
-  <si>
-    <t>39600А Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.2</t>
-  </si>
-  <si>
-    <t>40008Аупб Винт LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) (арт. GSABSST) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39601А Винт LM (копия оригинала) Niko 4.5 (арт. 5.300) V.1</t>
-  </si>
-  <si>
-    <t>39917Аупб Винт LM (копия оригинала) Adin NP (3.0) (арт. NP-0001) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!40010Ауп Винт LM (копия оригинала) NeoBiotech 3.8 / 4.3 (арт. ISC 20) V.1  / В ПРОБИРКЕ</t>
-  </si>
-  <si>
-    <t>39936 Винт LM (копия оригинала) Conmet NP (2.2) (арт. 213.12s) V.1</t>
-  </si>
-  <si>
-    <t>40007Аупб Винт LM (копия оригинала) Osstem Implant Mini (3.5) (арт. GSABSM) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!39807Ауп Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1  / В ПРОБИРКЕ</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!40003Ауп Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1  / В ПРОБИРКЕ</t>
-  </si>
-  <si>
-    <t>39600А Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.1</t>
-  </si>
-  <si>
-    <t>41039 Винт LM ZIRKONZAHN Zimmer 3.5 / 4.5 V.1</t>
-  </si>
-  <si>
-    <t>40109А Винт LM (копия оригинала) DIO UF II RP (3.8/4.0/4.5/5.0/5.5) (арт. SSC 2008H) V.1</t>
-  </si>
-  <si>
-    <t>39909В Винт LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1</t>
-  </si>
-  <si>
-    <t>41298А Винт LM (копия оригинала) Sky Bredent (арт. SKY-PS22) V.1</t>
-  </si>
-  <si>
-    <t>39109Аупб Винт LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5 / УПАК</t>
-  </si>
-  <si>
-    <t>40305А Винт LM (копия оригинала) Astra Uni 20 градусов / 45 градусов (арт. 22435) V.1</t>
-  </si>
-  <si>
-    <t>39809А Винт LM (копия оригинала) Radix (арт. 180) V.1</t>
-  </si>
-  <si>
-    <t>41332А Винт LM (копия оригинала) Niko 4.5 (арт. 5.300 1,2 hex) V.1</t>
-  </si>
-  <si>
     <t>40111Аупб Винт LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1 / УПАК</t>
   </si>
   <si>
     <t>я НЕ ИСП !!!39806Ауп Винт LM (копия оригинала) Straumann Bone Level NC (3.3) (арт. 025-2900) V.1  / В ПРОБИРКЕ</t>
   </si>
   <si>
+    <t>я НЕ ИСП !!!39916Ауп Винт LM (копия оригинала) Astra Tech 3.5/4.0 (арт. 24449) V.1  / В ПРОБИРКЕ</t>
+  </si>
+  <si>
+    <t>40308А Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5, Impro Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.1</t>
+  </si>
+  <si>
     <t>я НЕ ИСП !!!40009Ауп Винт LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1  / В ПР</t>
   </si>
   <si>
-    <t>40308А Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5, Impro Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.1</t>
-  </si>
-  <si>
     <t>39802Аупб Винт LM (копия оригинала) Mis NP (3.3), Mis C1 (Conical) NP (3.3) (арт. MN-S0160) V.1 / УПАК</t>
   </si>
   <si>
@@ -299,54 +296,51 @@
     <t>39908Аупб Винт LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1 / УПАК</t>
   </si>
   <si>
-    <t>я НЕ ИСП !!!39916Ауп Винт LM (копия оригинала) Astra Tech 3.5/4.0 (арт. 24449) V.1  / В ПРОБИРКЕ</t>
+    <t>39600Аупб Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.1 / УПАК</t>
   </si>
   <si>
     <t>39901Аупб Винт LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1 / УПАК</t>
   </si>
   <si>
-    <t>39600Аупб Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!40007Ауп Винт LM (копия оригинала) Osstem Implant Mini (3.5) (арт. GSABSM) V.1  / В ПРОБИРКЕ</t>
+    <t>41258А Винт LM (копия оригинала) Paltop Conical Active (арт. 80-72002) V.1</t>
+  </si>
+  <si>
+    <t>39123 Винт LM (копия оригинала) Neodent Grand Morse (арт. 116.283 Short) V.1</t>
+  </si>
+  <si>
+    <t>39115Аупб Винт Straumann SynOcta 4,8 bridge LM (1 винт в упаковке, блистер)</t>
+  </si>
+  <si>
+    <t>40101А Винт LM (копия оригинала) DIO SM RP (4.5) (арт. SSC 2008) V.1</t>
   </si>
   <si>
     <t>39905Bупб Винт LM (копия оригинала) Astra Tech 4.5/5.0 (арт. 24209) V.1 / УПАК</t>
   </si>
   <si>
-    <t>39115Аупб Винт Straumann SynOcta 4,8 bridge LM (1 винт в упаковке, блистер)</t>
-  </si>
-  <si>
     <t>39114Аупб Винт LM (собств. разр.) Straumann SynOcta 6.5 bridge V.1 / УПАК</t>
   </si>
   <si>
-    <t>41258А Винт LM (копия оригинала) Paltop Conical Active (арт. 80-72002) V.1</t>
-  </si>
-  <si>
-    <t>39123 Винт LM (копия оригинала) Neodent Grand Morse (арт. 116.283 Short) V.1</t>
-  </si>
-  <si>
-    <t>40101А Винт LM (копия оригинала) DIO SM RP (4.5) (арт. SSC 2008) V.1</t>
+    <t>39916А Винт LM (копия оригинала) Astra Tech 3.5/4.0 (арт. 24449) V.1</t>
+  </si>
+  <si>
+    <t>40106А Винт LM (копия оригинала) Impla 3.3 / 4.2 / 5.3, Impla Conical 3.3 / 4.2 / 5.3 (арт. 636649) V.1</t>
+  </si>
+  <si>
+    <t>40101Аупб Винт LM (копия оригинала) DIO SM RP (4.5) (арт. SSC 2008) V.1 / УПАК</t>
   </si>
   <si>
     <t>40108Аупб Винт LM (копия оригинала) DIO UF II NP (3.0) (арт. UNSAS 1407H) V.1 / УПАК</t>
   </si>
   <si>
+    <t>39803Аупб Винт LM (копия оригинала) Xive 3.0 (арт. 46-4304) V.1 / УПАК</t>
+  </si>
+  <si>
     <t>39909Вупб Винт LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1 / УПАК</t>
   </si>
   <si>
-    <t>39803Аупб Винт LM (копия оригинала) Xive 3.0 (арт. 46-4304) V.1 / УПАК</t>
-  </si>
-  <si>
     <t>40111А Винт LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1</t>
   </si>
   <si>
-    <t>40106А Винт LM (копия оригинала) Impla 3.3 / 4.2 / 5.3, Impla Conical 3.3 / 4.2 / 5.3 (арт. 636649) V.1</t>
-  </si>
-  <si>
-    <t>40101Аупб Винт LM (копия оригинала) DIO SM RP (4.5) (арт. SSC 2008) V.1 / УПАК</t>
-  </si>
-  <si>
     <t>Винт 3D аналога</t>
   </si>
   <si>
@@ -371,10 +365,13 @@
     <t>39806АЛ Винт лаб. LM (копия оригинала) Straumann Bone Level NC (3.3) (арт. 025-2900) V.1</t>
   </si>
   <si>
+    <t>39502СЛ Винт лаб. LM (копия оригинала) Zimmer 3.5 / 4.5 / 5.7 (арт. R60) V.1</t>
+  </si>
+  <si>
     <t>39807АЛ Винт лаб. LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1</t>
   </si>
   <si>
-    <t>39502СЛ Винт лаб. LM (копия оригинала) Zimmer 3.5 / 4.5 / 5.7 (арт. R60) V.1</t>
+    <t>40308АЛ Винт лаб. LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2</t>
   </si>
   <si>
     <t>40312АЛ Винт лаб. LM (копия оригинала) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Nobel) (арт. 29287) V.1</t>
@@ -383,21 +380,18 @@
     <t>40006АЛ Винт лаб. LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1</t>
   </si>
   <si>
+    <t>39109АЛ Винт лаб. LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5</t>
+  </si>
+  <si>
+    <t>40140АЛ Винт лаб. LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1</t>
+  </si>
+  <si>
     <t>41250АЛ Винт лаб. LM (копия оригинала) Straumann SynOcta RN (4.8) / WN (6.5) (арт. 048.711) V.1</t>
   </si>
   <si>
     <t>39916АЛ Винт лаб. LM (копия оригинала) Astra Tech 3.5/4.0 (арт. 24449) V.1</t>
   </si>
   <si>
-    <t>39109АЛ Винт лаб. LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5</t>
-  </si>
-  <si>
-    <t>40308АЛ Винт лаб. LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2</t>
-  </si>
-  <si>
-    <t>40140АЛ Винт лаб. LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1</t>
-  </si>
-  <si>
     <t>39909ВЛ Винт лаб. LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1</t>
   </si>
   <si>
@@ -413,69 +407,66 @@
     <t>39908АЛ Винт лаб. LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1</t>
   </si>
   <si>
+    <t>40105АЛ Винт лаб. LM (копия оригинала) Anthogyr Axiom (арт. ОРТР410) V.1</t>
+  </si>
+  <si>
+    <t>39906ВЛ Винт лаб. LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNITS) V.1</t>
+  </si>
+  <si>
+    <t>39906ВЛ Винт лаб. LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNIHT) V.2</t>
+  </si>
+  <si>
+    <t>39915АЛ Винт лаб. LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1</t>
+  </si>
+  <si>
+    <t>39905BЛ Винт лаб. LM (копия оригинала) Astra Tech 4.5/5.0 (арт. 24209) V.1</t>
+  </si>
+  <si>
+    <t>40139АЛ Винт лаб. LM (копия оригинала) INNO V.1</t>
+  </si>
+  <si>
+    <t>39901АЛ Винт лаб. LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1</t>
+  </si>
+  <si>
+    <t>39918АЛ Винт лаб. LM (копия оригинала) Adin RP (3.5) (арт. RP-0001) V.1</t>
+  </si>
+  <si>
+    <t>39919АЛ Винт лаб. LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1</t>
+  </si>
+  <si>
+    <t>40116АЛ Винт лаб. LM (копия оригинала) Sky Bredent (арт. SKY-PS24) V.1</t>
+  </si>
+  <si>
+    <t>39912АЛ Винт лаб. LM (копия оригинала) Bego Semados 3.25/3.75 / 4.1 / 4.5 / 5.5 (арт. 57028) V.1</t>
+  </si>
+  <si>
     <t>39911АЛ Винт лаб. LM (копия оригинала) MegaGen AnyOne (арт. AS20) V.1</t>
   </si>
   <si>
-    <t>40105АЛ Винт лаб. LM (копия оригинала) Anthogyr Axiom (арт. ОРТР410) V.1</t>
-  </si>
-  <si>
-    <t>39906ВЛ Винт лаб. LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNITS) V.1</t>
-  </si>
-  <si>
-    <t>39906ВЛ Винт лаб. LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNIHT) V.2</t>
-  </si>
-  <si>
-    <t>39915АЛ Винт лаб. LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1</t>
-  </si>
-  <si>
-    <t>40139АЛ Винт лаб. LM (копия оригинала) INNO V.1</t>
-  </si>
-  <si>
-    <t>39918АЛ Винт лаб. LM (копия оригинала) Adin RP (3.5) (арт. RP-0001) V.1</t>
-  </si>
-  <si>
-    <t>39919АЛ Винт лаб. LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1</t>
-  </si>
-  <si>
-    <t>40116АЛ Винт лаб. LM (копия оригинала) Sky Bredent (арт. SKY-PS24) V.1</t>
-  </si>
-  <si>
-    <t>39912АЛ Винт лаб. LM (копия оригинала) Bego Semados 3.25/3.75 / 4.1 / 4.5 / 5.5 (арт. 57028) V.1</t>
-  </si>
-  <si>
     <t>40010АЛ Винт лаб. LM (копия оригинала) NeoBiotech 3.8 / 4.3 (арт. ISC 20) V.1</t>
   </si>
   <si>
-    <t>39905BЛ Винт лаб. LM (копия оригинала) Astra Tech 4.5/5.0 (арт. 24209) V.1</t>
-  </si>
-  <si>
     <t>39600АЛ Винт лаб. LM (копия оригинала) Niko 3.5 (арт. 5.301) V.2</t>
   </si>
   <si>
-    <t>39930Л Винт лаб. LM (копия оригинала) MegaGen Multi-Unit Type N, LENMIRIOT Multi-Unit (отв. Megagen/Neobiotech/Xive) (арт. MUAS) V.1</t>
-  </si>
-  <si>
     <t>39121Л Винт лаб. LM (копия оригинала) Neodent Grand Morse (арт. 116.286 Long) V.1</t>
   </si>
   <si>
-    <t>39901АЛ Винт лаб. LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1</t>
+    <t>40314АЛ Винт лаб. LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/MisC1/Astra/Adin RS) V.1</t>
+  </si>
+  <si>
+    <t>40125Л Винт лаб. LM (копия оригинала) Alpha Bio Conical Narrow (арт. 7345) V.1</t>
   </si>
   <si>
     <t>40316АЛ Винт лаб. LM GEO Osstem Implant Multi-Unit, LENMIRIOT Multi-Unit (отв. Osstem) (арт. MUTOC) V.1</t>
   </si>
   <si>
-    <t>40125Л Винт лаб. LM (копия оригинала) Alpha Bio Conical Narrow (арт. 7345) V.1</t>
-  </si>
-  <si>
-    <t>40314АЛ Винт лаб. LM (собств. разр.) LENMIRIOT Multi-Unit (отв.Dentium/Mis/MisC1/Astra/Adin RS) V.1</t>
+    <t>40308АЛ Винт лаб. LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5, Impro Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.1</t>
   </si>
   <si>
     <t>39912АЛ Винт лаб. LM (собств. разр.) Bego Semados 3.25/3.75 V.2</t>
   </si>
   <si>
-    <t>40308АЛ Винт лаб. LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5, Impro Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.1</t>
-  </si>
-  <si>
     <t>39600АЛ Винт лаб. LM (копия оригинала) Niko 3.5 (арт. 5.301) V.1</t>
   </si>
   <si>
@@ -491,18 +482,21 @@
     <t>41332АЛ Винт лаб. LM (копия оригинала) Niko 4.5 (арт. 5.300 1,2 hex) V.1</t>
   </si>
   <si>
+    <t>40304АЛ Винт лаб. LM (копия оригинала) Alpha Bio Multi-Unit TCT-N (арт. SF-N 6092) V.1</t>
+  </si>
+  <si>
     <t>39123Л Винт лаб. LM (копия оригинала) Neodent Grand Morse (арт. 116.283 Short) V.1</t>
   </si>
   <si>
-    <t>40304АЛ Винт лаб. LM (копия оригинала) Alpha Bio Multi-Unit TCT-N (арт. SF-N 6092) V.1</t>
-  </si>
-  <si>
     <t>39907АЛ Винт лаб. LM (копия оригинала) Nobel Replace Select 3.5 (арт. 36818) V.1</t>
   </si>
   <si>
     <t>40111АЛ Винт лаб. LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1</t>
   </si>
   <si>
+    <t>39936Л Винт лаб. LM (копия оригинала) Conmet NP (2.2) (арт. 213.12s) V.1</t>
+  </si>
+  <si>
     <t>40101АЛ Винт лаб. LM (копия оригинала) DIO SM RP (4.5) (арт. SSC 2008) V.1</t>
   </si>
   <si>
@@ -518,6 +512,9 @@
     <t>40100АЛ Винт лаб. LM (копия оригинала) DIO SM NP (3.8) (арт. SSC 1808) V.1</t>
   </si>
   <si>
+    <t>41053Л Винт лаб. LM (копия оригинала) Straumann Bone Level Multi-Unit NC (3.3) / NC/RC (3.3/4.1/4.8) (арт. 023.4763) V.1</t>
+  </si>
+  <si>
     <t>Винт трансфера для закрытой ложки</t>
   </si>
   <si>
@@ -554,30 +551,30 @@
     <t>41233 Винт трансфера Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) открытая ложка L=22.5 V.1</t>
   </si>
   <si>
+    <t>41217 Винт трансфера MegaGen AnyRidge открытая ложка L=27 V.1</t>
+  </si>
+  <si>
     <t>41230 Винт трансфера Nobel Conical Connection NP (3.5), Nobel Active NP (3.5) открытая ложка L=27.7 V.1</t>
   </si>
   <si>
-    <t>41217 Винт трансфера MegaGen AnyRidge открытая ложка L=27 V.1</t>
+    <t>41230 Винт трансфера Nobel Conical Connection NP (3.5), Nobel Active NP (3.5) открытая ложка L=27.7 V.2</t>
   </si>
   <si>
     <t>41321 Винт трансфера LENMIRIOT Multi-Unit открытая ложка L=10 V.1</t>
   </si>
   <si>
-    <t>41230 Винт трансфера Nobel Conical Connection NP (3.5), Nobel Active NP (3.5) открытая ложка L=27.7 V.2</t>
-  </si>
-  <si>
     <t>41231 Винт трансфера Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) открытая ложка L=27.7 V.2</t>
   </si>
   <si>
+    <t>41210 Винт трансфера Astra Tech 3.5/4.0 открытая ложка L=19 V.1</t>
+  </si>
+  <si>
     <t>41209 Винт трансфера Nobel Replace Select 4.3 открытая ложка L=20.6 V.1</t>
   </si>
   <si>
     <t>41201 Винт трансфера Ankylos X открытая ложка L=20 V.1</t>
   </si>
   <si>
-    <t>41210 Винт трансфера Astra Tech 3.5/4.0 открытая ложка L=19 V.1</t>
-  </si>
-  <si>
     <t>41232 Винт трансфера ICX Medentis открытая ложка L=20 V.1</t>
   </si>
   <si>
@@ -590,22 +587,19 @@
     <t>41213 Винт трансфера Osstem Implant Mini (3.5) открытая ложка L=15 V.1</t>
   </si>
   <si>
+    <t>41215 Винт трансфера Osstem Implant Regular (4.0/4.5/5.0) открытая ложка L=25.5 V.1</t>
+  </si>
+  <si>
     <t>41237 Винт трансфера Straumann Bone Level NC (3.3) / RC ( 4.1/4.8) открытая ложка L=30 V.1</t>
   </si>
   <si>
-    <t>41215 Винт трансфера Osstem Implant Regular (4.0/4.5/5.0) открытая ложка L=25.5 V.1</t>
-  </si>
-  <si>
-    <t>41202 Винт трансфера Ankylos X открытая ложка L=25 V.1</t>
-  </si>
-  <si>
     <t>Винт углового абатмента MU</t>
   </si>
   <si>
+    <t>41344 Винт угл. абатмента MU LM (собств. разр.) Implantium, Astra Tech 4.5/5.0 V.1 /</t>
+  </si>
+  <si>
     <t>41343 Винт угл. абатмента MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), MegaGen AnyOne, NeoBiotech 4.3 V.1 /</t>
-  </si>
-  <si>
-    <t>41344 Винт угл. абатмента MU LM (собств. разр.) Implantium, Astra Tech 4.5/5.0 V.1 /</t>
   </si>
   <si>
     <t>41342 Винт угл. абатмента MU LM (собств. разр.) Osstem Implant Mini (3.5) V.1 /</t>
@@ -1104,7 +1098,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H194"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1177,15 +1171,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17">
-        <v>18164</v>
+        <v>18998</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="4">
-        <v>10040</v>
+        <v>10403</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>8124</v>
+        <v>8595</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1195,7 +1189,7 @@
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19">
-        <v>4758</v>
+        <v>4361</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="6">
@@ -1203,7 +1197,7 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>2013</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1213,7 +1207,7 @@
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="8">
@@ -1221,7 +1215,7 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="8">
-        <v>712</v>
+        <v>702</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1230,16 +1224,16 @@
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
-      <c r="D9" s="20">
-        <v>645</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="8">
-        <v>88</v>
+      <c r="D9" s="19">
+        <v>1816</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="6">
+        <v>1288</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="8">
-        <v>557</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1249,33 +1243,33 @@
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="20">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="8">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="8">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="19">
-        <v>2087</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="6">
-        <v>1605</v>
+      <c r="D11" s="20">
+        <v>786</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="8">
+        <v>270</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="8">
-        <v>482</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1284,16 +1278,16 @@
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="19">
-        <v>1654</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="6">
-        <v>1288</v>
+      <c r="D12" s="20">
+        <v>556</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="8">
+        <v>46</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="8">
-        <v>366</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1302,34 +1296,34 @@
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="20">
-        <v>381</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="8">
-        <v>50</v>
+      <c r="D13" s="19">
+        <v>2080</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="6">
+        <v>1605</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="8">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="20">
-        <v>442</v>
+        <v>392</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="8">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="8">
-        <v>292</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1339,13 +1333,15 @@
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="20">
-        <v>202</v>
+        <v>373</v>
       </c>
       <c r="E15" s="20"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="8">
+        <v>45</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="8">
-        <v>202</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1355,15 +1351,15 @@
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="20">
-        <v>215</v>
+        <v>442</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="8">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="8">
-        <v>165</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1373,15 +1369,13 @@
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="20">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E17" s="20"/>
-      <c r="F17" s="8">
-        <v>80</v>
-      </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="8">
-        <v>146</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1391,15 +1385,15 @@
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="20">
-        <v>725</v>
+        <v>215</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="8">
-        <v>580</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="8">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1409,15 +1403,15 @@
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="20">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="8">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="8">
-        <v>116</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1427,15 +1421,15 @@
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="20">
-        <v>169</v>
+        <v>728</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="8">
-        <v>57</v>
+        <v>580</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="8">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1445,15 +1439,15 @@
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="20">
-        <v>238</v>
+        <v>457</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="8">
-        <v>130</v>
+        <v>324</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="8">
-        <v>108</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1463,15 +1457,15 @@
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="20">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="8">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1481,31 +1475,33 @@
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="20">
-        <v>407</v>
+        <v>166</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="8">
-        <v>324</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="8">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="20">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="E24" s="20"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="8">
+        <v>8</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="8">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1515,13 +1511,15 @@
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="20">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="E25" s="20"/>
-      <c r="F25" s="7"/>
+      <c r="F25" s="8">
+        <v>130</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="8">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1531,15 +1529,13 @@
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="20">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E26" s="20"/>
-      <c r="F26" s="8">
-        <v>16</v>
-      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="8">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1549,15 +1545,13 @@
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="20">
-        <v>184</v>
+        <v>71</v>
       </c>
       <c r="E27" s="20"/>
-      <c r="F27" s="8">
-        <v>125</v>
-      </c>
+      <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="8">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1567,47 +1561,49 @@
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="20">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="E28" s="20"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="8">
+        <v>16</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="8">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A29" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="20">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="8">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="8">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="20">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="8">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1617,29 +1613,33 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="20">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E31" s="20"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="8">
+        <v>20</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="8">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="20">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="E32" s="20"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="8">
+        <v>25</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="8">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1649,13 +1649,13 @@
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="20">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="8">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1665,31 +1665,29 @@
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="20">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="8">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="20">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="E35" s="20"/>
-      <c r="F35" s="8">
-        <v>222</v>
-      </c>
+      <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="8">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1699,45 +1697,45 @@
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="20">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A37" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="20">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A38" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="20">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1747,33 +1745,31 @@
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="20">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="8">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="8">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A40" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="20">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="E40" s="20"/>
-      <c r="F40" s="8">
-        <v>45</v>
-      </c>
+      <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1783,15 +1779,13 @@
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="20">
-        <v>431</v>
+        <v>30</v>
       </c>
       <c r="E41" s="20"/>
-      <c r="F41" s="8">
-        <v>400</v>
-      </c>
+      <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1801,10 +1795,12 @@
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="20">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E42" s="20"/>
-      <c r="F42" s="7"/>
+      <c r="F42" s="8">
+        <v>25</v>
+      </c>
       <c r="G42" s="7"/>
       <c r="H42" s="8">
         <v>30</v>
@@ -1835,12 +1831,10 @@
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="20">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E44" s="20"/>
-      <c r="F44" s="8">
-        <v>40</v>
-      </c>
+      <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="8">
         <v>30</v>
@@ -1853,12 +1847,10 @@
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="20">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E45" s="20"/>
-      <c r="F45" s="8">
-        <v>25</v>
-      </c>
+      <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="8">
         <v>30</v>
@@ -1871,13 +1863,13 @@
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="20">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1887,13 +1879,15 @@
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E47" s="20"/>
-      <c r="F47" s="7"/>
+      <c r="F47" s="8">
+        <v>25</v>
+      </c>
       <c r="G47" s="7"/>
       <c r="H47" s="8">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -1903,63 +1897,63 @@
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="20">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E48" s="20"/>
-      <c r="F48" s="7"/>
+      <c r="F48" s="8">
+        <v>25</v>
+      </c>
       <c r="G48" s="7"/>
       <c r="H48" s="8">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="20">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="8">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="20">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E50" s="20"/>
-      <c r="F50" s="8">
-        <v>25</v>
-      </c>
+      <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A51" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="20">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="8">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="8">
@@ -1973,31 +1967,31 @@
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="20">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E52" s="20"/>
-      <c r="F52" s="8">
-        <v>25</v>
-      </c>
+      <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A53" s="18" t="s">
         <v>56</v>
       </c>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="20">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E53" s="20"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="8">
+        <v>10</v>
+      </c>
       <c r="G53" s="7"/>
       <c r="H53" s="8">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2007,32 +2001,32 @@
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="20">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="8">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A55" s="18" t="s">
         <v>58</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="20">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A56" s="18" t="s">
         <v>59</v>
       </c>
@@ -2055,65 +2049,67 @@
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="20">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="8">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A58" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="20">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="8">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A59" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="20">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A60" s="18" t="s">
         <v>63</v>
       </c>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
       <c r="D60" s="20">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="E60" s="20"/>
-      <c r="F60" s="7"/>
+      <c r="F60" s="8">
+        <v>75</v>
+      </c>
       <c r="G60" s="7"/>
       <c r="H60" s="8">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2123,15 +2119,13 @@
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
       <c r="D61" s="20">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E61" s="20"/>
-      <c r="F61" s="8">
-        <v>10</v>
-      </c>
+      <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="8">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2141,15 +2135,13 @@
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="20">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="E62" s="20"/>
-      <c r="F62" s="8">
-        <v>137</v>
-      </c>
+      <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="8">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2159,49 +2151,51 @@
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="20">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E63" s="20"/>
-      <c r="F63" s="7"/>
+      <c r="F63" s="8">
+        <v>30</v>
+      </c>
       <c r="G63" s="7"/>
       <c r="H63" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A64" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
       <c r="D64" s="20">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="8">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A65" s="18" t="s">
         <v>68</v>
       </c>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="20">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="8">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="8">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2211,78 +2205,80 @@
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="20">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E66" s="20"/>
-      <c r="F66" s="8">
-        <v>25</v>
-      </c>
+      <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A67" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="20">
-        <v>15</v>
+        <v>411</v>
       </c>
       <c r="E67" s="20"/>
-      <c r="F67" s="7"/>
+      <c r="F67" s="8">
+        <v>400</v>
+      </c>
       <c r="G67" s="7"/>
       <c r="H67" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A68" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A69" s="18" t="s">
         <v>72</v>
       </c>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="20">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="8">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A70" s="18" t="s">
         <v>73</v>
       </c>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
       <c r="D70" s="20">
-        <v>10</v>
+        <v>261</v>
       </c>
       <c r="E70" s="20"/>
-      <c r="F70" s="7"/>
+      <c r="F70" s="8">
+        <v>251</v>
+      </c>
       <c r="G70" s="7"/>
       <c r="H70" s="8">
         <v>10</v>
@@ -2311,15 +2307,13 @@
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
       <c r="D72" s="20">
-        <v>261</v>
+        <v>9</v>
       </c>
       <c r="E72" s="20"/>
-      <c r="F72" s="8">
-        <v>251</v>
-      </c>
+      <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2329,15 +2323,13 @@
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
       <c r="D73" s="20">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E73" s="20"/>
-      <c r="F73" s="8">
-        <v>50</v>
-      </c>
+      <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2347,13 +2339,13 @@
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
       <c r="D74" s="20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E74" s="20"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2363,15 +2355,13 @@
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
       <c r="D75" s="20">
-        <v>219</v>
+        <v>7</v>
       </c>
       <c r="E75" s="20"/>
-      <c r="F75" s="8">
-        <v>210</v>
-      </c>
+      <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="8">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2381,45 +2371,45 @@
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
       <c r="D76" s="20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E76" s="20"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A77" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
       <c r="D77" s="20">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E77" s="20"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A78" s="18" t="s">
         <v>81</v>
       </c>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
       <c r="D78" s="20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E78" s="20"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2429,32 +2419,32 @@
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
       <c r="D79" s="20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A80" s="18" t="s">
         <v>83</v>
       </c>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
       <c r="D80" s="20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E80" s="20"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A81" s="18" t="s">
         <v>84</v>
       </c>
@@ -2477,10 +2467,12 @@
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
       <c r="D82" s="20">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E82" s="20"/>
-      <c r="F82" s="7"/>
+      <c r="F82" s="8">
+        <v>30</v>
+      </c>
       <c r="G82" s="7"/>
       <c r="H82" s="8">
         <v>5</v>
@@ -2509,11 +2501,11 @@
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
       <c r="D84" s="20">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="8">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="8">
@@ -2527,15 +2519,15 @@
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="20">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="8">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2545,49 +2537,49 @@
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="20">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="8">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A87" s="18" t="s">
         <v>90</v>
       </c>
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="20">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E87" s="20"/>
-      <c r="F87" s="8">
-        <v>20</v>
-      </c>
+      <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A88" s="18" t="s">
         <v>91</v>
       </c>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="20">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E88" s="20"/>
-      <c r="F88" s="7"/>
+      <c r="F88" s="8">
+        <v>16</v>
+      </c>
       <c r="G88" s="7"/>
       <c r="H88" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2597,15 +2589,13 @@
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="20">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E89" s="20"/>
-      <c r="F89" s="8">
-        <v>16</v>
-      </c>
+      <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2615,29 +2605,31 @@
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
       <c r="D90" s="20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E90" s="20"/>
-      <c r="F90" s="7"/>
+      <c r="F90" s="8">
+        <v>4</v>
+      </c>
       <c r="G90" s="7"/>
       <c r="H90" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A91" s="18" t="s">
         <v>94</v>
       </c>
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E91" s="20"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2647,10 +2639,12 @@
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
       <c r="D92" s="20">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="E92" s="20"/>
-      <c r="F92" s="7"/>
+      <c r="F92" s="8">
+        <v>50</v>
+      </c>
       <c r="G92" s="7"/>
       <c r="H92" s="8">
         <v>2</v>
@@ -2695,31 +2689,31 @@
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="20">
-        <v>2</v>
+        <v>615</v>
       </c>
       <c r="E95" s="20"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="8">
+        <v>613</v>
+      </c>
       <c r="G95" s="7"/>
       <c r="H95" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A96" s="18" t="s">
         <v>99</v>
       </c>
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E96" s="20"/>
-      <c r="F96" s="8">
-        <v>4</v>
-      </c>
+      <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2729,15 +2723,13 @@
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
       <c r="D97" s="20">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E97" s="20"/>
-      <c r="F97" s="8">
-        <v>50</v>
-      </c>
+      <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2806,20 +2798,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="18" t="s">
+    <row r="102" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="20">
-        <v>1</v>
-      </c>
-      <c r="E102" s="20"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="8">
-        <v>1</v>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="21">
+        <v>34</v>
+      </c>
+      <c r="E102" s="21"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="9">
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2829,13 +2821,13 @@
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
       <c r="D103" s="20">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E103" s="20"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c r="H103" s="8">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -2844,14 +2836,16 @@
       </c>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
-      <c r="D104" s="21">
-        <v>50</v>
-      </c>
-      <c r="E104" s="21"/>
-      <c r="F104" s="5"/>
+      <c r="D104" s="17">
+        <v>5549</v>
+      </c>
+      <c r="E104" s="17"/>
+      <c r="F104" s="9">
+        <v>740</v>
+      </c>
       <c r="G104" s="5"/>
-      <c r="H104" s="9">
-        <v>50</v>
+      <c r="H104" s="4">
+        <v>4809</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2860,32 +2854,34 @@
       </c>
       <c r="B105" s="18"/>
       <c r="C105" s="18"/>
-      <c r="D105" s="20">
-        <v>50</v>
-      </c>
-      <c r="E105" s="20"/>
-      <c r="F105" s="7"/>
+      <c r="D105" s="19">
+        <v>1214</v>
+      </c>
+      <c r="E105" s="19"/>
+      <c r="F105" s="8">
+        <v>72</v>
+      </c>
       <c r="G105" s="7"/>
-      <c r="H105" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="16" t="s">
+      <c r="H105" s="6">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="17">
-        <v>5680</v>
-      </c>
-      <c r="E106" s="17"/>
-      <c r="F106" s="9">
-        <v>740</v>
-      </c>
-      <c r="G106" s="5"/>
-      <c r="H106" s="4">
-        <v>4940</v>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="19">
+        <v>1158</v>
+      </c>
+      <c r="E106" s="19"/>
+      <c r="F106" s="8">
+        <v>65</v>
+      </c>
+      <c r="G106" s="7"/>
+      <c r="H106" s="6">
+        <v>1093</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2894,16 +2890,16 @@
       </c>
       <c r="B107" s="18"/>
       <c r="C107" s="18"/>
-      <c r="D107" s="19">
-        <v>1289</v>
-      </c>
-      <c r="E107" s="19"/>
+      <c r="D107" s="20">
+        <v>439</v>
+      </c>
+      <c r="E107" s="20"/>
       <c r="F107" s="8">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="G107" s="7"/>
-      <c r="H107" s="6">
-        <v>1217</v>
+      <c r="H107" s="8">
+        <v>384</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2912,52 +2908,50 @@
       </c>
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
-      <c r="D108" s="19">
-        <v>1108</v>
-      </c>
-      <c r="E108" s="19"/>
+      <c r="D108" s="20">
+        <v>276</v>
+      </c>
+      <c r="E108" s="20"/>
       <c r="F108" s="8">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="G108" s="7"/>
-      <c r="H108" s="6">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="H108" s="8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A109" s="18" t="s">
         <v>112</v>
       </c>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
       <c r="D109" s="20">
-        <v>501</v>
+        <v>296</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="8">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G109" s="7"/>
       <c r="H109" s="8">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A110" s="18" t="s">
         <v>113</v>
       </c>
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
       <c r="D110" s="20">
-        <v>290</v>
+        <v>141</v>
       </c>
       <c r="E110" s="20"/>
-      <c r="F110" s="8">
-        <v>6</v>
-      </c>
+      <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="8">
-        <v>284</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2967,15 +2961,15 @@
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
       <c r="D111" s="20">
-        <v>311</v>
+        <v>163</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G111" s="7"/>
       <c r="H111" s="8">
-        <v>260</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2985,49 +2979,49 @@
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
       <c r="D112" s="20">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="E112" s="20"/>
-      <c r="F112" s="8">
-        <v>50</v>
-      </c>
+      <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="8">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A113" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
       <c r="D113" s="20">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="E113" s="20"/>
-      <c r="F113" s="7"/>
+      <c r="F113" s="8">
+        <v>2</v>
+      </c>
       <c r="G113" s="7"/>
       <c r="H113" s="8">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A114" s="18" t="s">
         <v>117</v>
       </c>
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
       <c r="D114" s="20">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="8">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G114" s="7"/>
       <c r="H114" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3037,49 +3031,47 @@
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
       <c r="D115" s="20">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="8">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G115" s="7"/>
       <c r="H115" s="8">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A116" s="18" t="s">
         <v>119</v>
       </c>
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
       <c r="D116" s="20">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c r="H116" s="8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A117" s="18" t="s">
         <v>120</v>
       </c>
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
       <c r="D117" s="20">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E117" s="20"/>
-      <c r="F117" s="8">
-        <v>10</v>
-      </c>
+      <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c r="H117" s="8">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3089,65 +3081,67 @@
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
       <c r="D118" s="20">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G118" s="7"/>
       <c r="H118" s="8">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A119" s="18" t="s">
         <v>122</v>
       </c>
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
       <c r="D119" s="20">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="E119" s="20"/>
-      <c r="F119" s="7"/>
+      <c r="F119" s="8">
+        <v>41</v>
+      </c>
       <c r="G119" s="7"/>
       <c r="H119" s="8">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A120" s="18" t="s">
         <v>123</v>
       </c>
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
       <c r="D120" s="20">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E120" s="20"/>
-      <c r="F120" s="7"/>
+      <c r="F120" s="8">
+        <v>27</v>
+      </c>
       <c r="G120" s="7"/>
       <c r="H120" s="8">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A121" s="18" t="s">
         <v>124</v>
       </c>
       <c r="B121" s="18"/>
       <c r="C121" s="18"/>
       <c r="D121" s="20">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="E121" s="20"/>
-      <c r="F121" s="8">
-        <v>41</v>
-      </c>
+      <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c r="H121" s="8">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3157,15 +3151,15 @@
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
       <c r="D122" s="20">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="8">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G122" s="7"/>
       <c r="H122" s="8">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3175,31 +3169,33 @@
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
       <c r="D123" s="20">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E123" s="20"/>
-      <c r="F123" s="7"/>
+      <c r="F123" s="8">
+        <v>25</v>
+      </c>
       <c r="G123" s="7"/>
       <c r="H123" s="8">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A124" s="18" t="s">
         <v>127</v>
       </c>
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
       <c r="D124" s="20">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="8">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G124" s="7"/>
       <c r="H124" s="8">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3209,101 +3205,97 @@
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
       <c r="D125" s="20">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E125" s="20"/>
-      <c r="F125" s="8">
-        <v>25</v>
-      </c>
+      <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c r="H125" s="8">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A126" s="18" t="s">
         <v>129</v>
       </c>
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
       <c r="D126" s="20">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E126" s="20"/>
-      <c r="F126" s="8">
-        <v>30</v>
-      </c>
+      <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c r="H126" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A127" s="18" t="s">
         <v>130</v>
       </c>
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
       <c r="D127" s="20">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="8">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G127" s="7"/>
       <c r="H127" s="8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A128" s="18" t="s">
         <v>131</v>
       </c>
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
       <c r="D128" s="20">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E128" s="20"/>
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="H128" s="8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A129" s="18" t="s">
         <v>132</v>
       </c>
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
       <c r="D129" s="20">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c r="H129" s="8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A130" s="18" t="s">
         <v>133</v>
       </c>
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
       <c r="D130" s="20">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="8">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G130" s="7"/>
       <c r="H130" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3313,13 +3305,15 @@
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
       <c r="D131" s="20">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E131" s="20"/>
-      <c r="F131" s="7"/>
+      <c r="F131" s="8">
+        <v>25</v>
+      </c>
       <c r="G131" s="7"/>
       <c r="H131" s="8">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3329,7 +3323,7 @@
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
       <c r="D132" s="20">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E132" s="20"/>
       <c r="F132" s="8">
@@ -3337,7 +3331,7 @@
       </c>
       <c r="G132" s="7"/>
       <c r="H132" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3347,49 +3341,49 @@
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
       <c r="D133" s="20">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E133" s="20"/>
-      <c r="F133" s="8">
-        <v>25</v>
-      </c>
+      <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c r="H133" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A134" s="18" t="s">
         <v>137</v>
       </c>
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
       <c r="D134" s="20">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E134" s="20"/>
-      <c r="F134" s="7"/>
+      <c r="F134" s="8">
+        <v>20</v>
+      </c>
       <c r="G134" s="7"/>
       <c r="H134" s="8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A135" s="18" t="s">
         <v>138</v>
       </c>
       <c r="B135" s="18"/>
       <c r="C135" s="18"/>
       <c r="D135" s="20">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G135" s="7"/>
       <c r="H135" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3415,13 +3409,13 @@
       <c r="B137" s="18"/>
       <c r="C137" s="18"/>
       <c r="D137" s="20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E137" s="20"/>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c r="H137" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3463,31 +3457,29 @@
       <c r="B140" s="18"/>
       <c r="C140" s="18"/>
       <c r="D140" s="20">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E140" s="20"/>
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c r="H140" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A141" s="18" t="s">
         <v>144</v>
       </c>
       <c r="B141" s="18"/>
       <c r="C141" s="18"/>
       <c r="D141" s="20">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E141" s="20"/>
-      <c r="F141" s="8">
-        <v>15</v>
-      </c>
+      <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c r="H141" s="8">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3497,13 +3489,13 @@
       <c r="B142" s="18"/>
       <c r="C142" s="18"/>
       <c r="D142" s="20">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E142" s="20"/>
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c r="H142" s="8">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3513,127 +3505,127 @@
       <c r="B143" s="18"/>
       <c r="C143" s="18"/>
       <c r="D143" s="20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E143" s="20"/>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c r="H143" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A144" s="18" t="s">
         <v>147</v>
       </c>
       <c r="B144" s="18"/>
       <c r="C144" s="18"/>
       <c r="D144" s="20">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E144" s="20"/>
-      <c r="F144" s="7"/>
+      <c r="F144" s="8">
+        <v>30</v>
+      </c>
       <c r="G144" s="7"/>
       <c r="H144" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A145" s="18" t="s">
         <v>148</v>
       </c>
       <c r="B145" s="18"/>
       <c r="C145" s="18"/>
       <c r="D145" s="20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E145" s="20"/>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c r="H145" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A146" s="18" t="s">
         <v>149</v>
       </c>
       <c r="B146" s="18"/>
       <c r="C146" s="18"/>
       <c r="D146" s="20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E146" s="20"/>
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c r="H146" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A147" s="18" t="s">
         <v>150</v>
       </c>
       <c r="B147" s="18"/>
       <c r="C147" s="18"/>
       <c r="D147" s="20">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="E147" s="20"/>
-      <c r="F147" s="8">
-        <v>30</v>
-      </c>
+      <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c r="H147" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A148" s="18" t="s">
         <v>151</v>
       </c>
       <c r="B148" s="18"/>
       <c r="C148" s="18"/>
       <c r="D148" s="20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E148" s="20"/>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
       <c r="H148" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A149" s="18" t="s">
         <v>152</v>
       </c>
       <c r="B149" s="18"/>
       <c r="C149" s="18"/>
       <c r="D149" s="20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E149" s="20"/>
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
       <c r="H149" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A150" s="18" t="s">
         <v>153</v>
       </c>
       <c r="B150" s="18"/>
       <c r="C150" s="18"/>
       <c r="D150" s="20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E150" s="20"/>
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c r="H150" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3643,13 +3635,15 @@
       <c r="B151" s="18"/>
       <c r="C151" s="18"/>
       <c r="D151" s="20">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E151" s="20"/>
-      <c r="F151" s="7"/>
+      <c r="F151" s="8">
+        <v>23</v>
+      </c>
       <c r="G151" s="7"/>
       <c r="H151" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3662,26 +3656,28 @@
         <v>6</v>
       </c>
       <c r="E152" s="20"/>
-      <c r="F152" s="7"/>
+      <c r="F152" s="8">
+        <v>1</v>
+      </c>
       <c r="G152" s="7"/>
       <c r="H152" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A153" s="18" t="s">
         <v>156</v>
       </c>
       <c r="B153" s="18"/>
       <c r="C153" s="18"/>
       <c r="D153" s="20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
       <c r="H153" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3691,33 +3687,29 @@
       <c r="B154" s="18"/>
       <c r="C154" s="18"/>
       <c r="D154" s="20">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E154" s="20"/>
-      <c r="F154" s="8">
-        <v>23</v>
-      </c>
+      <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c r="H154" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A155" s="18" t="s">
         <v>158</v>
       </c>
       <c r="B155" s="18"/>
       <c r="C155" s="18"/>
       <c r="D155" s="20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E155" s="20"/>
-      <c r="F155" s="8">
-        <v>1</v>
-      </c>
+      <c r="F155" s="7"/>
       <c r="G155" s="7"/>
       <c r="H155" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3730,26 +3722,28 @@
         <v>2</v>
       </c>
       <c r="E156" s="20"/>
-      <c r="F156" s="7"/>
+      <c r="F156" s="8">
+        <v>1</v>
+      </c>
       <c r="G156" s="7"/>
       <c r="H156" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A157" s="18" t="s">
         <v>160</v>
       </c>
       <c r="B157" s="18"/>
       <c r="C157" s="18"/>
       <c r="D157" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E157" s="20"/>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c r="H157" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3759,18 +3753,16 @@
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
       <c r="D158" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E158" s="20"/>
-      <c r="F158" s="8">
-        <v>1</v>
-      </c>
+      <c r="F158" s="7"/>
       <c r="G158" s="7"/>
       <c r="H158" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A159" s="18" t="s">
         <v>162</v>
       </c>
@@ -3786,70 +3778,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="18" t="s">
+    <row r="160" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B160" s="18"/>
-      <c r="C160" s="18"/>
-      <c r="D160" s="20">
-        <v>1</v>
-      </c>
-      <c r="E160" s="20"/>
-      <c r="F160" s="7"/>
-      <c r="G160" s="7"/>
-      <c r="H160" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="16" t="s">
+      <c r="B160" s="16"/>
+      <c r="C160" s="16"/>
+      <c r="D160" s="21">
+        <v>6</v>
+      </c>
+      <c r="E160" s="21"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B161" s="16"/>
-      <c r="C161" s="16"/>
-      <c r="D161" s="21">
+      <c r="B161" s="18"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="20">
         <v>6</v>
       </c>
-      <c r="E161" s="21"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="9">
+      <c r="E161" s="20"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="18" t="s">
+    <row r="162" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B162" s="18"/>
-      <c r="C162" s="18"/>
-      <c r="D162" s="20">
-        <v>6</v>
-      </c>
-      <c r="E162" s="20"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="16" t="s">
+      <c r="B162" s="16"/>
+      <c r="C162" s="16"/>
+      <c r="D162" s="17">
+        <v>1120</v>
+      </c>
+      <c r="E162" s="17"/>
+      <c r="F162" s="9">
+        <v>788</v>
+      </c>
+      <c r="G162" s="5"/>
+      <c r="H162" s="9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="B163" s="16"/>
-      <c r="C163" s="16"/>
-      <c r="D163" s="17">
-        <v>1248</v>
-      </c>
-      <c r="E163" s="17"/>
-      <c r="F163" s="9">
-        <v>927</v>
-      </c>
-      <c r="G163" s="5"/>
-      <c r="H163" s="9">
-        <v>321</v>
+      <c r="B163" s="18"/>
+      <c r="C163" s="18"/>
+      <c r="D163" s="20">
+        <v>81</v>
+      </c>
+      <c r="E163" s="20"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="8">
+        <v>81</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3859,13 +3851,15 @@
       <c r="B164" s="18"/>
       <c r="C164" s="18"/>
       <c r="D164" s="20">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E164" s="20"/>
-      <c r="F164" s="7"/>
+      <c r="F164" s="8">
+        <v>32</v>
+      </c>
       <c r="G164" s="7"/>
       <c r="H164" s="8">
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3875,15 +3869,13 @@
       <c r="B165" s="18"/>
       <c r="C165" s="18"/>
       <c r="D165" s="20">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E165" s="20"/>
-      <c r="F165" s="8">
-        <v>32</v>
-      </c>
+      <c r="F165" s="7"/>
       <c r="G165" s="7"/>
       <c r="H165" s="8">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3893,13 +3885,13 @@
       <c r="B166" s="18"/>
       <c r="C166" s="18"/>
       <c r="D166" s="20">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E166" s="20"/>
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
       <c r="H166" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3909,13 +3901,15 @@
       <c r="B167" s="18"/>
       <c r="C167" s="18"/>
       <c r="D167" s="20">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="E167" s="20"/>
-      <c r="F167" s="7"/>
+      <c r="F167" s="8">
+        <v>166</v>
+      </c>
       <c r="G167" s="7"/>
       <c r="H167" s="8">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3925,83 +3919,81 @@
       <c r="B168" s="18"/>
       <c r="C168" s="18"/>
       <c r="D168" s="20">
-        <v>195</v>
+        <v>317</v>
       </c>
       <c r="E168" s="20"/>
       <c r="F168" s="8">
-        <v>166</v>
+        <v>300</v>
       </c>
       <c r="G168" s="7"/>
       <c r="H168" s="8">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A169" s="18" t="s">
         <v>172</v>
       </c>
       <c r="B169" s="18"/>
       <c r="C169" s="18"/>
       <c r="D169" s="20">
-        <v>317</v>
+        <v>14</v>
       </c>
       <c r="E169" s="20"/>
-      <c r="F169" s="8">
-        <v>300</v>
-      </c>
+      <c r="F169" s="7"/>
       <c r="G169" s="7"/>
       <c r="H169" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A170" s="18" t="s">
         <v>173</v>
       </c>
       <c r="B170" s="18"/>
       <c r="C170" s="18"/>
       <c r="D170" s="20">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E170" s="20"/>
-      <c r="F170" s="7"/>
+      <c r="F170" s="8">
+        <v>5</v>
+      </c>
       <c r="G170" s="7"/>
       <c r="H170" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A171" s="18" t="s">
         <v>174</v>
       </c>
       <c r="B171" s="18"/>
       <c r="C171" s="18"/>
       <c r="D171" s="20">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E171" s="20"/>
-      <c r="F171" s="8">
-        <v>5</v>
-      </c>
+      <c r="F171" s="7"/>
       <c r="G171" s="7"/>
       <c r="H171" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A172" s="18" t="s">
         <v>175</v>
       </c>
       <c r="B172" s="18"/>
       <c r="C172" s="18"/>
       <c r="D172" s="20">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E172" s="20"/>
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
       <c r="H172" s="8">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4020,20 +4012,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A174" s="18" t="s">
         <v>177</v>
       </c>
       <c r="B174" s="18"/>
       <c r="C174" s="18"/>
       <c r="D174" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E174" s="20"/>
       <c r="F174" s="7"/>
       <c r="G174" s="7"/>
       <c r="H174" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4059,29 +4051,31 @@
       <c r="B176" s="18"/>
       <c r="C176" s="18"/>
       <c r="D176" s="20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E176" s="20"/>
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
       <c r="H176" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A177" s="18" t="s">
         <v>180</v>
       </c>
       <c r="B177" s="18"/>
       <c r="C177" s="18"/>
       <c r="D177" s="20">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="E177" s="20"/>
-      <c r="F177" s="7"/>
+      <c r="F177" s="8">
+        <v>135</v>
+      </c>
       <c r="G177" s="7"/>
       <c r="H177" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4107,13 +4101,13 @@
       <c r="B179" s="18"/>
       <c r="C179" s="18"/>
       <c r="D179" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E179" s="20"/>
       <c r="F179" s="7"/>
       <c r="G179" s="7"/>
       <c r="H179" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4123,15 +4117,13 @@
       <c r="B180" s="18"/>
       <c r="C180" s="18"/>
       <c r="D180" s="20">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="E180" s="20"/>
-      <c r="F180" s="8">
-        <v>135</v>
-      </c>
+      <c r="F180" s="7"/>
       <c r="G180" s="7"/>
       <c r="H180" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4141,10 +4133,12 @@
       <c r="B181" s="18"/>
       <c r="C181" s="18"/>
       <c r="D181" s="20">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="E181" s="20"/>
-      <c r="F181" s="7"/>
+      <c r="F181" s="8">
+        <v>150</v>
+      </c>
       <c r="G181" s="7"/>
       <c r="H181" s="8">
         <v>3</v>
@@ -4157,12 +4151,10 @@
       <c r="B182" s="18"/>
       <c r="C182" s="18"/>
       <c r="D182" s="20">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="E182" s="20"/>
-      <c r="F182" s="8">
-        <v>150</v>
-      </c>
+      <c r="F182" s="7"/>
       <c r="G182" s="7"/>
       <c r="H182" s="8">
         <v>3</v>
@@ -4175,13 +4167,13 @@
       <c r="B183" s="18"/>
       <c r="C183" s="18"/>
       <c r="D183" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E183" s="20"/>
       <c r="F183" s="7"/>
       <c r="G183" s="7"/>
       <c r="H183" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4191,13 +4183,13 @@
       <c r="B184" s="18"/>
       <c r="C184" s="18"/>
       <c r="D184" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E184" s="20"/>
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
       <c r="H184" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4216,20 +4208,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="18" t="s">
+    <row r="186" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="B186" s="18"/>
-      <c r="C186" s="18"/>
-      <c r="D186" s="20">
-        <v>1</v>
-      </c>
-      <c r="E186" s="20"/>
-      <c r="F186" s="7"/>
-      <c r="G186" s="7"/>
-      <c r="H186" s="8">
-        <v>1</v>
+      <c r="B186" s="16"/>
+      <c r="C186" s="16"/>
+      <c r="D186" s="21">
+        <v>34</v>
+      </c>
+      <c r="E186" s="21"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="9">
+        <v>34</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4239,63 +4231,61 @@
       <c r="B187" s="18"/>
       <c r="C187" s="18"/>
       <c r="D187" s="20">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="E187" s="20"/>
-      <c r="F187" s="8">
-        <v>139</v>
-      </c>
+      <c r="F187" s="7"/>
       <c r="G187" s="7"/>
       <c r="H187" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="B188" s="16"/>
-      <c r="C188" s="16"/>
-      <c r="D188" s="21">
-        <v>31</v>
-      </c>
-      <c r="E188" s="21"/>
-      <c r="F188" s="5"/>
-      <c r="G188" s="5"/>
-      <c r="H188" s="9">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B188" s="18"/>
+      <c r="C188" s="18"/>
+      <c r="D188" s="20">
+        <v>7</v>
+      </c>
+      <c r="E188" s="20"/>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7"/>
+      <c r="H188" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A189" s="18" t="s">
         <v>192</v>
       </c>
       <c r="B189" s="18"/>
       <c r="C189" s="18"/>
       <c r="D189" s="20">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E189" s="20"/>
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
       <c r="H189" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A190" s="18" t="s">
         <v>193</v>
       </c>
       <c r="B190" s="18"/>
       <c r="C190" s="18"/>
       <c r="D190" s="20">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E190" s="20"/>
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
       <c r="H190" s="8">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -4305,71 +4295,35 @@
       <c r="B191" s="18"/>
       <c r="C191" s="18"/>
       <c r="D191" s="20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E191" s="20"/>
       <c r="F191" s="7"/>
       <c r="G191" s="7"/>
       <c r="H191" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B192" s="18"/>
-      <c r="C192" s="18"/>
-      <c r="D192" s="20">
-        <v>2</v>
-      </c>
-      <c r="E192" s="20"/>
-      <c r="F192" s="7"/>
-      <c r="G192" s="7"/>
-      <c r="H192" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="11" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="B193" s="18"/>
-      <c r="C193" s="18"/>
-      <c r="D193" s="20">
         <v>1</v>
       </c>
-      <c r="E193" s="20"/>
-      <c r="F193" s="7"/>
-      <c r="G193" s="7"/>
-      <c r="H193" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="15" t="s">
+    </row>
+    <row r="192" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B194" s="15"/>
-      <c r="C194" s="15"/>
-      <c r="D194" s="22">
-        <v>25179</v>
-      </c>
-      <c r="E194" s="22"/>
-      <c r="F194" s="10">
-        <v>11707</v>
-      </c>
-      <c r="G194" s="11"/>
-      <c r="H194" s="10">
-        <v>13472</v>
+      <c r="B192" s="15"/>
+      <c r="C192" s="15"/>
+      <c r="D192" s="22">
+        <v>25741</v>
+      </c>
+      <c r="E192" s="22"/>
+      <c r="F192" s="10">
+        <v>11931</v>
+      </c>
+      <c r="G192" s="11"/>
+      <c r="H192" s="10">
+        <v>13810</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="383">
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="D194:E194"/>
+  <mergeCells count="379">
     <mergeCell ref="A188:C188"/>
     <mergeCell ref="D188:E188"/>
     <mergeCell ref="A189:C189"/>
